--- a/src/doubleLine/双热线.xlsx
+++ b/src/doubleLine/双热线.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20385" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="双热线" sheetId="1" r:id="rId1"/>
+    <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>节假日标志</t>
   </si>
@@ -82,16 +83,16 @@
     <t>是</t>
   </si>
   <si>
-    <t>proxy</t>
+    <t>00401020</t>
   </si>
   <si>
-    <t>是否代理</t>
+    <t>00401020_01</t>
   </si>
   <si>
-    <t>&gt;</t>
+    <t>陆海</t>
   </si>
   <si>
-    <t>&lt;</t>
+    <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
   </si>
 </sst>
 </file>
@@ -128,6 +129,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -143,21 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,57 +195,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,9 +218,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,19 +240,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -280,13 +281,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799920651875362"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +323,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,37 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,49 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,67 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,6 +498,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,8 +550,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,8 +574,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,31 +599,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,158 +617,158 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -820,12 +821,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1085,68 +1081,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:O242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="3" customWidth="1"/>
     <col min="6" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="9" style="3"/>
+    <col min="11" max="11" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="40.5" spans="1:15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1163,66 +1159,67 @@
       <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>7</v>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>24</v>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
       </c>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="8">
-        <v>10</v>
-      </c>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="O3" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -1232,13 +1229,13 @@
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -1248,13 +1245,13 @@
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -1264,13 +1261,13 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -1280,13 +1277,13 @@
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -1296,13 +1293,13 @@
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -1312,13 +1309,13 @@
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -1328,13 +1325,13 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -1344,13 +1341,13 @@
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="4"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -1360,13 +1357,13 @@
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="4"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
@@ -1376,13 +1373,13 @@
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
@@ -1392,13 +1389,13 @@
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="4"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
@@ -1408,13 +1405,13 @@
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="4"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
@@ -1424,13 +1421,13 @@
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
@@ -1440,13 +1437,13 @@
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
@@ -1456,13 +1453,13 @@
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="4"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
@@ -1472,13 +1469,13 @@
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="4"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
@@ -1488,13 +1485,13 @@
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="4"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
@@ -1504,13 +1501,13 @@
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="4"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -1520,13 +1517,13 @@
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="4"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
@@ -1536,13 +1533,13 @@
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -1552,13 +1549,13 @@
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
@@ -1568,13 +1565,13 @@
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="4"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
@@ -1584,13 +1581,13 @@
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
@@ -1600,13 +1597,13 @@
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
@@ -1616,13 +1613,13 @@
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -1632,13 +1629,13 @@
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="L30" s="3"/>
+      <c r="L30" s="4"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -1648,13 +1645,13 @@
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -1664,13 +1661,13 @@
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="L32" s="3"/>
+      <c r="L32" s="4"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -1680,13 +1677,13 @@
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="3"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
-      <c r="L33" s="3"/>
+      <c r="L33" s="4"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -1696,13 +1693,13 @@
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="3"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="4"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
@@ -1712,13 +1709,13 @@
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-      <c r="L35" s="3"/>
+      <c r="L35" s="4"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -1728,13 +1725,13 @@
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="3"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
-      <c r="L36" s="3"/>
+      <c r="L36" s="4"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
@@ -1744,13 +1741,13 @@
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="3"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-      <c r="L37" s="3"/>
+      <c r="L37" s="4"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -1760,13 +1757,13 @@
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="3"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
-      <c r="L38" s="3"/>
+      <c r="L38" s="4"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -1776,13 +1773,13 @@
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="3"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
-      <c r="L39" s="3"/>
+      <c r="L39" s="4"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -1792,13 +1789,13 @@
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="3"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
-      <c r="L40" s="3"/>
+      <c r="L40" s="4"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
@@ -1808,13 +1805,13 @@
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="3"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
-      <c r="L41" s="3"/>
+      <c r="L41" s="4"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -1824,13 +1821,13 @@
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="3"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
-      <c r="L42" s="3"/>
+      <c r="L42" s="4"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
@@ -1840,13 +1837,13 @@
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="3"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
-      <c r="L43" s="3"/>
+      <c r="L43" s="4"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
@@ -1856,13 +1853,13 @@
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="3"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
-      <c r="L44" s="3"/>
+      <c r="L44" s="4"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
@@ -1872,13 +1869,13 @@
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="3"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="4"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
@@ -1888,13 +1885,13 @@
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="3"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
-      <c r="L46" s="3"/>
+      <c r="L46" s="4"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
@@ -1904,13 +1901,13 @@
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="3"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
-      <c r="L47" s="3"/>
+      <c r="L47" s="4"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
@@ -1920,13 +1917,13 @@
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="3"/>
+      <c r="E48" s="4"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
-      <c r="L48" s="3"/>
+      <c r="L48" s="4"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
@@ -1936,13 +1933,13 @@
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="3"/>
+      <c r="E49" s="4"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
-      <c r="L49" s="3"/>
+      <c r="L49" s="4"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
@@ -1952,13 +1949,13 @@
       <c r="B50" s="6"/>
       <c r="C50" s="7"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="3"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
-      <c r="L50" s="3"/>
+      <c r="L50" s="4"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
@@ -1968,13 +1965,13 @@
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="3"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
-      <c r="L51" s="3"/>
+      <c r="L51" s="4"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
@@ -1984,13 +1981,13 @@
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="3"/>
+      <c r="E52" s="4"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
-      <c r="L52" s="3"/>
+      <c r="L52" s="4"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
@@ -2000,13 +1997,13 @@
       <c r="B53" s="6"/>
       <c r="C53" s="7"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="3"/>
+      <c r="E53" s="4"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="9"/>
       <c r="J53" s="8"/>
-      <c r="L53" s="3"/>
+      <c r="L53" s="4"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
@@ -2016,13 +2013,13 @@
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="3"/>
+      <c r="E54" s="4"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="9"/>
       <c r="J54" s="8"/>
-      <c r="L54" s="3"/>
+      <c r="L54" s="4"/>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
@@ -2032,13 +2029,13 @@
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="3"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="9"/>
       <c r="J55" s="8"/>
-      <c r="L55" s="3"/>
+      <c r="L55" s="4"/>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
@@ -2048,13 +2045,13 @@
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="3"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="9"/>
       <c r="J56" s="8"/>
-      <c r="L56" s="3"/>
+      <c r="L56" s="4"/>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
@@ -2064,13 +2061,13 @@
       <c r="B57" s="6"/>
       <c r="C57" s="7"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="3"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
       <c r="J57" s="8"/>
-      <c r="L57" s="3"/>
+      <c r="L57" s="4"/>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
@@ -2080,13 +2077,13 @@
       <c r="B58" s="6"/>
       <c r="C58" s="7"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="3"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="9"/>
       <c r="J58" s="8"/>
-      <c r="L58" s="3"/>
+      <c r="L58" s="4"/>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
@@ -2096,13 +2093,13 @@
       <c r="B59" s="6"/>
       <c r="C59" s="7"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="3"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="9"/>
       <c r="J59" s="8"/>
-      <c r="L59" s="3"/>
+      <c r="L59" s="4"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
@@ -2112,13 +2109,13 @@
       <c r="B60" s="6"/>
       <c r="C60" s="7"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="3"/>
+      <c r="E60" s="4"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="9"/>
       <c r="J60" s="8"/>
-      <c r="L60" s="3"/>
+      <c r="L60" s="4"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
@@ -2128,13 +2125,13 @@
       <c r="B61" s="6"/>
       <c r="C61" s="7"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="3"/>
+      <c r="E61" s="4"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
       <c r="J61" s="8"/>
-      <c r="L61" s="3"/>
+      <c r="L61" s="4"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
@@ -2144,13 +2141,13 @@
       <c r="B62" s="6"/>
       <c r="C62" s="7"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="3"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="9"/>
       <c r="J62" s="8"/>
-      <c r="L62" s="3"/>
+      <c r="L62" s="4"/>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
@@ -2160,13 +2157,13 @@
       <c r="B63" s="6"/>
       <c r="C63" s="7"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="3"/>
+      <c r="E63" s="4"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
       <c r="J63" s="8"/>
-      <c r="L63" s="3"/>
+      <c r="L63" s="4"/>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
@@ -2176,13 +2173,13 @@
       <c r="B64" s="6"/>
       <c r="C64" s="7"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="3"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="9"/>
       <c r="J64" s="8"/>
-      <c r="L64" s="3"/>
+      <c r="L64" s="4"/>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
@@ -2192,13 +2189,13 @@
       <c r="B65" s="6"/>
       <c r="C65" s="7"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="3"/>
+      <c r="E65" s="4"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
       <c r="J65" s="8"/>
-      <c r="L65" s="3"/>
+      <c r="L65" s="4"/>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
@@ -2208,13 +2205,13 @@
       <c r="B66" s="6"/>
       <c r="C66" s="7"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="3"/>
+      <c r="E66" s="4"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="9"/>
       <c r="J66" s="8"/>
-      <c r="L66" s="3"/>
+      <c r="L66" s="4"/>
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
@@ -2224,13 +2221,13 @@
       <c r="B67" s="6"/>
       <c r="C67" s="7"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="3"/>
+      <c r="E67" s="4"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
       <c r="J67" s="8"/>
-      <c r="L67" s="3"/>
+      <c r="L67" s="4"/>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
@@ -2240,18 +2237,18 @@
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="3"/>
+      <c r="E68" s="4"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
       <c r="J68" s="8"/>
-      <c r="L68" s="3"/>
+      <c r="L68" s="4"/>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
     </row>
-    <row r="69" s="1" customFormat="1" spans="1:15">
+    <row r="69" s="2" customFormat="1" spans="1:15">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
@@ -2262,7 +2259,7 @@
       <c r="H69" s="13"/>
       <c r="I69" s="9"/>
       <c r="J69" s="13"/>
-      <c r="K69" s="3"/>
+      <c r="K69" s="4"/>
       <c r="L69" s="12"/>
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
@@ -2273,13 +2270,13 @@
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="3"/>
+      <c r="E70" s="4"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
       <c r="J70" s="8"/>
-      <c r="L70" s="3"/>
+      <c r="L70" s="4"/>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
@@ -2289,13 +2286,13 @@
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="3"/>
+      <c r="E71" s="4"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
       <c r="I71" s="14"/>
       <c r="J71" s="8"/>
-      <c r="L71" s="3"/>
+      <c r="L71" s="4"/>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
@@ -2305,7 +2302,7 @@
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="3"/>
+      <c r="E72" s="4"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -2321,13 +2318,13 @@
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="3"/>
+      <c r="E73" s="4"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="14"/>
       <c r="J73" s="8"/>
-      <c r="L73" s="3"/>
+      <c r="L73" s="4"/>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
@@ -2337,7 +2334,7 @@
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="3"/>
+      <c r="E74" s="4"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -2353,13 +2350,13 @@
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="3"/>
+      <c r="E75" s="4"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="14"/>
       <c r="J75" s="8"/>
-      <c r="L75" s="3"/>
+      <c r="L75" s="4"/>
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
@@ -2369,13 +2366,13 @@
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="3"/>
+      <c r="E76" s="4"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="14"/>
       <c r="J76" s="8"/>
-      <c r="L76" s="3"/>
+      <c r="L76" s="4"/>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
@@ -2385,7 +2382,7 @@
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="3"/>
+      <c r="E77" s="4"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -2401,13 +2398,13 @@
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="3"/>
+      <c r="E78" s="4"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
       <c r="I78" s="14"/>
       <c r="J78" s="8"/>
-      <c r="L78" s="3"/>
+      <c r="L78" s="4"/>
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
@@ -2417,7 +2414,7 @@
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="3"/>
+      <c r="E79" s="4"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -2433,13 +2430,13 @@
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="3"/>
+      <c r="E80" s="4"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="14"/>
       <c r="J80" s="8"/>
-      <c r="L80" s="3"/>
+      <c r="L80" s="4"/>
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
@@ -2449,7 +2446,7 @@
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="3"/>
+      <c r="E81" s="4"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
@@ -2465,7 +2462,7 @@
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="3"/>
+      <c r="E82" s="4"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
@@ -2481,13 +2478,13 @@
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="3"/>
+      <c r="E83" s="4"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="I83" s="14"/>
       <c r="J83" s="8"/>
-      <c r="L83" s="3"/>
+      <c r="L83" s="4"/>
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
@@ -2497,7 +2494,7 @@
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="3"/>
+      <c r="E84" s="4"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
@@ -2513,7 +2510,7 @@
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="3"/>
+      <c r="E85" s="4"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
@@ -2529,13 +2526,13 @@
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="3"/>
+      <c r="E86" s="4"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="14"/>
       <c r="J86" s="8"/>
-      <c r="L86" s="3"/>
+      <c r="L86" s="4"/>
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
@@ -2545,7 +2542,7 @@
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="3"/>
+      <c r="E87" s="4"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
@@ -2561,7 +2558,7 @@
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="3"/>
+      <c r="E88" s="4"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
@@ -2577,7 +2574,7 @@
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="3"/>
+      <c r="E89" s="4"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
@@ -2593,13 +2590,13 @@
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="3"/>
+      <c r="E90" s="4"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="I90" s="14"/>
       <c r="J90" s="8"/>
-      <c r="L90" s="3"/>
+      <c r="L90" s="4"/>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
@@ -2609,7 +2606,7 @@
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="3"/>
+      <c r="E91" s="4"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
@@ -2625,13 +2622,13 @@
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="3"/>
+      <c r="E92" s="4"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
       <c r="I92" s="14"/>
       <c r="J92" s="8"/>
-      <c r="L92" s="3"/>
+      <c r="L92" s="4"/>
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
@@ -2641,7 +2638,7 @@
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="3"/>
+      <c r="E93" s="4"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
@@ -2657,7 +2654,7 @@
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="3"/>
+      <c r="E94" s="4"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
@@ -2673,7 +2670,7 @@
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="3"/>
+      <c r="E95" s="4"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
@@ -2689,13 +2686,13 @@
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="3"/>
+      <c r="E96" s="4"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="14"/>
       <c r="J96" s="8"/>
-      <c r="L96" s="3"/>
+      <c r="L96" s="4"/>
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
       <c r="O96" s="8"/>
@@ -2705,7 +2702,7 @@
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="3"/>
+      <c r="E97" s="4"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
@@ -2721,13 +2718,13 @@
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="3"/>
+      <c r="E98" s="4"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
-      <c r="L98" s="3"/>
+      <c r="L98" s="4"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
@@ -2737,7 +2734,7 @@
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="3"/>
+      <c r="E99" s="4"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
@@ -2753,13 +2750,13 @@
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="3"/>
+      <c r="E100" s="4"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
-      <c r="L100" s="3"/>
+      <c r="L100" s="4"/>
       <c r="M100" s="8"/>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
@@ -2769,7 +2766,7 @@
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="3"/>
+      <c r="E101" s="4"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
@@ -2780,7 +2777,7 @@
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
     </row>
-    <row r="102" s="1" customFormat="1" spans="1:15">
+    <row r="102" s="2" customFormat="1" spans="1:15">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
@@ -2791,13 +2788,13 @@
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
-      <c r="K102" s="3"/>
+      <c r="K102" s="4"/>
       <c r="L102" s="16"/>
       <c r="M102" s="13"/>
       <c r="N102" s="13"/>
       <c r="O102" s="13"/>
     </row>
-    <row r="103" s="1" customFormat="1" spans="1:15">
+    <row r="103" s="2" customFormat="1" spans="1:15">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
@@ -2808,13 +2805,13 @@
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
-      <c r="K103" s="3"/>
+      <c r="K103" s="4"/>
       <c r="L103" s="16"/>
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
       <c r="O103" s="13"/>
     </row>
-    <row r="104" s="1" customFormat="1" spans="1:15">
+    <row r="104" s="2" customFormat="1" spans="1:15">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
@@ -2825,13 +2822,13 @@
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13"/>
-      <c r="K104" s="3"/>
+      <c r="K104" s="4"/>
       <c r="L104" s="16"/>
       <c r="M104" s="13"/>
       <c r="N104" s="13"/>
       <c r="O104" s="13"/>
     </row>
-    <row r="105" s="1" customFormat="1" spans="1:15">
+    <row r="105" s="2" customFormat="1" spans="1:15">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
@@ -2842,7 +2839,7 @@
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
       <c r="J105" s="13"/>
-      <c r="K105" s="3"/>
+      <c r="K105" s="4"/>
       <c r="L105" s="12"/>
       <c r="M105" s="13"/>
       <c r="N105" s="13"/>
@@ -2853,7 +2850,7 @@
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="6"/>
-      <c r="E106" s="3"/>
+      <c r="E106" s="4"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
@@ -2869,7 +2866,7 @@
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="6"/>
-      <c r="E107" s="3"/>
+      <c r="E107" s="4"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
@@ -2885,7 +2882,7 @@
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="6"/>
-      <c r="E108" s="3"/>
+      <c r="E108" s="4"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
@@ -2901,7 +2898,7 @@
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="6"/>
-      <c r="E109" s="3"/>
+      <c r="E109" s="4"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -2917,7 +2914,7 @@
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="3"/>
+      <c r="E110" s="4"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
@@ -2933,7 +2930,7 @@
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="6"/>
-      <c r="E111" s="3"/>
+      <c r="E111" s="4"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
@@ -2949,13 +2946,13 @@
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="6"/>
-      <c r="E112" s="3"/>
+      <c r="E112" s="4"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
       <c r="I112" s="14"/>
       <c r="J112" s="8"/>
-      <c r="L112" s="3"/>
+      <c r="L112" s="4"/>
       <c r="M112" s="8"/>
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
@@ -2965,7 +2962,7 @@
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="6"/>
-      <c r="E113" s="3"/>
+      <c r="E113" s="4"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
@@ -2981,7 +2978,7 @@
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="6"/>
-      <c r="E114" s="3"/>
+      <c r="E114" s="4"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
@@ -2997,13 +2994,13 @@
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="6"/>
-      <c r="E115" s="3"/>
+      <c r="E115" s="4"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
-      <c r="L115" s="3"/>
+      <c r="L115" s="4"/>
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
@@ -3013,7 +3010,7 @@
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="6"/>
-      <c r="E116" s="3"/>
+      <c r="E116" s="4"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
@@ -3029,7 +3026,7 @@
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="6"/>
-      <c r="E117" s="3"/>
+      <c r="E117" s="4"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
@@ -3045,7 +3042,7 @@
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="6"/>
-      <c r="E118" s="3"/>
+      <c r="E118" s="4"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
@@ -3061,13 +3058,13 @@
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="3"/>
+      <c r="E119" s="4"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
       <c r="I119" s="14"/>
       <c r="J119" s="8"/>
-      <c r="L119" s="3"/>
+      <c r="L119" s="4"/>
       <c r="M119" s="8"/>
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
@@ -3077,7 +3074,7 @@
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="6"/>
-      <c r="E120" s="3"/>
+      <c r="E120" s="4"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
@@ -3093,13 +3090,13 @@
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="6"/>
-      <c r="E121" s="3"/>
+      <c r="E121" s="4"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
       <c r="I121" s="14"/>
       <c r="J121" s="8"/>
-      <c r="L121" s="3"/>
+      <c r="L121" s="4"/>
       <c r="M121" s="8"/>
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
@@ -3109,7 +3106,7 @@
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="3"/>
+      <c r="E122" s="4"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
@@ -3125,7 +3122,7 @@
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="6"/>
-      <c r="E123" s="3"/>
+      <c r="E123" s="4"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
@@ -3141,7 +3138,7 @@
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="6"/>
-      <c r="E124" s="3"/>
+      <c r="E124" s="4"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
@@ -3157,13 +3154,13 @@
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="6"/>
-      <c r="E125" s="3"/>
+      <c r="E125" s="4"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
       <c r="I125" s="14"/>
       <c r="J125" s="8"/>
-      <c r="L125" s="3"/>
+      <c r="L125" s="4"/>
       <c r="M125" s="8"/>
       <c r="N125" s="8"/>
       <c r="O125" s="8"/>
@@ -3173,7 +3170,7 @@
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="6"/>
-      <c r="E126" s="3"/>
+      <c r="E126" s="4"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
@@ -3189,13 +3186,13 @@
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="6"/>
-      <c r="E127" s="3"/>
+      <c r="E127" s="4"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
       <c r="I127" s="14"/>
       <c r="J127" s="8"/>
-      <c r="L127" s="3"/>
+      <c r="L127" s="4"/>
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
       <c r="O127" s="8"/>
@@ -3205,7 +3202,7 @@
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="6"/>
-      <c r="E128" s="3"/>
+      <c r="E128" s="4"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
@@ -3221,7 +3218,7 @@
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="6"/>
-      <c r="E129" s="3"/>
+      <c r="E129" s="4"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
@@ -3237,7 +3234,7 @@
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="6"/>
-      <c r="E130" s="3"/>
+      <c r="E130" s="4"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
@@ -3253,13 +3250,13 @@
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="6"/>
-      <c r="E131" s="3"/>
+      <c r="E131" s="4"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
       <c r="I131" s="14"/>
       <c r="J131" s="8"/>
-      <c r="L131" s="3"/>
+      <c r="L131" s="4"/>
       <c r="M131" s="8"/>
       <c r="N131" s="8"/>
       <c r="O131" s="8"/>
@@ -3269,7 +3266,7 @@
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="6"/>
-      <c r="E132" s="3"/>
+      <c r="E132" s="4"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
@@ -3285,7 +3282,7 @@
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="6"/>
-      <c r="E133" s="3"/>
+      <c r="E133" s="4"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
@@ -3301,13 +3298,13 @@
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="6"/>
-      <c r="E134" s="3"/>
+      <c r="E134" s="4"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
       <c r="I134" s="14"/>
       <c r="J134" s="8"/>
-      <c r="L134" s="3"/>
+      <c r="L134" s="4"/>
       <c r="M134" s="8"/>
       <c r="N134" s="8"/>
       <c r="O134" s="8"/>
@@ -3317,13 +3314,13 @@
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="6"/>
-      <c r="E135" s="3"/>
+      <c r="E135" s="4"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
       <c r="I135" s="14"/>
       <c r="J135" s="8"/>
-      <c r="L135" s="3"/>
+      <c r="L135" s="4"/>
       <c r="M135" s="8"/>
       <c r="N135" s="8"/>
       <c r="O135" s="8"/>
@@ -3333,7 +3330,7 @@
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="6"/>
-      <c r="E136" s="3"/>
+      <c r="E136" s="4"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
@@ -3349,13 +3346,13 @@
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="6"/>
-      <c r="E137" s="3"/>
+      <c r="E137" s="4"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
       <c r="I137" s="14"/>
       <c r="J137" s="8"/>
-      <c r="L137" s="3"/>
+      <c r="L137" s="4"/>
       <c r="M137" s="8"/>
       <c r="N137" s="8"/>
       <c r="O137" s="8"/>
@@ -3365,7 +3362,7 @@
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="6"/>
-      <c r="E138" s="3"/>
+      <c r="E138" s="4"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
@@ -3381,7 +3378,7 @@
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
       <c r="D139" s="6"/>
-      <c r="E139" s="3"/>
+      <c r="E139" s="4"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
@@ -3397,13 +3394,13 @@
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
       <c r="D140" s="6"/>
-      <c r="E140" s="3"/>
+      <c r="E140" s="4"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
       <c r="I140" s="14"/>
       <c r="J140" s="8"/>
-      <c r="L140" s="3"/>
+      <c r="L140" s="4"/>
       <c r="M140" s="8"/>
       <c r="N140" s="8"/>
       <c r="O140" s="8"/>
@@ -3413,7 +3410,7 @@
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="3"/>
+      <c r="E141" s="4"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
@@ -3424,7 +3421,7 @@
       <c r="N141" s="8"/>
       <c r="O141" s="8"/>
     </row>
-    <row r="142" s="1" customFormat="1" spans="1:15">
+    <row r="142" s="2" customFormat="1" spans="1:15">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
@@ -3435,13 +3432,13 @@
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
       <c r="J142" s="13"/>
-      <c r="K142" s="3"/>
+      <c r="K142" s="4"/>
       <c r="L142" s="12"/>
       <c r="M142" s="13"/>
       <c r="N142" s="13"/>
       <c r="O142" s="13"/>
     </row>
-    <row r="143" s="1" customFormat="1" spans="1:15">
+    <row r="143" s="2" customFormat="1" spans="1:15">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
@@ -3452,7 +3449,7 @@
       <c r="H143" s="13"/>
       <c r="I143" s="13"/>
       <c r="J143" s="13"/>
-      <c r="K143" s="3"/>
+      <c r="K143" s="4"/>
       <c r="L143" s="12"/>
       <c r="M143" s="13"/>
       <c r="N143" s="13"/>
@@ -3463,13 +3460,13 @@
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
       <c r="D144" s="6"/>
-      <c r="E144" s="3"/>
+      <c r="E144" s="4"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
-      <c r="L144" s="3"/>
+      <c r="L144" s="4"/>
       <c r="M144" s="8"/>
       <c r="N144" s="8"/>
       <c r="O144" s="8"/>
@@ -3479,13 +3476,13 @@
       <c r="B145" s="6"/>
       <c r="C145" s="7"/>
       <c r="D145" s="6"/>
-      <c r="E145" s="3"/>
+      <c r="E145" s="4"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
-      <c r="L145" s="3"/>
+      <c r="L145" s="4"/>
       <c r="M145" s="8"/>
       <c r="N145" s="8"/>
       <c r="O145" s="8"/>
@@ -3495,13 +3492,13 @@
       <c r="B146" s="6"/>
       <c r="C146" s="7"/>
       <c r="D146" s="6"/>
-      <c r="E146" s="3"/>
+      <c r="E146" s="4"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
-      <c r="L146" s="3"/>
+      <c r="L146" s="4"/>
       <c r="M146" s="8"/>
       <c r="N146" s="8"/>
       <c r="O146" s="8"/>
@@ -3511,13 +3508,13 @@
       <c r="B147" s="6"/>
       <c r="C147" s="7"/>
       <c r="D147" s="6"/>
-      <c r="E147" s="3"/>
+      <c r="E147" s="4"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
-      <c r="L147" s="3"/>
+      <c r="L147" s="4"/>
       <c r="M147" s="8"/>
       <c r="N147" s="8"/>
       <c r="O147" s="8"/>
@@ -3527,13 +3524,13 @@
       <c r="B148" s="6"/>
       <c r="C148" s="7"/>
       <c r="D148" s="6"/>
-      <c r="E148" s="3"/>
+      <c r="E148" s="4"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
-      <c r="L148" s="3"/>
+      <c r="L148" s="4"/>
       <c r="M148" s="8"/>
       <c r="N148" s="8"/>
       <c r="O148" s="8"/>
@@ -3543,13 +3540,13 @@
       <c r="B149" s="6"/>
       <c r="C149" s="7"/>
       <c r="D149" s="6"/>
-      <c r="E149" s="3"/>
+      <c r="E149" s="4"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
-      <c r="L149" s="3"/>
+      <c r="L149" s="4"/>
       <c r="M149" s="8"/>
       <c r="N149" s="8"/>
       <c r="O149" s="8"/>
@@ -3559,13 +3556,13 @@
       <c r="B150" s="6"/>
       <c r="C150" s="7"/>
       <c r="D150" s="6"/>
-      <c r="E150" s="3"/>
+      <c r="E150" s="4"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
-      <c r="L150" s="3"/>
+      <c r="L150" s="4"/>
       <c r="M150" s="8"/>
       <c r="N150" s="8"/>
       <c r="O150" s="8"/>
@@ -3575,13 +3572,13 @@
       <c r="B151" s="6"/>
       <c r="C151" s="7"/>
       <c r="D151" s="6"/>
-      <c r="E151" s="3"/>
+      <c r="E151" s="4"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
-      <c r="L151" s="3"/>
+      <c r="L151" s="4"/>
       <c r="M151" s="8"/>
       <c r="N151" s="8"/>
       <c r="O151" s="8"/>
@@ -3591,13 +3588,13 @@
       <c r="B152" s="6"/>
       <c r="C152" s="7"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="3"/>
+      <c r="E152" s="4"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
-      <c r="L152" s="3"/>
+      <c r="L152" s="4"/>
       <c r="M152" s="8"/>
       <c r="N152" s="8"/>
       <c r="O152" s="8"/>
@@ -3607,13 +3604,13 @@
       <c r="B153" s="6"/>
       <c r="C153" s="7"/>
       <c r="D153" s="6"/>
-      <c r="E153" s="3"/>
+      <c r="E153" s="4"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
-      <c r="L153" s="3"/>
+      <c r="L153" s="4"/>
       <c r="M153" s="8"/>
       <c r="N153" s="8"/>
       <c r="O153" s="8"/>
@@ -3623,13 +3620,13 @@
       <c r="B154" s="6"/>
       <c r="C154" s="7"/>
       <c r="D154" s="6"/>
-      <c r="E154" s="3"/>
+      <c r="E154" s="4"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
-      <c r="L154" s="3"/>
+      <c r="L154" s="4"/>
       <c r="M154" s="8"/>
       <c r="N154" s="8"/>
       <c r="O154" s="8"/>
@@ -3639,13 +3636,13 @@
       <c r="B155" s="6"/>
       <c r="C155" s="7"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="3"/>
+      <c r="E155" s="4"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
-      <c r="L155" s="3"/>
+      <c r="L155" s="4"/>
       <c r="M155" s="8"/>
       <c r="N155" s="8"/>
       <c r="O155" s="8"/>
@@ -3655,13 +3652,13 @@
       <c r="B156" s="6"/>
       <c r="C156" s="7"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="3"/>
+      <c r="E156" s="4"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
-      <c r="L156" s="3"/>
+      <c r="L156" s="4"/>
       <c r="M156" s="8"/>
       <c r="N156" s="8"/>
       <c r="O156" s="8"/>
@@ -3671,13 +3668,13 @@
       <c r="B157" s="6"/>
       <c r="C157" s="7"/>
       <c r="D157" s="6"/>
-      <c r="E157" s="3"/>
+      <c r="E157" s="4"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
-      <c r="L157" s="3"/>
+      <c r="L157" s="4"/>
       <c r="M157" s="8"/>
       <c r="N157" s="8"/>
       <c r="O157" s="8"/>
@@ -3687,13 +3684,13 @@
       <c r="B158" s="6"/>
       <c r="C158" s="7"/>
       <c r="D158" s="6"/>
-      <c r="E158" s="3"/>
+      <c r="E158" s="4"/>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
-      <c r="L158" s="3"/>
+      <c r="L158" s="4"/>
       <c r="M158" s="8"/>
       <c r="N158" s="8"/>
       <c r="O158" s="8"/>
@@ -3703,13 +3700,13 @@
       <c r="B159" s="6"/>
       <c r="C159" s="7"/>
       <c r="D159" s="6"/>
-      <c r="E159" s="3"/>
+      <c r="E159" s="4"/>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
-      <c r="L159" s="3"/>
+      <c r="L159" s="4"/>
       <c r="M159" s="8"/>
       <c r="N159" s="8"/>
       <c r="O159" s="8"/>
@@ -3719,13 +3716,13 @@
       <c r="B160" s="6"/>
       <c r="C160" s="7"/>
       <c r="D160" s="6"/>
-      <c r="E160" s="3"/>
+      <c r="E160" s="4"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
-      <c r="L160" s="3"/>
+      <c r="L160" s="4"/>
       <c r="M160" s="8"/>
       <c r="N160" s="8"/>
       <c r="O160" s="8"/>
@@ -3735,13 +3732,13 @@
       <c r="B161" s="6"/>
       <c r="C161" s="7"/>
       <c r="D161" s="6"/>
-      <c r="E161" s="3"/>
+      <c r="E161" s="4"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
-      <c r="L161" s="3"/>
+      <c r="L161" s="4"/>
       <c r="M161" s="8"/>
       <c r="N161" s="8"/>
       <c r="O161" s="8"/>
@@ -3751,13 +3748,13 @@
       <c r="B162" s="6"/>
       <c r="C162" s="7"/>
       <c r="D162" s="6"/>
-      <c r="E162" s="3"/>
+      <c r="E162" s="4"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
-      <c r="L162" s="3"/>
+      <c r="L162" s="4"/>
       <c r="M162" s="8"/>
       <c r="N162" s="8"/>
       <c r="O162" s="8"/>
@@ -3767,13 +3764,13 @@
       <c r="B163" s="6"/>
       <c r="C163" s="7"/>
       <c r="D163" s="6"/>
-      <c r="E163" s="3"/>
+      <c r="E163" s="4"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
-      <c r="L163" s="3"/>
+      <c r="L163" s="4"/>
       <c r="M163" s="8"/>
       <c r="N163" s="8"/>
       <c r="O163" s="8"/>
@@ -3783,13 +3780,13 @@
       <c r="B164" s="6"/>
       <c r="C164" s="7"/>
       <c r="D164" s="6"/>
-      <c r="E164" s="3"/>
+      <c r="E164" s="4"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
-      <c r="L164" s="3"/>
+      <c r="L164" s="4"/>
       <c r="M164" s="8"/>
       <c r="N164" s="8"/>
       <c r="O164" s="8"/>
@@ -3799,13 +3796,13 @@
       <c r="B165" s="6"/>
       <c r="C165" s="7"/>
       <c r="D165" s="6"/>
-      <c r="E165" s="3"/>
+      <c r="E165" s="4"/>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
-      <c r="L165" s="3"/>
+      <c r="L165" s="4"/>
       <c r="M165" s="8"/>
       <c r="N165" s="8"/>
       <c r="O165" s="8"/>
@@ -3815,13 +3812,13 @@
       <c r="B166" s="6"/>
       <c r="C166" s="7"/>
       <c r="D166" s="6"/>
-      <c r="E166" s="3"/>
+      <c r="E166" s="4"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
-      <c r="L166" s="3"/>
+      <c r="L166" s="4"/>
       <c r="M166" s="8"/>
       <c r="N166" s="8"/>
       <c r="O166" s="8"/>
@@ -3831,13 +3828,13 @@
       <c r="B167" s="6"/>
       <c r="C167" s="7"/>
       <c r="D167" s="6"/>
-      <c r="E167" s="3"/>
+      <c r="E167" s="4"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
-      <c r="L167" s="3"/>
+      <c r="L167" s="4"/>
       <c r="M167" s="8"/>
       <c r="N167" s="8"/>
       <c r="O167" s="8"/>
@@ -3847,13 +3844,13 @@
       <c r="B168" s="6"/>
       <c r="C168" s="7"/>
       <c r="D168" s="6"/>
-      <c r="E168" s="3"/>
+      <c r="E168" s="4"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
-      <c r="L168" s="3"/>
+      <c r="L168" s="4"/>
       <c r="M168" s="8"/>
       <c r="N168" s="8"/>
       <c r="O168" s="8"/>
@@ -3863,13 +3860,13 @@
       <c r="B169" s="6"/>
       <c r="C169" s="7"/>
       <c r="D169" s="6"/>
-      <c r="E169" s="3"/>
+      <c r="E169" s="4"/>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
-      <c r="L169" s="3"/>
+      <c r="L169" s="4"/>
       <c r="M169" s="8"/>
       <c r="N169" s="8"/>
       <c r="O169" s="8"/>
@@ -3879,13 +3876,13 @@
       <c r="B170" s="6"/>
       <c r="C170" s="7"/>
       <c r="D170" s="6"/>
-      <c r="E170" s="3"/>
+      <c r="E170" s="4"/>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
-      <c r="L170" s="3"/>
+      <c r="L170" s="4"/>
       <c r="M170" s="8"/>
       <c r="N170" s="8"/>
       <c r="O170" s="8"/>
@@ -3895,13 +3892,13 @@
       <c r="B171" s="6"/>
       <c r="C171" s="7"/>
       <c r="D171" s="6"/>
-      <c r="E171" s="3"/>
+      <c r="E171" s="4"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
-      <c r="L171" s="3"/>
+      <c r="L171" s="4"/>
       <c r="M171" s="8"/>
       <c r="N171" s="8"/>
       <c r="O171" s="8"/>
@@ -3911,13 +3908,13 @@
       <c r="B172" s="6"/>
       <c r="C172" s="7"/>
       <c r="D172" s="6"/>
-      <c r="E172" s="3"/>
+      <c r="E172" s="4"/>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
       <c r="I172" s="8"/>
       <c r="J172" s="8"/>
-      <c r="L172" s="3"/>
+      <c r="L172" s="4"/>
       <c r="M172" s="8"/>
       <c r="N172" s="8"/>
       <c r="O172" s="8"/>
@@ -3927,13 +3924,13 @@
       <c r="B173" s="6"/>
       <c r="C173" s="7"/>
       <c r="D173" s="6"/>
-      <c r="E173" s="3"/>
+      <c r="E173" s="4"/>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
-      <c r="L173" s="3"/>
+      <c r="L173" s="4"/>
       <c r="M173" s="8"/>
       <c r="N173" s="8"/>
       <c r="O173" s="8"/>
@@ -3943,13 +3940,13 @@
       <c r="B174" s="6"/>
       <c r="C174" s="7"/>
       <c r="D174" s="6"/>
-      <c r="E174" s="3"/>
+      <c r="E174" s="4"/>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
       <c r="I174" s="8"/>
       <c r="J174" s="8"/>
-      <c r="L174" s="3"/>
+      <c r="L174" s="4"/>
       <c r="M174" s="8"/>
       <c r="N174" s="8"/>
       <c r="O174" s="8"/>
@@ -3959,13 +3956,13 @@
       <c r="B175" s="6"/>
       <c r="C175" s="7"/>
       <c r="D175" s="6"/>
-      <c r="E175" s="3"/>
+      <c r="E175" s="4"/>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
-      <c r="L175" s="3"/>
+      <c r="L175" s="4"/>
       <c r="M175" s="8"/>
       <c r="N175" s="8"/>
       <c r="O175" s="8"/>
@@ -3975,13 +3972,13 @@
       <c r="B176" s="6"/>
       <c r="C176" s="7"/>
       <c r="D176" s="6"/>
-      <c r="E176" s="3"/>
+      <c r="E176" s="4"/>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
       <c r="I176" s="8"/>
       <c r="J176" s="8"/>
-      <c r="L176" s="3"/>
+      <c r="L176" s="4"/>
       <c r="M176" s="8"/>
       <c r="N176" s="8"/>
       <c r="O176" s="8"/>
@@ -3991,13 +3988,13 @@
       <c r="B177" s="6"/>
       <c r="C177" s="7"/>
       <c r="D177" s="6"/>
-      <c r="E177" s="3"/>
+      <c r="E177" s="4"/>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
       <c r="I177" s="8"/>
       <c r="J177" s="8"/>
-      <c r="L177" s="3"/>
+      <c r="L177" s="4"/>
       <c r="M177" s="8"/>
       <c r="N177" s="8"/>
       <c r="O177" s="8"/>
@@ -4007,13 +4004,13 @@
       <c r="B178" s="6"/>
       <c r="C178" s="7"/>
       <c r="D178" s="6"/>
-      <c r="E178" s="3"/>
+      <c r="E178" s="4"/>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
       <c r="I178" s="8"/>
       <c r="J178" s="8"/>
-      <c r="L178" s="3"/>
+      <c r="L178" s="4"/>
       <c r="M178" s="8"/>
       <c r="N178" s="8"/>
       <c r="O178" s="8"/>
@@ -4023,13 +4020,13 @@
       <c r="B179" s="6"/>
       <c r="C179" s="7"/>
       <c r="D179" s="6"/>
-      <c r="E179" s="3"/>
+      <c r="E179" s="4"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
       <c r="I179" s="8"/>
       <c r="J179" s="8"/>
-      <c r="L179" s="3"/>
+      <c r="L179" s="4"/>
       <c r="M179" s="8"/>
       <c r="N179" s="8"/>
       <c r="O179" s="8"/>
@@ -4039,13 +4036,13 @@
       <c r="B180" s="6"/>
       <c r="C180" s="7"/>
       <c r="D180" s="6"/>
-      <c r="E180" s="3"/>
+      <c r="E180" s="4"/>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
       <c r="J180" s="8"/>
-      <c r="L180" s="3"/>
+      <c r="L180" s="4"/>
       <c r="M180" s="8"/>
       <c r="N180" s="8"/>
       <c r="O180" s="8"/>
@@ -4055,13 +4052,13 @@
       <c r="B181" s="6"/>
       <c r="C181" s="7"/>
       <c r="D181" s="6"/>
-      <c r="E181" s="3"/>
+      <c r="E181" s="4"/>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
       <c r="I181" s="8"/>
       <c r="J181" s="8"/>
-      <c r="L181" s="3"/>
+      <c r="L181" s="4"/>
       <c r="M181" s="8"/>
       <c r="N181" s="8"/>
       <c r="O181" s="8"/>
@@ -4071,13 +4068,13 @@
       <c r="B182" s="6"/>
       <c r="C182" s="7"/>
       <c r="D182" s="6"/>
-      <c r="E182" s="3"/>
+      <c r="E182" s="4"/>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
       <c r="J182" s="8"/>
-      <c r="L182" s="3"/>
+      <c r="L182" s="4"/>
       <c r="M182" s="8"/>
       <c r="N182" s="8"/>
       <c r="O182" s="8"/>
@@ -4087,13 +4084,13 @@
       <c r="B183" s="6"/>
       <c r="C183" s="7"/>
       <c r="D183" s="6"/>
-      <c r="E183" s="3"/>
+      <c r="E183" s="4"/>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
       <c r="I183" s="8"/>
       <c r="J183" s="8"/>
-      <c r="L183" s="3"/>
+      <c r="L183" s="4"/>
       <c r="M183" s="8"/>
       <c r="N183" s="8"/>
       <c r="O183" s="8"/>
@@ -4103,13 +4100,13 @@
       <c r="B184" s="6"/>
       <c r="C184" s="7"/>
       <c r="D184" s="6"/>
-      <c r="E184" s="3"/>
+      <c r="E184" s="4"/>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
       <c r="I184" s="8"/>
       <c r="J184" s="8"/>
-      <c r="L184" s="3"/>
+      <c r="L184" s="4"/>
       <c r="M184" s="8"/>
       <c r="N184" s="8"/>
       <c r="O184" s="8"/>
@@ -4119,13 +4116,13 @@
       <c r="B185" s="6"/>
       <c r="C185" s="7"/>
       <c r="D185" s="6"/>
-      <c r="E185" s="3"/>
+      <c r="E185" s="4"/>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
       <c r="I185" s="8"/>
       <c r="J185" s="8"/>
-      <c r="L185" s="3"/>
+      <c r="L185" s="4"/>
       <c r="M185" s="8"/>
       <c r="N185" s="8"/>
       <c r="O185" s="8"/>
@@ -4135,13 +4132,13 @@
       <c r="B186" s="6"/>
       <c r="C186" s="7"/>
       <c r="D186" s="6"/>
-      <c r="E186" s="3"/>
+      <c r="E186" s="4"/>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
-      <c r="L186" s="3"/>
+      <c r="L186" s="4"/>
       <c r="M186" s="8"/>
       <c r="N186" s="8"/>
       <c r="O186" s="8"/>
@@ -4151,13 +4148,13 @@
       <c r="B187" s="6"/>
       <c r="C187" s="7"/>
       <c r="D187" s="6"/>
-      <c r="E187" s="3"/>
+      <c r="E187" s="4"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
       <c r="I187" s="8"/>
       <c r="J187" s="8"/>
-      <c r="L187" s="3"/>
+      <c r="L187" s="4"/>
       <c r="M187" s="8"/>
       <c r="N187" s="8"/>
       <c r="O187" s="8"/>
@@ -4167,13 +4164,13 @@
       <c r="B188" s="6"/>
       <c r="C188" s="7"/>
       <c r="D188" s="6"/>
-      <c r="E188" s="3"/>
+      <c r="E188" s="4"/>
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
       <c r="I188" s="8"/>
       <c r="J188" s="8"/>
-      <c r="L188" s="3"/>
+      <c r="L188" s="4"/>
       <c r="M188" s="8"/>
       <c r="N188" s="8"/>
       <c r="O188" s="8"/>
@@ -4183,13 +4180,13 @@
       <c r="B189" s="6"/>
       <c r="C189" s="7"/>
       <c r="D189" s="6"/>
-      <c r="E189" s="3"/>
+      <c r="E189" s="4"/>
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
       <c r="I189" s="8"/>
       <c r="J189" s="8"/>
-      <c r="L189" s="3"/>
+      <c r="L189" s="4"/>
       <c r="M189" s="8"/>
       <c r="N189" s="8"/>
       <c r="O189" s="8"/>
@@ -4199,7 +4196,7 @@
       <c r="B190" s="6"/>
       <c r="C190" s="7"/>
       <c r="D190" s="6"/>
-      <c r="E190" s="3"/>
+      <c r="E190" s="4"/>
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
@@ -4215,7 +4212,7 @@
       <c r="B191" s="6"/>
       <c r="C191" s="7"/>
       <c r="D191" s="6"/>
-      <c r="E191" s="3"/>
+      <c r="E191" s="4"/>
       <c r="F191" s="8"/>
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
@@ -4231,13 +4228,13 @@
       <c r="B192" s="6"/>
       <c r="C192" s="7"/>
       <c r="D192" s="6"/>
-      <c r="E192" s="3"/>
+      <c r="E192" s="4"/>
       <c r="F192" s="8"/>
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
       <c r="I192" s="8"/>
       <c r="J192" s="8"/>
-      <c r="L192" s="3"/>
+      <c r="L192" s="4"/>
       <c r="M192" s="8"/>
       <c r="N192" s="8"/>
       <c r="O192" s="8"/>
@@ -4247,7 +4244,7 @@
       <c r="B193" s="6"/>
       <c r="C193" s="7"/>
       <c r="D193" s="6"/>
-      <c r="E193" s="3"/>
+      <c r="E193" s="4"/>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
@@ -4263,13 +4260,13 @@
       <c r="B194" s="6"/>
       <c r="C194" s="7"/>
       <c r="D194" s="6"/>
-      <c r="E194" s="3"/>
+      <c r="E194" s="4"/>
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
       <c r="J194" s="8"/>
-      <c r="L194" s="3"/>
+      <c r="L194" s="4"/>
       <c r="M194" s="8"/>
       <c r="N194" s="8"/>
       <c r="O194" s="8"/>
@@ -4279,7 +4276,7 @@
       <c r="B195" s="6"/>
       <c r="C195" s="7"/>
       <c r="D195" s="6"/>
-      <c r="E195" s="3"/>
+      <c r="E195" s="4"/>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
       <c r="H195" s="8"/>
@@ -4295,7 +4292,7 @@
       <c r="B196" s="6"/>
       <c r="C196" s="7"/>
       <c r="D196" s="6"/>
-      <c r="E196" s="3"/>
+      <c r="E196" s="4"/>
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
       <c r="H196" s="8"/>
@@ -4311,13 +4308,13 @@
       <c r="B197" s="6"/>
       <c r="C197" s="7"/>
       <c r="D197" s="6"/>
-      <c r="E197" s="3"/>
+      <c r="E197" s="4"/>
       <c r="F197" s="8"/>
       <c r="G197" s="8"/>
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
       <c r="J197" s="8"/>
-      <c r="L197" s="3"/>
+      <c r="L197" s="4"/>
       <c r="M197" s="8"/>
       <c r="N197" s="8"/>
       <c r="O197" s="8"/>
@@ -4327,7 +4324,7 @@
       <c r="B198" s="6"/>
       <c r="C198" s="7"/>
       <c r="D198" s="6"/>
-      <c r="E198" s="3"/>
+      <c r="E198" s="4"/>
       <c r="F198" s="8"/>
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
@@ -4343,7 +4340,7 @@
       <c r="B199" s="6"/>
       <c r="C199" s="7"/>
       <c r="D199" s="6"/>
-      <c r="E199" s="3"/>
+      <c r="E199" s="4"/>
       <c r="F199" s="8"/>
       <c r="G199" s="8"/>
       <c r="H199" s="8"/>
@@ -4359,13 +4356,13 @@
       <c r="B200" s="6"/>
       <c r="C200" s="7"/>
       <c r="D200" s="6"/>
-      <c r="E200" s="3"/>
+      <c r="E200" s="4"/>
       <c r="F200" s="8"/>
       <c r="G200" s="8"/>
       <c r="H200" s="8"/>
       <c r="I200" s="8"/>
       <c r="J200" s="8"/>
-      <c r="L200" s="3"/>
+      <c r="L200" s="4"/>
       <c r="M200" s="8"/>
       <c r="N200" s="8"/>
       <c r="O200" s="8"/>
@@ -4375,7 +4372,7 @@
       <c r="B201" s="6"/>
       <c r="C201" s="7"/>
       <c r="D201" s="6"/>
-      <c r="E201" s="3"/>
+      <c r="E201" s="4"/>
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>
@@ -4391,13 +4388,13 @@
       <c r="B202" s="6"/>
       <c r="C202" s="7"/>
       <c r="D202" s="6"/>
-      <c r="E202" s="3"/>
+      <c r="E202" s="4"/>
       <c r="F202" s="8"/>
       <c r="G202" s="8"/>
       <c r="H202" s="8"/>
       <c r="I202" s="8"/>
       <c r="J202" s="8"/>
-      <c r="L202" s="3"/>
+      <c r="L202" s="4"/>
       <c r="M202" s="8"/>
       <c r="N202" s="8"/>
       <c r="O202" s="8"/>
@@ -4407,7 +4404,7 @@
       <c r="B203" s="6"/>
       <c r="C203" s="7"/>
       <c r="D203" s="6"/>
-      <c r="E203" s="3"/>
+      <c r="E203" s="4"/>
       <c r="F203" s="8"/>
       <c r="G203" s="8"/>
       <c r="H203" s="8"/>
@@ -4423,7 +4420,7 @@
       <c r="B204" s="6"/>
       <c r="C204" s="7"/>
       <c r="D204" s="6"/>
-      <c r="E204" s="3"/>
+      <c r="E204" s="4"/>
       <c r="F204" s="8"/>
       <c r="G204" s="8"/>
       <c r="H204" s="8"/>
@@ -4439,13 +4436,13 @@
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
       <c r="D205" s="8"/>
-      <c r="E205" s="3"/>
+      <c r="E205" s="4"/>
       <c r="F205" s="8"/>
       <c r="G205" s="8"/>
       <c r="H205" s="8"/>
       <c r="I205" s="8"/>
       <c r="J205" s="8"/>
-      <c r="L205" s="3"/>
+      <c r="L205" s="4"/>
       <c r="M205" s="8"/>
       <c r="N205" s="8"/>
       <c r="O205" s="8"/>
@@ -4455,13 +4452,13 @@
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
-      <c r="E206" s="3"/>
+      <c r="E206" s="4"/>
       <c r="F206" s="8"/>
       <c r="G206" s="8"/>
       <c r="H206" s="8"/>
       <c r="I206" s="8"/>
       <c r="J206" s="8"/>
-      <c r="L206" s="3"/>
+      <c r="L206" s="4"/>
       <c r="M206" s="8"/>
       <c r="N206" s="8"/>
       <c r="O206" s="8"/>
@@ -4471,13 +4468,13 @@
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
       <c r="D207" s="8"/>
-      <c r="E207" s="3"/>
+      <c r="E207" s="4"/>
       <c r="F207" s="8"/>
       <c r="G207" s="8"/>
       <c r="H207" s="8"/>
       <c r="I207" s="8"/>
       <c r="J207" s="8"/>
-      <c r="L207" s="3"/>
+      <c r="L207" s="4"/>
       <c r="M207" s="8"/>
       <c r="N207" s="8"/>
       <c r="O207" s="8"/>
@@ -4487,13 +4484,13 @@
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
       <c r="D208" s="8"/>
-      <c r="E208" s="3"/>
+      <c r="E208" s="4"/>
       <c r="F208" s="8"/>
       <c r="G208" s="8"/>
       <c r="H208" s="8"/>
       <c r="I208" s="8"/>
       <c r="J208" s="8"/>
-      <c r="L208" s="3"/>
+      <c r="L208" s="4"/>
       <c r="M208" s="8"/>
       <c r="N208" s="8"/>
       <c r="O208" s="8"/>
@@ -4503,13 +4500,13 @@
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
-      <c r="E209" s="3"/>
+      <c r="E209" s="4"/>
       <c r="F209" s="8"/>
       <c r="G209" s="8"/>
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
       <c r="J209" s="8"/>
-      <c r="L209" s="3"/>
+      <c r="L209" s="4"/>
       <c r="M209" s="8"/>
       <c r="N209" s="8"/>
       <c r="O209" s="8"/>
@@ -4519,13 +4516,13 @@
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
       <c r="D210" s="8"/>
-      <c r="E210" s="3"/>
+      <c r="E210" s="4"/>
       <c r="F210" s="8"/>
       <c r="G210" s="8"/>
       <c r="H210" s="8"/>
       <c r="I210" s="8"/>
       <c r="J210" s="8"/>
-      <c r="L210" s="3"/>
+      <c r="L210" s="4"/>
       <c r="M210" s="8"/>
       <c r="N210" s="8"/>
       <c r="O210" s="8"/>
@@ -4535,13 +4532,13 @@
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
       <c r="D211" s="8"/>
-      <c r="E211" s="3"/>
+      <c r="E211" s="4"/>
       <c r="F211" s="8"/>
       <c r="G211" s="8"/>
       <c r="H211" s="8"/>
       <c r="I211" s="8"/>
       <c r="J211" s="8"/>
-      <c r="L211" s="3"/>
+      <c r="L211" s="4"/>
       <c r="M211" s="8"/>
       <c r="N211" s="8"/>
       <c r="O211" s="8"/>
@@ -4551,13 +4548,13 @@
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
       <c r="D212" s="8"/>
-      <c r="E212" s="3"/>
+      <c r="E212" s="4"/>
       <c r="F212" s="8"/>
       <c r="G212" s="8"/>
       <c r="H212" s="8"/>
       <c r="I212" s="8"/>
       <c r="J212" s="8"/>
-      <c r="L212" s="3"/>
+      <c r="L212" s="4"/>
       <c r="M212" s="8"/>
       <c r="N212" s="8"/>
       <c r="O212" s="8"/>
@@ -4567,13 +4564,13 @@
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
       <c r="D213" s="8"/>
-      <c r="E213" s="3"/>
+      <c r="E213" s="4"/>
       <c r="F213" s="8"/>
       <c r="G213" s="8"/>
       <c r="H213" s="8"/>
       <c r="I213" s="8"/>
       <c r="J213" s="8"/>
-      <c r="L213" s="3"/>
+      <c r="L213" s="4"/>
       <c r="M213" s="8"/>
       <c r="N213" s="8"/>
       <c r="O213" s="8"/>
@@ -4583,13 +4580,13 @@
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
-      <c r="E214" s="3"/>
+      <c r="E214" s="4"/>
       <c r="F214" s="8"/>
       <c r="G214" s="8"/>
       <c r="H214" s="8"/>
       <c r="I214" s="8"/>
       <c r="J214" s="8"/>
-      <c r="L214" s="3"/>
+      <c r="L214" s="4"/>
       <c r="M214" s="8"/>
       <c r="N214" s="8"/>
       <c r="O214" s="8"/>
@@ -4599,13 +4596,13 @@
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
       <c r="D215" s="8"/>
-      <c r="E215" s="3"/>
+      <c r="E215" s="4"/>
       <c r="F215" s="8"/>
       <c r="G215" s="8"/>
       <c r="H215" s="8"/>
       <c r="I215" s="8"/>
       <c r="J215" s="8"/>
-      <c r="L215" s="3"/>
+      <c r="L215" s="4"/>
       <c r="M215" s="8"/>
       <c r="N215" s="8"/>
       <c r="O215" s="8"/>
@@ -4615,13 +4612,13 @@
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
       <c r="D216" s="8"/>
-      <c r="E216" s="3"/>
+      <c r="E216" s="4"/>
       <c r="F216" s="8"/>
       <c r="G216" s="8"/>
       <c r="H216" s="8"/>
       <c r="I216" s="8"/>
       <c r="J216" s="8"/>
-      <c r="L216" s="3"/>
+      <c r="L216" s="4"/>
       <c r="M216" s="8"/>
       <c r="N216" s="8"/>
       <c r="O216" s="8"/>
@@ -4631,13 +4628,13 @@
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
       <c r="D217" s="8"/>
-      <c r="E217" s="3"/>
+      <c r="E217" s="4"/>
       <c r="F217" s="8"/>
       <c r="G217" s="8"/>
       <c r="H217" s="8"/>
       <c r="I217" s="8"/>
       <c r="J217" s="8"/>
-      <c r="L217" s="3"/>
+      <c r="L217" s="4"/>
       <c r="M217" s="8"/>
       <c r="N217" s="8"/>
       <c r="O217" s="8"/>
@@ -4647,13 +4644,13 @@
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
       <c r="D218" s="8"/>
-      <c r="E218" s="3"/>
+      <c r="E218" s="4"/>
       <c r="F218" s="8"/>
       <c r="G218" s="8"/>
       <c r="H218" s="8"/>
       <c r="I218" s="8"/>
       <c r="J218" s="8"/>
-      <c r="L218" s="3"/>
+      <c r="L218" s="4"/>
       <c r="M218" s="8"/>
       <c r="N218" s="8"/>
       <c r="O218" s="8"/>
@@ -4663,13 +4660,13 @@
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
       <c r="D219" s="8"/>
-      <c r="E219" s="3"/>
+      <c r="E219" s="4"/>
       <c r="F219" s="8"/>
       <c r="G219" s="8"/>
       <c r="H219" s="8"/>
       <c r="I219" s="8"/>
       <c r="J219" s="8"/>
-      <c r="L219" s="3"/>
+      <c r="L219" s="4"/>
       <c r="M219" s="8"/>
       <c r="N219" s="8"/>
       <c r="O219" s="8"/>
@@ -4679,13 +4676,13 @@
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
       <c r="D220" s="8"/>
-      <c r="E220" s="3"/>
+      <c r="E220" s="4"/>
       <c r="F220" s="8"/>
       <c r="G220" s="8"/>
       <c r="H220" s="8"/>
       <c r="I220" s="8"/>
       <c r="J220" s="8"/>
-      <c r="L220" s="3"/>
+      <c r="L220" s="4"/>
       <c r="M220" s="8"/>
       <c r="N220" s="8"/>
       <c r="O220" s="8"/>
@@ -4695,13 +4692,13 @@
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
       <c r="D221" s="8"/>
-      <c r="E221" s="3"/>
+      <c r="E221" s="4"/>
       <c r="F221" s="8"/>
       <c r="G221" s="8"/>
       <c r="H221" s="8"/>
       <c r="I221" s="8"/>
       <c r="J221" s="8"/>
-      <c r="L221" s="3"/>
+      <c r="L221" s="4"/>
       <c r="M221" s="8"/>
       <c r="N221" s="8"/>
       <c r="O221" s="8"/>
@@ -4711,13 +4708,13 @@
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
       <c r="D222" s="8"/>
-      <c r="E222" s="3"/>
+      <c r="E222" s="4"/>
       <c r="F222" s="8"/>
       <c r="G222" s="8"/>
       <c r="H222" s="8"/>
       <c r="I222" s="8"/>
       <c r="J222" s="8"/>
-      <c r="L222" s="3"/>
+      <c r="L222" s="4"/>
       <c r="M222" s="8"/>
       <c r="N222" s="8"/>
       <c r="O222" s="8"/>
@@ -4727,13 +4724,13 @@
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
       <c r="D223" s="8"/>
-      <c r="E223" s="3"/>
+      <c r="E223" s="4"/>
       <c r="F223" s="8"/>
       <c r="G223" s="8"/>
       <c r="H223" s="8"/>
       <c r="I223" s="8"/>
       <c r="J223" s="8"/>
-      <c r="L223" s="3"/>
+      <c r="L223" s="4"/>
       <c r="M223" s="8"/>
       <c r="N223" s="8"/>
       <c r="O223" s="8"/>
@@ -4743,13 +4740,13 @@
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
       <c r="D224" s="8"/>
-      <c r="E224" s="3"/>
+      <c r="E224" s="4"/>
       <c r="F224" s="8"/>
       <c r="G224" s="8"/>
       <c r="H224" s="8"/>
       <c r="I224" s="8"/>
       <c r="J224" s="8"/>
-      <c r="L224" s="3"/>
+      <c r="L224" s="4"/>
       <c r="M224" s="8"/>
       <c r="N224" s="8"/>
       <c r="O224" s="8"/>
@@ -4759,13 +4756,13 @@
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
       <c r="D225" s="8"/>
-      <c r="E225" s="3"/>
+      <c r="E225" s="4"/>
       <c r="F225" s="8"/>
       <c r="G225" s="8"/>
       <c r="H225" s="8"/>
       <c r="I225" s="8"/>
       <c r="J225" s="8"/>
-      <c r="L225" s="3"/>
+      <c r="L225" s="4"/>
       <c r="M225" s="8"/>
       <c r="N225" s="8"/>
       <c r="O225" s="8"/>
@@ -4775,13 +4772,13 @@
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
       <c r="D226" s="8"/>
-      <c r="E226" s="3"/>
+      <c r="E226" s="4"/>
       <c r="F226" s="8"/>
       <c r="G226" s="8"/>
       <c r="H226" s="8"/>
       <c r="I226" s="8"/>
       <c r="J226" s="8"/>
-      <c r="L226" s="3"/>
+      <c r="L226" s="4"/>
       <c r="M226" s="8"/>
       <c r="N226" s="8"/>
       <c r="O226" s="8"/>
@@ -4791,13 +4788,13 @@
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
-      <c r="E227" s="3"/>
+      <c r="E227" s="4"/>
       <c r="F227" s="8"/>
       <c r="G227" s="8"/>
       <c r="H227" s="8"/>
       <c r="I227" s="8"/>
       <c r="J227" s="8"/>
-      <c r="L227" s="3"/>
+      <c r="L227" s="4"/>
       <c r="M227" s="8"/>
       <c r="N227" s="8"/>
       <c r="O227" s="8"/>
@@ -4807,13 +4804,13 @@
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
       <c r="D228" s="8"/>
-      <c r="E228" s="3"/>
+      <c r="E228" s="4"/>
       <c r="F228" s="8"/>
       <c r="G228" s="8"/>
       <c r="H228" s="8"/>
       <c r="I228" s="8"/>
       <c r="J228" s="8"/>
-      <c r="L228" s="3"/>
+      <c r="L228" s="4"/>
       <c r="M228" s="8"/>
       <c r="N228" s="8"/>
       <c r="O228" s="8"/>
@@ -4823,13 +4820,13 @@
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
-      <c r="E229" s="3"/>
+      <c r="E229" s="4"/>
       <c r="F229" s="8"/>
       <c r="G229" s="8"/>
       <c r="H229" s="8"/>
       <c r="I229" s="8"/>
       <c r="J229" s="8"/>
-      <c r="L229" s="3"/>
+      <c r="L229" s="4"/>
       <c r="M229" s="8"/>
       <c r="N229" s="8"/>
       <c r="O229" s="8"/>
@@ -4839,13 +4836,13 @@
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
-      <c r="E230" s="3"/>
+      <c r="E230" s="4"/>
       <c r="F230" s="8"/>
       <c r="G230" s="8"/>
       <c r="H230" s="8"/>
       <c r="I230" s="8"/>
       <c r="J230" s="8"/>
-      <c r="L230" s="3"/>
+      <c r="L230" s="4"/>
       <c r="M230" s="8"/>
       <c r="N230" s="8"/>
       <c r="O230" s="8"/>
@@ -4855,13 +4852,13 @@
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
-      <c r="E231" s="3"/>
+      <c r="E231" s="4"/>
       <c r="F231" s="8"/>
       <c r="G231" s="8"/>
       <c r="H231" s="8"/>
       <c r="I231" s="8"/>
       <c r="J231" s="8"/>
-      <c r="L231" s="3"/>
+      <c r="L231" s="4"/>
       <c r="M231" s="8"/>
       <c r="N231" s="8"/>
       <c r="O231" s="8"/>
@@ -4871,13 +4868,13 @@
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
       <c r="D232" s="8"/>
-      <c r="E232" s="3"/>
+      <c r="E232" s="4"/>
       <c r="F232" s="8"/>
       <c r="G232" s="8"/>
       <c r="H232" s="8"/>
       <c r="I232" s="8"/>
       <c r="J232" s="8"/>
-      <c r="L232" s="3"/>
+      <c r="L232" s="4"/>
       <c r="M232" s="8"/>
       <c r="N232" s="8"/>
       <c r="O232" s="8"/>
@@ -4887,13 +4884,13 @@
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
       <c r="D233" s="8"/>
-      <c r="E233" s="3"/>
+      <c r="E233" s="4"/>
       <c r="F233" s="8"/>
       <c r="G233" s="8"/>
       <c r="H233" s="8"/>
       <c r="I233" s="8"/>
       <c r="J233" s="8"/>
-      <c r="L233" s="3"/>
+      <c r="L233" s="4"/>
       <c r="M233" s="8"/>
       <c r="N233" s="8"/>
       <c r="O233" s="8"/>
@@ -4903,13 +4900,13 @@
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
       <c r="D234" s="8"/>
-      <c r="E234" s="3"/>
+      <c r="E234" s="4"/>
       <c r="F234" s="8"/>
       <c r="G234" s="8"/>
       <c r="H234" s="8"/>
       <c r="I234" s="8"/>
       <c r="J234" s="8"/>
-      <c r="L234" s="3"/>
+      <c r="L234" s="4"/>
       <c r="M234" s="8"/>
       <c r="N234" s="8"/>
       <c r="O234" s="8"/>
@@ -4919,13 +4916,13 @@
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
       <c r="D235" s="8"/>
-      <c r="E235" s="3"/>
+      <c r="E235" s="4"/>
       <c r="F235" s="8"/>
       <c r="G235" s="8"/>
       <c r="H235" s="8"/>
       <c r="I235" s="8"/>
       <c r="J235" s="8"/>
-      <c r="L235" s="3"/>
+      <c r="L235" s="4"/>
       <c r="M235" s="8"/>
       <c r="N235" s="8"/>
       <c r="O235" s="8"/>
@@ -4935,13 +4932,13 @@
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
       <c r="D236" s="8"/>
-      <c r="E236" s="3"/>
+      <c r="E236" s="4"/>
       <c r="F236" s="8"/>
       <c r="G236" s="8"/>
       <c r="H236" s="8"/>
       <c r="I236" s="8"/>
       <c r="J236" s="8"/>
-      <c r="L236" s="3"/>
+      <c r="L236" s="4"/>
       <c r="M236" s="8"/>
       <c r="N236" s="8"/>
       <c r="O236" s="8"/>
@@ -4951,13 +4948,13 @@
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
       <c r="D237" s="8"/>
-      <c r="E237" s="3"/>
+      <c r="E237" s="4"/>
       <c r="F237" s="8"/>
       <c r="G237" s="8"/>
       <c r="H237" s="8"/>
       <c r="I237" s="8"/>
       <c r="J237" s="8"/>
-      <c r="L237" s="3"/>
+      <c r="L237" s="4"/>
       <c r="M237" s="8"/>
       <c r="N237" s="8"/>
       <c r="O237" s="8"/>
@@ -4967,13 +4964,13 @@
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
       <c r="D238" s="8"/>
-      <c r="E238" s="3"/>
+      <c r="E238" s="4"/>
       <c r="F238" s="8"/>
       <c r="G238" s="8"/>
       <c r="H238" s="8"/>
       <c r="I238" s="8"/>
       <c r="J238" s="8"/>
-      <c r="L238" s="3"/>
+      <c r="L238" s="4"/>
       <c r="M238" s="8"/>
       <c r="N238" s="8"/>
       <c r="O238" s="8"/>
@@ -4983,13 +4980,13 @@
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
       <c r="D239" s="8"/>
-      <c r="E239" s="3"/>
+      <c r="E239" s="4"/>
       <c r="F239" s="8"/>
       <c r="G239" s="8"/>
       <c r="H239" s="8"/>
       <c r="I239" s="8"/>
       <c r="J239" s="8"/>
-      <c r="L239" s="3"/>
+      <c r="L239" s="4"/>
       <c r="M239" s="8"/>
       <c r="N239" s="8"/>
       <c r="O239" s="8"/>
@@ -4999,13 +4996,13 @@
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
-      <c r="E240" s="3"/>
+      <c r="E240" s="4"/>
       <c r="F240" s="8"/>
       <c r="G240" s="8"/>
       <c r="H240" s="8"/>
       <c r="I240" s="8"/>
       <c r="J240" s="8"/>
-      <c r="L240" s="3"/>
+      <c r="L240" s="4"/>
       <c r="M240" s="8"/>
       <c r="N240" s="8"/>
       <c r="O240" s="8"/>
@@ -5015,13 +5012,13 @@
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
-      <c r="E241" s="3"/>
+      <c r="E241" s="4"/>
       <c r="F241" s="8"/>
       <c r="G241" s="8"/>
       <c r="H241" s="8"/>
       <c r="I241" s="8"/>
       <c r="J241" s="8"/>
-      <c r="L241" s="3"/>
+      <c r="L241" s="4"/>
       <c r="M241" s="8"/>
       <c r="N241" s="8"/>
       <c r="O241" s="8"/>
@@ -5031,27 +5028,54 @@
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
       <c r="D242" s="8"/>
-      <c r="E242" s="3"/>
+      <c r="E242" s="4"/>
       <c r="F242" s="8"/>
       <c r="G242" s="8"/>
       <c r="H242" s="8"/>
       <c r="I242" s="8"/>
       <c r="J242" s="8"/>
-      <c r="L242" s="3"/>
+      <c r="L242" s="4"/>
       <c r="M242" s="8"/>
       <c r="N242" s="8"/>
       <c r="O242" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+      <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
-      <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" ht="40.5" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/doubleLine/双热线.xlsx
+++ b/src/doubleLine/双热线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8115"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="双热线" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
   <si>
     <t>节假日标志</t>
   </si>
@@ -92,6 +92,87 @@
     <t>陆海</t>
   </si>
   <si>
+    <t>00302011</t>
+  </si>
+  <si>
+    <t>00302011_01</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>转出方账户是对公且交易金额大于等于50万</t>
+  </si>
+  <si>
+    <t>custTypeCd</t>
+  </si>
+  <si>
+    <t>客户类型</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>李有</t>
+  </si>
+  <si>
+    <t>txAmt</t>
+  </si>
+  <si>
+    <t>交易金额</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>00201014</t>
+  </si>
+  <si>
+    <t>00201014_01</t>
+  </si>
+  <si>
+    <t>补开账户对公</t>
+  </si>
+  <si>
+    <t>pubPrivFlgCd</t>
+  </si>
+  <si>
+    <t>公私标志</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>00201015</t>
+  </si>
+  <si>
+    <t>00201015_01</t>
+  </si>
+  <si>
+    <t>账户对公且设置或重置密码</t>
+  </si>
+  <si>
+    <t>pageOperFlgCd</t>
+  </si>
+  <si>
+    <t>操作标志</t>
+  </si>
+  <si>
+    <t>customerType</t>
+  </si>
+  <si>
+    <t>00201015_02</t>
+  </si>
+  <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
   </si>
 </sst>
@@ -105,7 +186,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,7 +210,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,40 +232,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,9 +254,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,8 +298,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,6 +322,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -240,19 +337,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,11 +352,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -281,7 +368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799920651875362"/>
+        <fgColor theme="3" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,7 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +392,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,25 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,25 +476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,7 +494,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,19 +518,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,19 +536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,25 +554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +589,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -513,6 +615,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,26 +643,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,8 +670,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,25 +686,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,16 +704,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,119 +722,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -761,6 +848,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -822,6 +910,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1081,12 +1174,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O242"/>
+  <dimension ref="A1:O241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1094,7 +1187,7 @@
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="3" customWidth="1"/>
     <col min="6" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="38.5" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="11" max="11" width="9" style="4"/>
   </cols>
@@ -1209,116 +1302,305 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="L4" s="4"/>
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="O4" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="L5" s="4"/>
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="O5" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="L6" s="4"/>
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="O6" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="L7" s="4"/>
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="O7" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="L8" s="4"/>
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="O8" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="L9" s="4"/>
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="O9" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="L10" s="4"/>
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="O10" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="6"/>
@@ -1438,8 +1720,8 @@
       <c r="C18" s="7"/>
       <c r="D18" s="6"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1985,7 +2267,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
+      <c r="I52" s="10"/>
       <c r="J52" s="8"/>
       <c r="L52" s="4"/>
       <c r="M52" s="8"/>
@@ -2001,7 +2283,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="9"/>
+      <c r="I53" s="10"/>
       <c r="J53" s="8"/>
       <c r="L53" s="4"/>
       <c r="M53" s="8"/>
@@ -2017,7 +2299,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="9"/>
+      <c r="I54" s="10"/>
       <c r="J54" s="8"/>
       <c r="L54" s="4"/>
       <c r="M54" s="8"/>
@@ -2033,7 +2315,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="9"/>
+      <c r="I55" s="10"/>
       <c r="J55" s="8"/>
       <c r="L55" s="4"/>
       <c r="M55" s="8"/>
@@ -2049,7 +2331,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
-      <c r="I56" s="9"/>
+      <c r="I56" s="10"/>
       <c r="J56" s="8"/>
       <c r="L56" s="4"/>
       <c r="M56" s="8"/>
@@ -2065,7 +2347,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="9"/>
+      <c r="I57" s="10"/>
       <c r="J57" s="8"/>
       <c r="L57" s="4"/>
       <c r="M57" s="8"/>
@@ -2081,7 +2363,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="9"/>
+      <c r="I58" s="10"/>
       <c r="J58" s="8"/>
       <c r="L58" s="4"/>
       <c r="M58" s="8"/>
@@ -2097,7 +2379,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="9"/>
+      <c r="I59" s="10"/>
       <c r="J59" s="8"/>
       <c r="L59" s="4"/>
       <c r="M59" s="8"/>
@@ -2113,7 +2395,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="9"/>
+      <c r="I60" s="10"/>
       <c r="J60" s="8"/>
       <c r="L60" s="4"/>
       <c r="M60" s="8"/>
@@ -2129,7 +2411,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="9"/>
+      <c r="I61" s="10"/>
       <c r="J61" s="8"/>
       <c r="L61" s="4"/>
       <c r="M61" s="8"/>
@@ -2145,7 +2427,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="9"/>
+      <c r="I62" s="10"/>
       <c r="J62" s="8"/>
       <c r="L62" s="4"/>
       <c r="M62" s="8"/>
@@ -2161,7 +2443,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="9"/>
+      <c r="I63" s="10"/>
       <c r="J63" s="8"/>
       <c r="L63" s="4"/>
       <c r="M63" s="8"/>
@@ -2177,7 +2459,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
-      <c r="I64" s="9"/>
+      <c r="I64" s="10"/>
       <c r="J64" s="8"/>
       <c r="L64" s="4"/>
       <c r="M64" s="8"/>
@@ -2193,7 +2475,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
-      <c r="I65" s="9"/>
+      <c r="I65" s="10"/>
       <c r="J65" s="8"/>
       <c r="L65" s="4"/>
       <c r="M65" s="8"/>
@@ -2209,7 +2491,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
-      <c r="I66" s="9"/>
+      <c r="I66" s="10"/>
       <c r="J66" s="8"/>
       <c r="L66" s="4"/>
       <c r="M66" s="8"/>
@@ -2225,45 +2507,45 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="9"/>
+      <c r="I67" s="10"/>
       <c r="J67" s="8"/>
       <c r="L67" s="4"/>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
     </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="8"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-    </row>
-    <row r="69" s="2" customFormat="1" spans="1:15">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
+    <row r="68" s="2" customFormat="1" spans="1:15">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="8"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="6"/>
@@ -2274,7 +2556,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="9"/>
+      <c r="I70" s="15"/>
       <c r="J70" s="8"/>
       <c r="L70" s="4"/>
       <c r="M70" s="8"/>
@@ -2290,9 +2572,9 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="14"/>
+      <c r="I71" s="15"/>
       <c r="J71" s="8"/>
-      <c r="L71" s="4"/>
+      <c r="L71" s="16"/>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
@@ -2306,9 +2588,9 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
-      <c r="I72" s="14"/>
+      <c r="I72" s="15"/>
       <c r="J72" s="8"/>
-      <c r="L72" s="15"/>
+      <c r="L72" s="4"/>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
@@ -2322,9 +2604,9 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="8"/>
-      <c r="L73" s="4"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="L73" s="16"/>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
@@ -2338,9 +2620,9 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="L74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="8"/>
+      <c r="L74" s="4"/>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
@@ -2354,7 +2636,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
-      <c r="I75" s="14"/>
+      <c r="I75" s="15"/>
       <c r="J75" s="8"/>
       <c r="L75" s="4"/>
       <c r="M75" s="8"/>
@@ -2370,9 +2652,9 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="14"/>
+      <c r="I76" s="15"/>
       <c r="J76" s="8"/>
-      <c r="L76" s="4"/>
+      <c r="L76" s="16"/>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
@@ -2386,9 +2668,9 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
-      <c r="I77" s="14"/>
+      <c r="I77" s="15"/>
       <c r="J77" s="8"/>
-      <c r="L77" s="15"/>
+      <c r="L77" s="4"/>
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
@@ -2402,9 +2684,9 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
-      <c r="I78" s="14"/>
+      <c r="I78" s="15"/>
       <c r="J78" s="8"/>
-      <c r="L78" s="4"/>
+      <c r="L78" s="16"/>
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
@@ -2418,9 +2700,9 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
-      <c r="I79" s="14"/>
+      <c r="I79" s="15"/>
       <c r="J79" s="8"/>
-      <c r="L79" s="15"/>
+      <c r="L79" s="4"/>
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
@@ -2434,9 +2716,9 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
-      <c r="I80" s="14"/>
+      <c r="I80" s="15"/>
       <c r="J80" s="8"/>
-      <c r="L80" s="4"/>
+      <c r="L80" s="16"/>
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
@@ -2450,9 +2732,9 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
-      <c r="I81" s="14"/>
+      <c r="I81" s="15"/>
       <c r="J81" s="8"/>
-      <c r="L81" s="15"/>
+      <c r="L81" s="16"/>
       <c r="M81" s="8"/>
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
@@ -2466,9 +2748,9 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
-      <c r="I82" s="14"/>
+      <c r="I82" s="15"/>
       <c r="J82" s="8"/>
-      <c r="L82" s="15"/>
+      <c r="L82" s="4"/>
       <c r="M82" s="8"/>
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
@@ -2482,9 +2764,9 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
-      <c r="I83" s="14"/>
+      <c r="I83" s="15"/>
       <c r="J83" s="8"/>
-      <c r="L83" s="4"/>
+      <c r="L83" s="16"/>
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
@@ -2498,9 +2780,9 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
-      <c r="I84" s="14"/>
+      <c r="I84" s="15"/>
       <c r="J84" s="8"/>
-      <c r="L84" s="15"/>
+      <c r="L84" s="16"/>
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
@@ -2514,9 +2796,9 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="14"/>
+      <c r="I85" s="15"/>
       <c r="J85" s="8"/>
-      <c r="L85" s="15"/>
+      <c r="L85" s="4"/>
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
@@ -2530,9 +2812,9 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="14"/>
+      <c r="I86" s="15"/>
       <c r="J86" s="8"/>
-      <c r="L86" s="4"/>
+      <c r="L86" s="16"/>
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
@@ -2546,9 +2828,9 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
-      <c r="I87" s="14"/>
+      <c r="I87" s="15"/>
       <c r="J87" s="8"/>
-      <c r="L87" s="15"/>
+      <c r="L87" s="16"/>
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
@@ -2562,9 +2844,9 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
-      <c r="I88" s="14"/>
+      <c r="I88" s="15"/>
       <c r="J88" s="8"/>
-      <c r="L88" s="15"/>
+      <c r="L88" s="16"/>
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
@@ -2578,9 +2860,9 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
-      <c r="I89" s="14"/>
+      <c r="I89" s="15"/>
       <c r="J89" s="8"/>
-      <c r="L89" s="15"/>
+      <c r="L89" s="4"/>
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
@@ -2594,9 +2876,9 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
-      <c r="I90" s="14"/>
+      <c r="I90" s="15"/>
       <c r="J90" s="8"/>
-      <c r="L90" s="4"/>
+      <c r="L90" s="16"/>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
@@ -2610,9 +2892,9 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
-      <c r="I91" s="14"/>
+      <c r="I91" s="15"/>
       <c r="J91" s="8"/>
-      <c r="L91" s="15"/>
+      <c r="L91" s="4"/>
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
@@ -2626,9 +2908,9 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
-      <c r="I92" s="14"/>
+      <c r="I92" s="15"/>
       <c r="J92" s="8"/>
-      <c r="L92" s="4"/>
+      <c r="L92" s="16"/>
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
@@ -2642,9 +2924,9 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
-      <c r="I93" s="14"/>
+      <c r="I93" s="15"/>
       <c r="J93" s="8"/>
-      <c r="L93" s="15"/>
+      <c r="L93" s="16"/>
       <c r="M93" s="8"/>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
@@ -2658,9 +2940,9 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
-      <c r="I94" s="14"/>
+      <c r="I94" s="15"/>
       <c r="J94" s="8"/>
-      <c r="L94" s="15"/>
+      <c r="L94" s="16"/>
       <c r="M94" s="8"/>
       <c r="N94" s="8"/>
       <c r="O94" s="8"/>
@@ -2674,9 +2956,9 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
-      <c r="I95" s="14"/>
+      <c r="I95" s="15"/>
       <c r="J95" s="8"/>
-      <c r="L95" s="15"/>
+      <c r="L95" s="4"/>
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
@@ -2690,9 +2972,9 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="14"/>
+      <c r="I96" s="15"/>
       <c r="J96" s="8"/>
-      <c r="L96" s="4"/>
+      <c r="L96" s="16"/>
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
       <c r="O96" s="8"/>
@@ -2706,9 +2988,9 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
-      <c r="I97" s="14"/>
+      <c r="I97" s="8"/>
       <c r="J97" s="8"/>
-      <c r="L97" s="15"/>
+      <c r="L97" s="4"/>
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
@@ -2722,9 +3004,9 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
+      <c r="I98" s="15"/>
       <c r="J98" s="8"/>
-      <c r="L98" s="4"/>
+      <c r="L98" s="16"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
@@ -2738,9 +3020,9 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="14"/>
+      <c r="I99" s="8"/>
       <c r="J99" s="8"/>
-      <c r="L99" s="15"/>
+      <c r="L99" s="4"/>
       <c r="M99" s="8"/>
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
@@ -2756,94 +3038,94 @@
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
-      <c r="L100" s="4"/>
+      <c r="L100" s="16"/>
       <c r="M100" s="8"/>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" s="2" customFormat="1" spans="1:15">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
     </row>
     <row r="102" s="2" customFormat="1" spans="1:15">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
       <c r="K102" s="4"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
-      <c r="O102" s="13"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="14"/>
     </row>
     <row r="103" s="2" customFormat="1" spans="1:15">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="16"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="13"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
+      <c r="O103" s="14"/>
     </row>
     <row r="104" s="2" customFormat="1" spans="1:15">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="6"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
-      <c r="O104" s="13"/>
-    </row>
-    <row r="105" s="2" customFormat="1" spans="1:15">
+      <c r="L104" s="13"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="14"/>
+      <c r="O104" s="14"/>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="6"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
-      <c r="O105" s="13"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="6"/>
@@ -2856,7 +3138,7 @@
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
-      <c r="L106" s="15"/>
+      <c r="L106" s="16"/>
       <c r="M106" s="8"/>
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
@@ -2872,7 +3154,7 @@
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
-      <c r="L107" s="15"/>
+      <c r="L107" s="16"/>
       <c r="M107" s="8"/>
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
@@ -2888,7 +3170,7 @@
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
-      <c r="L108" s="15"/>
+      <c r="L108" s="16"/>
       <c r="M108" s="8"/>
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
@@ -2904,7 +3186,7 @@
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
-      <c r="L109" s="15"/>
+      <c r="L109" s="16"/>
       <c r="M109" s="8"/>
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
@@ -2920,7 +3202,7 @@
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
-      <c r="L110" s="15"/>
+      <c r="L110" s="16"/>
       <c r="M110" s="8"/>
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
@@ -2934,9 +3216,9 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
+      <c r="I111" s="15"/>
       <c r="J111" s="8"/>
-      <c r="L111" s="15"/>
+      <c r="L111" s="4"/>
       <c r="M111" s="8"/>
       <c r="N111" s="8"/>
       <c r="O111" s="8"/>
@@ -2950,9 +3232,9 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
-      <c r="I112" s="14"/>
+      <c r="I112" s="8"/>
       <c r="J112" s="8"/>
-      <c r="L112" s="4"/>
+      <c r="L112" s="16"/>
       <c r="M112" s="8"/>
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
@@ -2968,7 +3250,7 @@
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
-      <c r="L113" s="15"/>
+      <c r="L113" s="16"/>
       <c r="M113" s="8"/>
       <c r="N113" s="8"/>
       <c r="O113" s="8"/>
@@ -2984,7 +3266,7 @@
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
-      <c r="L114" s="15"/>
+      <c r="L114" s="4"/>
       <c r="M114" s="8"/>
       <c r="N114" s="8"/>
       <c r="O114" s="8"/>
@@ -3000,7 +3282,7 @@
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
-      <c r="L115" s="4"/>
+      <c r="L115" s="16"/>
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
@@ -3014,9 +3296,9 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
+      <c r="I116" s="15"/>
       <c r="J116" s="8"/>
-      <c r="L116" s="15"/>
+      <c r="L116" s="16"/>
       <c r="M116" s="8"/>
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
@@ -3030,9 +3312,9 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
-      <c r="I117" s="14"/>
+      <c r="I117" s="15"/>
       <c r="J117" s="8"/>
-      <c r="L117" s="15"/>
+      <c r="L117" s="16"/>
       <c r="M117" s="8"/>
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
@@ -3046,9 +3328,9 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
-      <c r="I118" s="14"/>
+      <c r="I118" s="15"/>
       <c r="J118" s="8"/>
-      <c r="L118" s="15"/>
+      <c r="L118" s="4"/>
       <c r="M118" s="8"/>
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
@@ -3062,9 +3344,9 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
-      <c r="I119" s="14"/>
+      <c r="I119" s="15"/>
       <c r="J119" s="8"/>
-      <c r="L119" s="4"/>
+      <c r="L119" s="16"/>
       <c r="M119" s="8"/>
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
@@ -3078,9 +3360,9 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
-      <c r="I120" s="14"/>
+      <c r="I120" s="15"/>
       <c r="J120" s="8"/>
-      <c r="L120" s="15"/>
+      <c r="L120" s="4"/>
       <c r="M120" s="8"/>
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
@@ -3094,9 +3376,9 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
-      <c r="I121" s="14"/>
+      <c r="I121" s="15"/>
       <c r="J121" s="8"/>
-      <c r="L121" s="4"/>
+      <c r="L121" s="16"/>
       <c r="M121" s="8"/>
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
@@ -3110,9 +3392,9 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
-      <c r="I122" s="14"/>
+      <c r="I122" s="15"/>
       <c r="J122" s="8"/>
-      <c r="L122" s="15"/>
+      <c r="L122" s="16"/>
       <c r="M122" s="8"/>
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
@@ -3126,9 +3408,9 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
-      <c r="I123" s="14"/>
+      <c r="I123" s="15"/>
       <c r="J123" s="8"/>
-      <c r="L123" s="15"/>
+      <c r="L123" s="16"/>
       <c r="M123" s="8"/>
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
@@ -3142,9 +3424,9 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
-      <c r="I124" s="14"/>
+      <c r="I124" s="15"/>
       <c r="J124" s="8"/>
-      <c r="L124" s="15"/>
+      <c r="L124" s="4"/>
       <c r="M124" s="8"/>
       <c r="N124" s="8"/>
       <c r="O124" s="8"/>
@@ -3158,9 +3440,9 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
-      <c r="I125" s="14"/>
+      <c r="I125" s="15"/>
       <c r="J125" s="8"/>
-      <c r="L125" s="4"/>
+      <c r="L125" s="16"/>
       <c r="M125" s="8"/>
       <c r="N125" s="8"/>
       <c r="O125" s="8"/>
@@ -3174,9 +3456,9 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
-      <c r="I126" s="14"/>
+      <c r="I126" s="15"/>
       <c r="J126" s="8"/>
-      <c r="L126" s="15"/>
+      <c r="L126" s="4"/>
       <c r="M126" s="8"/>
       <c r="N126" s="8"/>
       <c r="O126" s="8"/>
@@ -3190,9 +3472,9 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
-      <c r="I127" s="14"/>
+      <c r="I127" s="15"/>
       <c r="J127" s="8"/>
-      <c r="L127" s="4"/>
+      <c r="L127" s="16"/>
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
       <c r="O127" s="8"/>
@@ -3206,9 +3488,9 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
-      <c r="I128" s="14"/>
+      <c r="I128" s="15"/>
       <c r="J128" s="8"/>
-      <c r="L128" s="15"/>
+      <c r="L128" s="16"/>
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
       <c r="O128" s="8"/>
@@ -3222,9 +3504,9 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
-      <c r="I129" s="14"/>
+      <c r="I129" s="15"/>
       <c r="J129" s="8"/>
-      <c r="L129" s="15"/>
+      <c r="L129" s="16"/>
       <c r="M129" s="8"/>
       <c r="N129" s="8"/>
       <c r="O129" s="8"/>
@@ -3238,9 +3520,9 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
-      <c r="I130" s="14"/>
+      <c r="I130" s="15"/>
       <c r="J130" s="8"/>
-      <c r="L130" s="15"/>
+      <c r="L130" s="4"/>
       <c r="M130" s="8"/>
       <c r="N130" s="8"/>
       <c r="O130" s="8"/>
@@ -3254,9 +3536,9 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
-      <c r="I131" s="14"/>
+      <c r="I131" s="8"/>
       <c r="J131" s="8"/>
-      <c r="L131" s="4"/>
+      <c r="L131" s="16"/>
       <c r="M131" s="8"/>
       <c r="N131" s="8"/>
       <c r="O131" s="8"/>
@@ -3270,9 +3552,9 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
+      <c r="I132" s="15"/>
       <c r="J132" s="8"/>
-      <c r="L132" s="15"/>
+      <c r="L132" s="16"/>
       <c r="M132" s="8"/>
       <c r="N132" s="8"/>
       <c r="O132" s="8"/>
@@ -3286,9 +3568,9 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
-      <c r="I133" s="14"/>
+      <c r="I133" s="15"/>
       <c r="J133" s="8"/>
-      <c r="L133" s="15"/>
+      <c r="L133" s="4"/>
       <c r="M133" s="8"/>
       <c r="N133" s="8"/>
       <c r="O133" s="8"/>
@@ -3302,7 +3584,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
-      <c r="I134" s="14"/>
+      <c r="I134" s="15"/>
       <c r="J134" s="8"/>
       <c r="L134" s="4"/>
       <c r="M134" s="8"/>
@@ -3318,9 +3600,9 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
-      <c r="I135" s="14"/>
+      <c r="I135" s="15"/>
       <c r="J135" s="8"/>
-      <c r="L135" s="4"/>
+      <c r="L135" s="16"/>
       <c r="M135" s="8"/>
       <c r="N135" s="8"/>
       <c r="O135" s="8"/>
@@ -3334,9 +3616,9 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
-      <c r="I136" s="14"/>
+      <c r="I136" s="15"/>
       <c r="J136" s="8"/>
-      <c r="L136" s="15"/>
+      <c r="L136" s="4"/>
       <c r="M136" s="8"/>
       <c r="N136" s="8"/>
       <c r="O136" s="8"/>
@@ -3350,9 +3632,9 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
-      <c r="I137" s="14"/>
+      <c r="I137" s="15"/>
       <c r="J137" s="8"/>
-      <c r="L137" s="4"/>
+      <c r="L137" s="16"/>
       <c r="M137" s="8"/>
       <c r="N137" s="8"/>
       <c r="O137" s="8"/>
@@ -3366,9 +3648,9 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="8"/>
-      <c r="L138" s="15"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="15"/>
+      <c r="L138" s="16"/>
       <c r="M138" s="8"/>
       <c r="N138" s="8"/>
       <c r="O138" s="8"/>
@@ -3382,9 +3664,9 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="14"/>
-      <c r="L139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="8"/>
+      <c r="L139" s="4"/>
       <c r="M139" s="8"/>
       <c r="N139" s="8"/>
       <c r="O139" s="8"/>
@@ -3398,62 +3680,62 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
-      <c r="I140" s="14"/>
+      <c r="I140" s="15"/>
       <c r="J140" s="8"/>
-      <c r="L140" s="4"/>
+      <c r="L140" s="16"/>
       <c r="M140" s="8"/>
       <c r="N140" s="8"/>
       <c r="O140" s="8"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" s="2" customFormat="1" spans="1:15">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
       <c r="I141" s="14"/>
-      <c r="J141" s="8"/>
-      <c r="L141" s="15"/>
-      <c r="M141" s="8"/>
-      <c r="N141" s="8"/>
-      <c r="O141" s="8"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="13"/>
+      <c r="M141" s="14"/>
+      <c r="N141" s="14"/>
+      <c r="O141" s="14"/>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:15">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="13"/>
-      <c r="I142" s="13"/>
-      <c r="J142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
+      <c r="J142" s="14"/>
       <c r="K142" s="4"/>
-      <c r="L142" s="12"/>
-      <c r="M142" s="13"/>
-      <c r="N142" s="13"/>
-      <c r="O142" s="13"/>
-    </row>
-    <row r="143" s="2" customFormat="1" spans="1:15">
+      <c r="L142" s="13"/>
+      <c r="M142" s="14"/>
+      <c r="N142" s="14"/>
+      <c r="O142" s="14"/>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
       <c r="D143" s="6"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
-      <c r="H143" s="13"/>
-      <c r="I143" s="13"/>
-      <c r="J143" s="13"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="12"/>
-      <c r="M143" s="13"/>
-      <c r="N143" s="13"/>
-      <c r="O143" s="13"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="8"/>
+      <c r="N143" s="8"/>
+      <c r="O143" s="8"/>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="6"/>
@@ -4186,7 +4468,7 @@
       <c r="H189" s="8"/>
       <c r="I189" s="8"/>
       <c r="J189" s="8"/>
-      <c r="L189" s="4"/>
+      <c r="L189" s="16"/>
       <c r="M189" s="8"/>
       <c r="N189" s="8"/>
       <c r="O189" s="8"/>
@@ -4202,7 +4484,7 @@
       <c r="H190" s="8"/>
       <c r="I190" s="8"/>
       <c r="J190" s="8"/>
-      <c r="L190" s="15"/>
+      <c r="L190" s="16"/>
       <c r="M190" s="8"/>
       <c r="N190" s="8"/>
       <c r="O190" s="8"/>
@@ -4218,7 +4500,7 @@
       <c r="H191" s="8"/>
       <c r="I191" s="8"/>
       <c r="J191" s="8"/>
-      <c r="L191" s="15"/>
+      <c r="L191" s="4"/>
       <c r="M191" s="8"/>
       <c r="N191" s="8"/>
       <c r="O191" s="8"/>
@@ -4234,7 +4516,7 @@
       <c r="H192" s="8"/>
       <c r="I192" s="8"/>
       <c r="J192" s="8"/>
-      <c r="L192" s="4"/>
+      <c r="L192" s="16"/>
       <c r="M192" s="8"/>
       <c r="N192" s="8"/>
       <c r="O192" s="8"/>
@@ -4250,7 +4532,7 @@
       <c r="H193" s="8"/>
       <c r="I193" s="8"/>
       <c r="J193" s="8"/>
-      <c r="L193" s="15"/>
+      <c r="L193" s="4"/>
       <c r="M193" s="8"/>
       <c r="N193" s="8"/>
       <c r="O193" s="8"/>
@@ -4266,7 +4548,7 @@
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
       <c r="J194" s="8"/>
-      <c r="L194" s="4"/>
+      <c r="L194" s="16"/>
       <c r="M194" s="8"/>
       <c r="N194" s="8"/>
       <c r="O194" s="8"/>
@@ -4282,7 +4564,7 @@
       <c r="H195" s="8"/>
       <c r="I195" s="8"/>
       <c r="J195" s="8"/>
-      <c r="L195" s="15"/>
+      <c r="L195" s="16"/>
       <c r="M195" s="8"/>
       <c r="N195" s="8"/>
       <c r="O195" s="8"/>
@@ -4298,7 +4580,7 @@
       <c r="H196" s="8"/>
       <c r="I196" s="8"/>
       <c r="J196" s="8"/>
-      <c r="L196" s="15"/>
+      <c r="L196" s="4"/>
       <c r="M196" s="8"/>
       <c r="N196" s="8"/>
       <c r="O196" s="8"/>
@@ -4314,7 +4596,7 @@
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
       <c r="J197" s="8"/>
-      <c r="L197" s="4"/>
+      <c r="L197" s="16"/>
       <c r="M197" s="8"/>
       <c r="N197" s="8"/>
       <c r="O197" s="8"/>
@@ -4330,7 +4612,7 @@
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
       <c r="J198" s="8"/>
-      <c r="L198" s="15"/>
+      <c r="L198" s="16"/>
       <c r="M198" s="8"/>
       <c r="N198" s="8"/>
       <c r="O198" s="8"/>
@@ -4346,7 +4628,7 @@
       <c r="H199" s="8"/>
       <c r="I199" s="8"/>
       <c r="J199" s="8"/>
-      <c r="L199" s="15"/>
+      <c r="L199" s="4"/>
       <c r="M199" s="8"/>
       <c r="N199" s="8"/>
       <c r="O199" s="8"/>
@@ -4362,7 +4644,7 @@
       <c r="H200" s="8"/>
       <c r="I200" s="8"/>
       <c r="J200" s="8"/>
-      <c r="L200" s="4"/>
+      <c r="L200" s="16"/>
       <c r="M200" s="8"/>
       <c r="N200" s="8"/>
       <c r="O200" s="8"/>
@@ -4378,7 +4660,7 @@
       <c r="H201" s="8"/>
       <c r="I201" s="8"/>
       <c r="J201" s="8"/>
-      <c r="L201" s="15"/>
+      <c r="L201" s="4"/>
       <c r="M201" s="8"/>
       <c r="N201" s="8"/>
       <c r="O201" s="8"/>
@@ -4394,7 +4676,7 @@
       <c r="H202" s="8"/>
       <c r="I202" s="8"/>
       <c r="J202" s="8"/>
-      <c r="L202" s="4"/>
+      <c r="L202" s="16"/>
       <c r="M202" s="8"/>
       <c r="N202" s="8"/>
       <c r="O202" s="8"/>
@@ -4410,23 +4692,23 @@
       <c r="H203" s="8"/>
       <c r="I203" s="8"/>
       <c r="J203" s="8"/>
-      <c r="L203" s="15"/>
+      <c r="L203" s="16"/>
       <c r="M203" s="8"/>
       <c r="N203" s="8"/>
       <c r="O203" s="8"/>
     </row>
     <row r="204" spans="1:15">
-      <c r="A204" s="6"/>
-      <c r="B204" s="6"/>
-      <c r="C204" s="7"/>
-      <c r="D204" s="6"/>
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
       <c r="E204" s="4"/>
       <c r="F204" s="8"/>
       <c r="G204" s="8"/>
       <c r="H204" s="8"/>
       <c r="I204" s="8"/>
       <c r="J204" s="8"/>
-      <c r="L204" s="15"/>
+      <c r="L204" s="4"/>
       <c r="M204" s="8"/>
       <c r="N204" s="8"/>
       <c r="O204" s="8"/>
@@ -5023,22 +5305,6 @@
       <c r="N241" s="8"/>
       <c r="O241" s="8"/>
     </row>
-    <row r="242" spans="1:15">
-      <c r="A242" s="8"/>
-      <c r="B242" s="8"/>
-      <c r="C242" s="8"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="4"/>
-      <c r="F242" s="8"/>
-      <c r="G242" s="8"/>
-      <c r="H242" s="8"/>
-      <c r="I242" s="8"/>
-      <c r="J242" s="8"/>
-      <c r="L242" s="4"/>
-      <c r="M242" s="8"/>
-      <c r="N242" s="8"/>
-      <c r="O242" s="8"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
@@ -5054,7 +5320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -5071,7 +5337,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/src/doubleLine/双热线.xlsx
+++ b/src/doubleLine/双热线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
   <si>
     <t>节假日标志</t>
   </si>
@@ -171,6 +171,33 @@
   </si>
   <si>
     <t>00201015_02</t>
+  </si>
+  <si>
+    <t>00301005</t>
+  </si>
+  <si>
+    <t>00301005_01</t>
+  </si>
+  <si>
+    <t>custType</t>
+  </si>
+  <si>
+    <t>张叶</t>
+  </si>
+  <si>
+    <t>00201022</t>
+  </si>
+  <si>
+    <t>00201022_01</t>
+  </si>
+  <si>
+    <t>账号客户类型为对公</t>
+  </si>
+  <si>
+    <t>CUST_TYP_CD</t>
+  </si>
+  <si>
+    <t>李容</t>
   </si>
   <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
@@ -182,8 +209,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -215,46 +242,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,8 +256,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,9 +318,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,43 +385,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -368,7 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799890133365886"/>
+        <fgColor theme="3" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +407,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,37 +551,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,127 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,65 +616,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,6 +649,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -686,16 +674,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,137 +731,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -849,6 +876,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1179,7 +1210,7 @@
   <dimension ref="A1:O241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1603,52 +1634,131 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="A11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="J13" s="8"/>
-      <c r="L13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="O13" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="6"/>
@@ -2267,7 +2377,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="10"/>
+      <c r="I52" s="14"/>
       <c r="J52" s="8"/>
       <c r="L52" s="4"/>
       <c r="M52" s="8"/>
@@ -2283,7 +2393,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="10"/>
+      <c r="I53" s="14"/>
       <c r="J53" s="8"/>
       <c r="L53" s="4"/>
       <c r="M53" s="8"/>
@@ -2299,7 +2409,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="10"/>
+      <c r="I54" s="14"/>
       <c r="J54" s="8"/>
       <c r="L54" s="4"/>
       <c r="M54" s="8"/>
@@ -2315,7 +2425,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="10"/>
+      <c r="I55" s="14"/>
       <c r="J55" s="8"/>
       <c r="L55" s="4"/>
       <c r="M55" s="8"/>
@@ -2331,7 +2441,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
-      <c r="I56" s="10"/>
+      <c r="I56" s="14"/>
       <c r="J56" s="8"/>
       <c r="L56" s="4"/>
       <c r="M56" s="8"/>
@@ -2347,7 +2457,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="10"/>
+      <c r="I57" s="14"/>
       <c r="J57" s="8"/>
       <c r="L57" s="4"/>
       <c r="M57" s="8"/>
@@ -2363,7 +2473,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="10"/>
+      <c r="I58" s="14"/>
       <c r="J58" s="8"/>
       <c r="L58" s="4"/>
       <c r="M58" s="8"/>
@@ -2379,7 +2489,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="10"/>
+      <c r="I59" s="14"/>
       <c r="J59" s="8"/>
       <c r="L59" s="4"/>
       <c r="M59" s="8"/>
@@ -2395,7 +2505,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="10"/>
+      <c r="I60" s="14"/>
       <c r="J60" s="8"/>
       <c r="L60" s="4"/>
       <c r="M60" s="8"/>
@@ -2411,7 +2521,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="10"/>
+      <c r="I61" s="14"/>
       <c r="J61" s="8"/>
       <c r="L61" s="4"/>
       <c r="M61" s="8"/>
@@ -2427,7 +2537,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="10"/>
+      <c r="I62" s="14"/>
       <c r="J62" s="8"/>
       <c r="L62" s="4"/>
       <c r="M62" s="8"/>
@@ -2443,7 +2553,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="10"/>
+      <c r="I63" s="14"/>
       <c r="J63" s="8"/>
       <c r="L63" s="4"/>
       <c r="M63" s="8"/>
@@ -2459,7 +2569,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
-      <c r="I64" s="10"/>
+      <c r="I64" s="14"/>
       <c r="J64" s="8"/>
       <c r="L64" s="4"/>
       <c r="M64" s="8"/>
@@ -2475,7 +2585,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
-      <c r="I65" s="10"/>
+      <c r="I65" s="14"/>
       <c r="J65" s="8"/>
       <c r="L65" s="4"/>
       <c r="M65" s="8"/>
@@ -2491,7 +2601,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
-      <c r="I66" s="10"/>
+      <c r="I66" s="14"/>
       <c r="J66" s="8"/>
       <c r="L66" s="4"/>
       <c r="M66" s="8"/>
@@ -2507,7 +2617,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="10"/>
+      <c r="I67" s="14"/>
       <c r="J67" s="8"/>
       <c r="L67" s="4"/>
       <c r="M67" s="8"/>
@@ -2515,21 +2625,21 @@
       <c r="O67" s="8"/>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:15">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="14"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="18"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="6"/>
@@ -2540,7 +2650,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
-      <c r="I69" s="10"/>
+      <c r="I69" s="14"/>
       <c r="J69" s="8"/>
       <c r="L69" s="4"/>
       <c r="M69" s="8"/>
@@ -2556,7 +2666,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="15"/>
+      <c r="I70" s="19"/>
       <c r="J70" s="8"/>
       <c r="L70" s="4"/>
       <c r="M70" s="8"/>
@@ -2572,9 +2682,9 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="15"/>
+      <c r="I71" s="19"/>
       <c r="J71" s="8"/>
-      <c r="L71" s="16"/>
+      <c r="L71" s="20"/>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
@@ -2588,7 +2698,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
-      <c r="I72" s="15"/>
+      <c r="I72" s="19"/>
       <c r="J72" s="8"/>
       <c r="L72" s="4"/>
       <c r="M72" s="8"/>
@@ -2604,9 +2714,9 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="L73" s="16"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="L73" s="20"/>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
@@ -2620,7 +2730,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
-      <c r="I74" s="15"/>
+      <c r="I74" s="19"/>
       <c r="J74" s="8"/>
       <c r="L74" s="4"/>
       <c r="M74" s="8"/>
@@ -2636,7 +2746,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
-      <c r="I75" s="15"/>
+      <c r="I75" s="19"/>
       <c r="J75" s="8"/>
       <c r="L75" s="4"/>
       <c r="M75" s="8"/>
@@ -2652,9 +2762,9 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="15"/>
+      <c r="I76" s="19"/>
       <c r="J76" s="8"/>
-      <c r="L76" s="16"/>
+      <c r="L76" s="20"/>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
@@ -2668,7 +2778,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
-      <c r="I77" s="15"/>
+      <c r="I77" s="19"/>
       <c r="J77" s="8"/>
       <c r="L77" s="4"/>
       <c r="M77" s="8"/>
@@ -2684,9 +2794,9 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
-      <c r="I78" s="15"/>
+      <c r="I78" s="19"/>
       <c r="J78" s="8"/>
-      <c r="L78" s="16"/>
+      <c r="L78" s="20"/>
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
@@ -2700,7 +2810,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
-      <c r="I79" s="15"/>
+      <c r="I79" s="19"/>
       <c r="J79" s="8"/>
       <c r="L79" s="4"/>
       <c r="M79" s="8"/>
@@ -2716,9 +2826,9 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
-      <c r="I80" s="15"/>
+      <c r="I80" s="19"/>
       <c r="J80" s="8"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="20"/>
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
@@ -2732,9 +2842,9 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
-      <c r="I81" s="15"/>
+      <c r="I81" s="19"/>
       <c r="J81" s="8"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="20"/>
       <c r="M81" s="8"/>
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
@@ -2748,7 +2858,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
-      <c r="I82" s="15"/>
+      <c r="I82" s="19"/>
       <c r="J82" s="8"/>
       <c r="L82" s="4"/>
       <c r="M82" s="8"/>
@@ -2764,9 +2874,9 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
-      <c r="I83" s="15"/>
+      <c r="I83" s="19"/>
       <c r="J83" s="8"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="20"/>
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
@@ -2780,9 +2890,9 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
-      <c r="I84" s="15"/>
+      <c r="I84" s="19"/>
       <c r="J84" s="8"/>
-      <c r="L84" s="16"/>
+      <c r="L84" s="20"/>
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
@@ -2796,7 +2906,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="15"/>
+      <c r="I85" s="19"/>
       <c r="J85" s="8"/>
       <c r="L85" s="4"/>
       <c r="M85" s="8"/>
@@ -2812,9 +2922,9 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="15"/>
+      <c r="I86" s="19"/>
       <c r="J86" s="8"/>
-      <c r="L86" s="16"/>
+      <c r="L86" s="20"/>
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
@@ -2828,9 +2938,9 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
-      <c r="I87" s="15"/>
+      <c r="I87" s="19"/>
       <c r="J87" s="8"/>
-      <c r="L87" s="16"/>
+      <c r="L87" s="20"/>
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
@@ -2844,9 +2954,9 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
-      <c r="I88" s="15"/>
+      <c r="I88" s="19"/>
       <c r="J88" s="8"/>
-      <c r="L88" s="16"/>
+      <c r="L88" s="20"/>
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
@@ -2860,7 +2970,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
-      <c r="I89" s="15"/>
+      <c r="I89" s="19"/>
       <c r="J89" s="8"/>
       <c r="L89" s="4"/>
       <c r="M89" s="8"/>
@@ -2876,9 +2986,9 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
-      <c r="I90" s="15"/>
+      <c r="I90" s="19"/>
       <c r="J90" s="8"/>
-      <c r="L90" s="16"/>
+      <c r="L90" s="20"/>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
@@ -2892,7 +3002,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
-      <c r="I91" s="15"/>
+      <c r="I91" s="19"/>
       <c r="J91" s="8"/>
       <c r="L91" s="4"/>
       <c r="M91" s="8"/>
@@ -2908,9 +3018,9 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
-      <c r="I92" s="15"/>
+      <c r="I92" s="19"/>
       <c r="J92" s="8"/>
-      <c r="L92" s="16"/>
+      <c r="L92" s="20"/>
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
@@ -2924,9 +3034,9 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
-      <c r="I93" s="15"/>
+      <c r="I93" s="19"/>
       <c r="J93" s="8"/>
-      <c r="L93" s="16"/>
+      <c r="L93" s="20"/>
       <c r="M93" s="8"/>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
@@ -2940,9 +3050,9 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
-      <c r="I94" s="15"/>
+      <c r="I94" s="19"/>
       <c r="J94" s="8"/>
-      <c r="L94" s="16"/>
+      <c r="L94" s="20"/>
       <c r="M94" s="8"/>
       <c r="N94" s="8"/>
       <c r="O94" s="8"/>
@@ -2956,7 +3066,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
-      <c r="I95" s="15"/>
+      <c r="I95" s="19"/>
       <c r="J95" s="8"/>
       <c r="L95" s="4"/>
       <c r="M95" s="8"/>
@@ -2972,9 +3082,9 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="15"/>
+      <c r="I96" s="19"/>
       <c r="J96" s="8"/>
-      <c r="L96" s="16"/>
+      <c r="L96" s="20"/>
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
       <c r="O96" s="8"/>
@@ -3004,9 +3114,9 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
-      <c r="I98" s="15"/>
+      <c r="I98" s="19"/>
       <c r="J98" s="8"/>
-      <c r="L98" s="16"/>
+      <c r="L98" s="20"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
@@ -3038,7 +3148,7 @@
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
-      <c r="L100" s="16"/>
+      <c r="L100" s="20"/>
       <c r="M100" s="8"/>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
@@ -3048,68 +3158,68 @@
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
       <c r="K101" s="4"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="14"/>
-      <c r="O101" s="14"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="18"/>
     </row>
     <row r="102" s="2" customFormat="1" spans="1:15">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="14"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
       <c r="K102" s="4"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="14"/>
-      <c r="N102" s="14"/>
-      <c r="O102" s="14"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="18"/>
     </row>
     <row r="103" s="2" customFormat="1" spans="1:15">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="14"/>
-      <c r="N103" s="14"/>
-      <c r="O103" s="14"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18"/>
+      <c r="O103" s="18"/>
     </row>
     <row r="104" s="2" customFormat="1" spans="1:15">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="6"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="14"/>
-      <c r="N104" s="14"/>
-      <c r="O104" s="14"/>
+      <c r="L104" s="17"/>
+      <c r="M104" s="18"/>
+      <c r="N104" s="18"/>
+      <c r="O104" s="18"/>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="6"/>
@@ -3122,7 +3232,7 @@
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
-      <c r="L105" s="16"/>
+      <c r="L105" s="20"/>
       <c r="M105" s="8"/>
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
@@ -3138,7 +3248,7 @@
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
-      <c r="L106" s="16"/>
+      <c r="L106" s="20"/>
       <c r="M106" s="8"/>
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
@@ -3154,7 +3264,7 @@
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
-      <c r="L107" s="16"/>
+      <c r="L107" s="20"/>
       <c r="M107" s="8"/>
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
@@ -3170,7 +3280,7 @@
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
-      <c r="L108" s="16"/>
+      <c r="L108" s="20"/>
       <c r="M108" s="8"/>
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
@@ -3186,7 +3296,7 @@
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
-      <c r="L109" s="16"/>
+      <c r="L109" s="20"/>
       <c r="M109" s="8"/>
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
@@ -3202,7 +3312,7 @@
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
-      <c r="L110" s="16"/>
+      <c r="L110" s="20"/>
       <c r="M110" s="8"/>
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
@@ -3216,7 +3326,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
-      <c r="I111" s="15"/>
+      <c r="I111" s="19"/>
       <c r="J111" s="8"/>
       <c r="L111" s="4"/>
       <c r="M111" s="8"/>
@@ -3234,7 +3344,7 @@
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
-      <c r="L112" s="16"/>
+      <c r="L112" s="20"/>
       <c r="M112" s="8"/>
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
@@ -3250,7 +3360,7 @@
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
-      <c r="L113" s="16"/>
+      <c r="L113" s="20"/>
       <c r="M113" s="8"/>
       <c r="N113" s="8"/>
       <c r="O113" s="8"/>
@@ -3282,7 +3392,7 @@
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
-      <c r="L115" s="16"/>
+      <c r="L115" s="20"/>
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
@@ -3296,9 +3406,9 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
-      <c r="I116" s="15"/>
+      <c r="I116" s="19"/>
       <c r="J116" s="8"/>
-      <c r="L116" s="16"/>
+      <c r="L116" s="20"/>
       <c r="M116" s="8"/>
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
@@ -3312,9 +3422,9 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
-      <c r="I117" s="15"/>
+      <c r="I117" s="19"/>
       <c r="J117" s="8"/>
-      <c r="L117" s="16"/>
+      <c r="L117" s="20"/>
       <c r="M117" s="8"/>
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
@@ -3328,7 +3438,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
-      <c r="I118" s="15"/>
+      <c r="I118" s="19"/>
       <c r="J118" s="8"/>
       <c r="L118" s="4"/>
       <c r="M118" s="8"/>
@@ -3344,9 +3454,9 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
-      <c r="I119" s="15"/>
+      <c r="I119" s="19"/>
       <c r="J119" s="8"/>
-      <c r="L119" s="16"/>
+      <c r="L119" s="20"/>
       <c r="M119" s="8"/>
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
@@ -3360,7 +3470,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
-      <c r="I120" s="15"/>
+      <c r="I120" s="19"/>
       <c r="J120" s="8"/>
       <c r="L120" s="4"/>
       <c r="M120" s="8"/>
@@ -3376,9 +3486,9 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
-      <c r="I121" s="15"/>
+      <c r="I121" s="19"/>
       <c r="J121" s="8"/>
-      <c r="L121" s="16"/>
+      <c r="L121" s="20"/>
       <c r="M121" s="8"/>
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
@@ -3392,9 +3502,9 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
-      <c r="I122" s="15"/>
+      <c r="I122" s="19"/>
       <c r="J122" s="8"/>
-      <c r="L122" s="16"/>
+      <c r="L122" s="20"/>
       <c r="M122" s="8"/>
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
@@ -3408,9 +3518,9 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
-      <c r="I123" s="15"/>
+      <c r="I123" s="19"/>
       <c r="J123" s="8"/>
-      <c r="L123" s="16"/>
+      <c r="L123" s="20"/>
       <c r="M123" s="8"/>
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
@@ -3424,7 +3534,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
-      <c r="I124" s="15"/>
+      <c r="I124" s="19"/>
       <c r="J124" s="8"/>
       <c r="L124" s="4"/>
       <c r="M124" s="8"/>
@@ -3440,9 +3550,9 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
-      <c r="I125" s="15"/>
+      <c r="I125" s="19"/>
       <c r="J125" s="8"/>
-      <c r="L125" s="16"/>
+      <c r="L125" s="20"/>
       <c r="M125" s="8"/>
       <c r="N125" s="8"/>
       <c r="O125" s="8"/>
@@ -3456,7 +3566,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
-      <c r="I126" s="15"/>
+      <c r="I126" s="19"/>
       <c r="J126" s="8"/>
       <c r="L126" s="4"/>
       <c r="M126" s="8"/>
@@ -3472,9 +3582,9 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
-      <c r="I127" s="15"/>
+      <c r="I127" s="19"/>
       <c r="J127" s="8"/>
-      <c r="L127" s="16"/>
+      <c r="L127" s="20"/>
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
       <c r="O127" s="8"/>
@@ -3488,9 +3598,9 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
-      <c r="I128" s="15"/>
+      <c r="I128" s="19"/>
       <c r="J128" s="8"/>
-      <c r="L128" s="16"/>
+      <c r="L128" s="20"/>
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
       <c r="O128" s="8"/>
@@ -3504,9 +3614,9 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
-      <c r="I129" s="15"/>
+      <c r="I129" s="19"/>
       <c r="J129" s="8"/>
-      <c r="L129" s="16"/>
+      <c r="L129" s="20"/>
       <c r="M129" s="8"/>
       <c r="N129" s="8"/>
       <c r="O129" s="8"/>
@@ -3520,7 +3630,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
-      <c r="I130" s="15"/>
+      <c r="I130" s="19"/>
       <c r="J130" s="8"/>
       <c r="L130" s="4"/>
       <c r="M130" s="8"/>
@@ -3538,7 +3648,7 @@
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
-      <c r="L131" s="16"/>
+      <c r="L131" s="20"/>
       <c r="M131" s="8"/>
       <c r="N131" s="8"/>
       <c r="O131" s="8"/>
@@ -3552,9 +3662,9 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
-      <c r="I132" s="15"/>
+      <c r="I132" s="19"/>
       <c r="J132" s="8"/>
-      <c r="L132" s="16"/>
+      <c r="L132" s="20"/>
       <c r="M132" s="8"/>
       <c r="N132" s="8"/>
       <c r="O132" s="8"/>
@@ -3568,7 +3678,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
-      <c r="I133" s="15"/>
+      <c r="I133" s="19"/>
       <c r="J133" s="8"/>
       <c r="L133" s="4"/>
       <c r="M133" s="8"/>
@@ -3584,7 +3694,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
-      <c r="I134" s="15"/>
+      <c r="I134" s="19"/>
       <c r="J134" s="8"/>
       <c r="L134" s="4"/>
       <c r="M134" s="8"/>
@@ -3600,9 +3710,9 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
-      <c r="I135" s="15"/>
+      <c r="I135" s="19"/>
       <c r="J135" s="8"/>
-      <c r="L135" s="16"/>
+      <c r="L135" s="20"/>
       <c r="M135" s="8"/>
       <c r="N135" s="8"/>
       <c r="O135" s="8"/>
@@ -3616,7 +3726,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
-      <c r="I136" s="15"/>
+      <c r="I136" s="19"/>
       <c r="J136" s="8"/>
       <c r="L136" s="4"/>
       <c r="M136" s="8"/>
@@ -3632,9 +3742,9 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
-      <c r="I137" s="15"/>
+      <c r="I137" s="19"/>
       <c r="J137" s="8"/>
-      <c r="L137" s="16"/>
+      <c r="L137" s="20"/>
       <c r="M137" s="8"/>
       <c r="N137" s="8"/>
       <c r="O137" s="8"/>
@@ -3649,8 +3759,8 @@
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
-      <c r="J138" s="15"/>
-      <c r="L138" s="16"/>
+      <c r="J138" s="19"/>
+      <c r="L138" s="20"/>
       <c r="M138" s="8"/>
       <c r="N138" s="8"/>
       <c r="O138" s="8"/>
@@ -3664,7 +3774,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
-      <c r="I139" s="15"/>
+      <c r="I139" s="19"/>
       <c r="J139" s="8"/>
       <c r="L139" s="4"/>
       <c r="M139" s="8"/>
@@ -3680,9 +3790,9 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
-      <c r="I140" s="15"/>
+      <c r="I140" s="19"/>
       <c r="J140" s="8"/>
-      <c r="L140" s="16"/>
+      <c r="L140" s="20"/>
       <c r="M140" s="8"/>
       <c r="N140" s="8"/>
       <c r="O140" s="8"/>
@@ -3692,34 +3802,34 @@
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="14"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="18"/>
       <c r="K141" s="4"/>
-      <c r="L141" s="13"/>
-      <c r="M141" s="14"/>
-      <c r="N141" s="14"/>
-      <c r="O141" s="14"/>
+      <c r="L141" s="17"/>
+      <c r="M141" s="18"/>
+      <c r="N141" s="18"/>
+      <c r="O141" s="18"/>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:15">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="14"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
+      <c r="J142" s="18"/>
       <c r="K142" s="4"/>
-      <c r="L142" s="13"/>
-      <c r="M142" s="14"/>
-      <c r="N142" s="14"/>
-      <c r="O142" s="14"/>
+      <c r="L142" s="17"/>
+      <c r="M142" s="18"/>
+      <c r="N142" s="18"/>
+      <c r="O142" s="18"/>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="6"/>
@@ -4468,7 +4578,7 @@
       <c r="H189" s="8"/>
       <c r="I189" s="8"/>
       <c r="J189" s="8"/>
-      <c r="L189" s="16"/>
+      <c r="L189" s="20"/>
       <c r="M189" s="8"/>
       <c r="N189" s="8"/>
       <c r="O189" s="8"/>
@@ -4484,7 +4594,7 @@
       <c r="H190" s="8"/>
       <c r="I190" s="8"/>
       <c r="J190" s="8"/>
-      <c r="L190" s="16"/>
+      <c r="L190" s="20"/>
       <c r="M190" s="8"/>
       <c r="N190" s="8"/>
       <c r="O190" s="8"/>
@@ -4516,7 +4626,7 @@
       <c r="H192" s="8"/>
       <c r="I192" s="8"/>
       <c r="J192" s="8"/>
-      <c r="L192" s="16"/>
+      <c r="L192" s="20"/>
       <c r="M192" s="8"/>
       <c r="N192" s="8"/>
       <c r="O192" s="8"/>
@@ -4548,7 +4658,7 @@
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
       <c r="J194" s="8"/>
-      <c r="L194" s="16"/>
+      <c r="L194" s="20"/>
       <c r="M194" s="8"/>
       <c r="N194" s="8"/>
       <c r="O194" s="8"/>
@@ -4564,7 +4674,7 @@
       <c r="H195" s="8"/>
       <c r="I195" s="8"/>
       <c r="J195" s="8"/>
-      <c r="L195" s="16"/>
+      <c r="L195" s="20"/>
       <c r="M195" s="8"/>
       <c r="N195" s="8"/>
       <c r="O195" s="8"/>
@@ -4596,7 +4706,7 @@
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
       <c r="J197" s="8"/>
-      <c r="L197" s="16"/>
+      <c r="L197" s="20"/>
       <c r="M197" s="8"/>
       <c r="N197" s="8"/>
       <c r="O197" s="8"/>
@@ -4612,7 +4722,7 @@
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
       <c r="J198" s="8"/>
-      <c r="L198" s="16"/>
+      <c r="L198" s="20"/>
       <c r="M198" s="8"/>
       <c r="N198" s="8"/>
       <c r="O198" s="8"/>
@@ -4644,7 +4754,7 @@
       <c r="H200" s="8"/>
       <c r="I200" s="8"/>
       <c r="J200" s="8"/>
-      <c r="L200" s="16"/>
+      <c r="L200" s="20"/>
       <c r="M200" s="8"/>
       <c r="N200" s="8"/>
       <c r="O200" s="8"/>
@@ -4676,7 +4786,7 @@
       <c r="H202" s="8"/>
       <c r="I202" s="8"/>
       <c r="J202" s="8"/>
-      <c r="L202" s="16"/>
+      <c r="L202" s="20"/>
       <c r="M202" s="8"/>
       <c r="N202" s="8"/>
       <c r="O202" s="8"/>
@@ -4692,7 +4802,7 @@
       <c r="H203" s="8"/>
       <c r="I203" s="8"/>
       <c r="J203" s="8"/>
-      <c r="L203" s="16"/>
+      <c r="L203" s="20"/>
       <c r="M203" s="8"/>
       <c r="N203" s="8"/>
       <c r="O203" s="8"/>
@@ -5337,7 +5447,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/src/doubleLine/双热线.xlsx
+++ b/src/doubleLine/双热线.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Agree\四川农信\Doc\SVN\04设计与实现\交易数据统计\交易规则统计\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B15195-13D1-4E1F-9EC9-3120A26728A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="双热线" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="102">
   <si>
     <t>节假日标志</t>
   </si>
@@ -275,62 +269,71 @@
     <t>remitAmount</t>
   </si>
   <si>
+    <t>00302021</t>
+  </si>
+  <si>
+    <t>00302021_01</t>
+  </si>
+  <si>
+    <t>账号客户类型为对公且交易金额大于等于50万</t>
+  </si>
+  <si>
+    <t>赵松</t>
+  </si>
+  <si>
+    <t>partAmt</t>
+  </si>
+  <si>
+    <t>00303005</t>
+  </si>
+  <si>
+    <t>00303005_01</t>
+  </si>
+  <si>
+    <t>custTypCd</t>
+  </si>
+  <si>
+    <t>tran_amt</t>
+  </si>
+  <si>
+    <t>00302016</t>
+  </si>
+  <si>
+    <t>00302016_01</t>
+  </si>
+  <si>
+    <t>TX_Amt</t>
+  </si>
+  <si>
+    <t>张国锋</t>
+  </si>
+  <si>
+    <t>00301007</t>
+  </si>
+  <si>
+    <t>00301007_01</t>
+  </si>
+  <si>
+    <t>00201002</t>
+  </si>
+  <si>
+    <t>00201002_01</t>
+  </si>
+  <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
-  </si>
-  <si>
-    <t>00302021</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>00302021_01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号客户类型为对公且交易金额大于等于50万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>csttype</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵松</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>partAmt</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>00303005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>00303005_01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>custTypCd</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>tran_amt</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,7 +345,6 @@
       <b/>
       <sz val="16"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -350,14 +352,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -365,19 +365,148 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,7 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79979857783745845"/>
+        <fgColor theme="3" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,8 +525,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -420,11 +735,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -439,101 +996,75 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -547,7 +1078,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -791,30 +1322,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" customWidth="1"/>
-    <col min="8" max="8" width="38.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="14.775" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.775" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.775" customWidth="1"/>
+    <col min="8" max="8" width="38.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="12.3333333333333" customWidth="1"/>
     <col min="11" max="11" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="61.2" x14ac:dyDescent="0.25">
+    <row r="1" ht="40.5" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +1392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -891,7 +1422,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -923,7 +1454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -966,7 +1497,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1009,7 +1540,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1583,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1095,7 +1626,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -1138,7 +1669,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1181,7 +1712,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1224,7 +1755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
@@ -1267,7 +1798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
@@ -1310,7 +1841,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
@@ -1351,7 +1882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
@@ -1394,7 +1925,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
@@ -1437,7 +1968,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
@@ -1480,7 +2011,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
@@ -1523,7 +2054,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="11" t="s">
         <v>15</v>
       </c>
@@ -1566,7 +2097,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1609,7 +2140,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -1652,7 +2183,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -1695,7 +2226,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -1738,7 +2269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="11" t="s">
         <v>15</v>
       </c>
@@ -1781,7 +2312,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
@@ -1824,7 +2355,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="11" t="s">
         <v>15</v>
       </c>
@@ -1867,7 +2398,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="11" t="s">
         <v>15</v>
       </c>
@@ -1910,7 +2441,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="11" t="s">
         <v>15</v>
       </c>
@@ -1953,7 +2484,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="6" t="s">
         <v>15</v>
       </c>
@@ -1967,19 +2498,19 @@
         <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>86</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>30</v>
@@ -1993,10 +2524,10 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
@@ -2010,22 +2541,22 @@
         <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>86</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>36</v>
@@ -2036,36 +2567,36 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>30</v>
@@ -2074,15 +2605,15 @@
         <v>43</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="6" t="s">
         <v>15</v>
       </c>
@@ -2096,22 +2627,22 @@
         <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>36</v>
@@ -2122,49 +2653,117 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="L32" s="4"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="L33" s="4"/>
+      <c r="O32" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="9"/>
+      <c r="O33" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2173,23 +2772,23 @@
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
       <c r="L35" s="4"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
@@ -2205,7 +2804,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -2221,7 +2820,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -2237,7 +2836,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
@@ -2253,7 +2852,7 @@
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -2269,7 +2868,7 @@
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -2285,7 +2884,7 @@
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
@@ -2301,7 +2900,7 @@
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
@@ -2317,7 +2916,7 @@
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
@@ -2333,7 +2932,7 @@
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
@@ -2349,7 +2948,7 @@
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -2365,7 +2964,7 @@
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
@@ -2381,7 +2980,7 @@
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
@@ -2397,7 +2996,7 @@
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
@@ -2413,7 +3012,7 @@
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="7"/>
@@ -2429,7 +3028,7 @@
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
@@ -2445,7 +3044,7 @@
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
@@ -2461,7 +3060,7 @@
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="7"/>
@@ -2477,7 +3076,7 @@
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
@@ -2493,7 +3092,7 @@
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
@@ -2509,7 +3108,7 @@
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
@@ -2525,7 +3124,7 @@
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="7"/>
@@ -2541,7 +3140,7 @@
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="7"/>
@@ -2557,7 +3156,7 @@
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="7"/>
@@ -2573,7 +3172,7 @@
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="7"/>
@@ -2589,7 +3188,7 @@
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="7"/>
@@ -2605,7 +3204,7 @@
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="7"/>
@@ -2621,7 +3220,7 @@
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="7"/>
@@ -2637,7 +3236,7 @@
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="7"/>
@@ -2653,7 +3252,7 @@
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="7"/>
@@ -2669,7 +3268,7 @@
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="7"/>
@@ -2685,7 +3284,7 @@
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="7"/>
@@ -2701,7 +3300,7 @@
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
     </row>
-    <row r="68" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" s="2" customFormat="1" spans="1:15">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
@@ -2718,7 +3317,7 @@
       <c r="N68" s="21"/>
       <c r="O68" s="21"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
@@ -2734,7 +3333,7 @@
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
@@ -2743,14 +3342,14 @@
       <c r="F70" s="4"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
-      <c r="I70" s="22"/>
+      <c r="I70" s="10"/>
       <c r="J70" s="9"/>
       <c r="L70" s="4"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
@@ -2759,14 +3358,14 @@
       <c r="F71" s="4"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
-      <c r="I71" s="22"/>
+      <c r="I71" s="10"/>
       <c r="J71" s="9"/>
-      <c r="L71" s="23"/>
+      <c r="L71" s="16"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
@@ -2775,14 +3374,14 @@
       <c r="F72" s="4"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
-      <c r="I72" s="22"/>
+      <c r="I72" s="10"/>
       <c r="J72" s="9"/>
       <c r="L72" s="4"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
@@ -2791,14 +3390,14 @@
       <c r="F73" s="4"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="L73" s="23"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="L73" s="16"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
@@ -2807,14 +3406,14 @@
       <c r="F74" s="4"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="22"/>
+      <c r="I74" s="10"/>
       <c r="J74" s="9"/>
       <c r="L74" s="4"/>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
@@ -2823,14 +3422,14 @@
       <c r="F75" s="4"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="22"/>
+      <c r="I75" s="10"/>
       <c r="J75" s="9"/>
       <c r="L75" s="4"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
@@ -2839,14 +3438,14 @@
       <c r="F76" s="4"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
-      <c r="I76" s="22"/>
+      <c r="I76" s="10"/>
       <c r="J76" s="9"/>
-      <c r="L76" s="23"/>
+      <c r="L76" s="16"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
@@ -2855,14 +3454,14 @@
       <c r="F77" s="4"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
-      <c r="I77" s="22"/>
+      <c r="I77" s="10"/>
       <c r="J77" s="9"/>
       <c r="L77" s="4"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
@@ -2871,14 +3470,14 @@
       <c r="F78" s="4"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
-      <c r="I78" s="22"/>
+      <c r="I78" s="10"/>
       <c r="J78" s="9"/>
-      <c r="L78" s="23"/>
+      <c r="L78" s="16"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
@@ -2887,14 +3486,14 @@
       <c r="F79" s="4"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
-      <c r="I79" s="22"/>
+      <c r="I79" s="10"/>
       <c r="J79" s="9"/>
       <c r="L79" s="4"/>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
@@ -2903,14 +3502,14 @@
       <c r="F80" s="4"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
-      <c r="I80" s="22"/>
+      <c r="I80" s="10"/>
       <c r="J80" s="9"/>
-      <c r="L80" s="23"/>
+      <c r="L80" s="16"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
@@ -2919,14 +3518,14 @@
       <c r="F81" s="4"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
-      <c r="I81" s="22"/>
+      <c r="I81" s="10"/>
       <c r="J81" s="9"/>
-      <c r="L81" s="23"/>
+      <c r="L81" s="16"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
@@ -2935,14 +3534,14 @@
       <c r="F82" s="4"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
-      <c r="I82" s="22"/>
+      <c r="I82" s="10"/>
       <c r="J82" s="9"/>
       <c r="L82" s="4"/>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
@@ -2951,14 +3550,14 @@
       <c r="F83" s="4"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
-      <c r="I83" s="22"/>
+      <c r="I83" s="10"/>
       <c r="J83" s="9"/>
-      <c r="L83" s="23"/>
+      <c r="L83" s="16"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
@@ -2967,14 +3566,14 @@
       <c r="F84" s="4"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
-      <c r="I84" s="22"/>
+      <c r="I84" s="10"/>
       <c r="J84" s="9"/>
-      <c r="L84" s="23"/>
+      <c r="L84" s="16"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
       <c r="O84" s="9"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
@@ -2983,14 +3582,14 @@
       <c r="F85" s="4"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
-      <c r="I85" s="22"/>
+      <c r="I85" s="10"/>
       <c r="J85" s="9"/>
       <c r="L85" s="4"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
       <c r="O85" s="9"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
@@ -2999,14 +3598,14 @@
       <c r="F86" s="4"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
-      <c r="I86" s="22"/>
+      <c r="I86" s="10"/>
       <c r="J86" s="9"/>
-      <c r="L86" s="23"/>
+      <c r="L86" s="16"/>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
@@ -3015,14 +3614,14 @@
       <c r="F87" s="4"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
-      <c r="I87" s="22"/>
+      <c r="I87" s="10"/>
       <c r="J87" s="9"/>
-      <c r="L87" s="23"/>
+      <c r="L87" s="16"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
@@ -3031,14 +3630,14 @@
       <c r="F88" s="4"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
-      <c r="I88" s="22"/>
+      <c r="I88" s="10"/>
       <c r="J88" s="9"/>
-      <c r="L88" s="23"/>
+      <c r="L88" s="16"/>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
@@ -3047,14 +3646,14 @@
       <c r="F89" s="4"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
-      <c r="I89" s="22"/>
+      <c r="I89" s="10"/>
       <c r="J89" s="9"/>
       <c r="L89" s="4"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
@@ -3063,14 +3662,14 @@
       <c r="F90" s="4"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
-      <c r="I90" s="22"/>
+      <c r="I90" s="10"/>
       <c r="J90" s="9"/>
-      <c r="L90" s="23"/>
+      <c r="L90" s="16"/>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
@@ -3079,14 +3678,14 @@
       <c r="F91" s="4"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
-      <c r="I91" s="22"/>
+      <c r="I91" s="10"/>
       <c r="J91" s="9"/>
       <c r="L91" s="4"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
@@ -3095,14 +3694,14 @@
       <c r="F92" s="4"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
-      <c r="I92" s="22"/>
+      <c r="I92" s="10"/>
       <c r="J92" s="9"/>
-      <c r="L92" s="23"/>
+      <c r="L92" s="16"/>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
@@ -3111,14 +3710,14 @@
       <c r="F93" s="4"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
-      <c r="I93" s="22"/>
+      <c r="I93" s="10"/>
       <c r="J93" s="9"/>
-      <c r="L93" s="23"/>
+      <c r="L93" s="16"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
@@ -3127,14 +3726,14 @@
       <c r="F94" s="4"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
-      <c r="I94" s="22"/>
+      <c r="I94" s="10"/>
       <c r="J94" s="9"/>
-      <c r="L94" s="23"/>
+      <c r="L94" s="16"/>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
@@ -3143,14 +3742,14 @@
       <c r="F95" s="4"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
-      <c r="I95" s="22"/>
+      <c r="I95" s="10"/>
       <c r="J95" s="9"/>
       <c r="L95" s="4"/>
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
@@ -3159,14 +3758,14 @@
       <c r="F96" s="4"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
-      <c r="I96" s="22"/>
+      <c r="I96" s="10"/>
       <c r="J96" s="9"/>
-      <c r="L96" s="23"/>
+      <c r="L96" s="16"/>
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
@@ -3182,7 +3781,7 @@
       <c r="N97" s="9"/>
       <c r="O97" s="9"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
@@ -3191,14 +3790,14 @@
       <c r="F98" s="4"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
-      <c r="I98" s="22"/>
+      <c r="I98" s="10"/>
       <c r="J98" s="9"/>
-      <c r="L98" s="23"/>
+      <c r="L98" s="16"/>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
@@ -3214,7 +3813,7 @@
       <c r="N99" s="9"/>
       <c r="O99" s="9"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
@@ -3225,12 +3824,12 @@
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
-      <c r="L100" s="23"/>
+      <c r="L100" s="16"/>
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
       <c r="O100" s="9"/>
     </row>
-    <row r="101" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" s="2" customFormat="1" spans="1:15">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
@@ -3242,12 +3841,12 @@
       <c r="I101" s="21"/>
       <c r="J101" s="21"/>
       <c r="K101" s="4"/>
-      <c r="L101" s="24"/>
+      <c r="L101" s="22"/>
       <c r="M101" s="21"/>
       <c r="N101" s="21"/>
       <c r="O101" s="21"/>
     </row>
-    <row r="102" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" s="2" customFormat="1" spans="1:15">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
@@ -3259,12 +3858,12 @@
       <c r="I102" s="21"/>
       <c r="J102" s="21"/>
       <c r="K102" s="4"/>
-      <c r="L102" s="24"/>
+      <c r="L102" s="22"/>
       <c r="M102" s="21"/>
       <c r="N102" s="21"/>
       <c r="O102" s="21"/>
     </row>
-    <row r="103" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" s="2" customFormat="1" spans="1:15">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
@@ -3276,12 +3875,12 @@
       <c r="I103" s="21"/>
       <c r="J103" s="21"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="24"/>
+      <c r="L103" s="22"/>
       <c r="M103" s="21"/>
       <c r="N103" s="21"/>
       <c r="O103" s="21"/>
     </row>
-    <row r="104" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" s="2" customFormat="1" spans="1:15">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
@@ -3298,7 +3897,7 @@
       <c r="N104" s="21"/>
       <c r="O104" s="21"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
@@ -3309,12 +3908,12 @@
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
-      <c r="L105" s="23"/>
+      <c r="L105" s="16"/>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
@@ -3325,12 +3924,12 @@
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
-      <c r="L106" s="23"/>
+      <c r="L106" s="16"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
       <c r="O106" s="9"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
@@ -3341,12 +3940,12 @@
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
-      <c r="L107" s="23"/>
+      <c r="L107" s="16"/>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
       <c r="O107" s="9"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
@@ -3357,12 +3956,12 @@
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
-      <c r="L108" s="23"/>
+      <c r="L108" s="16"/>
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
@@ -3373,12 +3972,12 @@
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
-      <c r="L109" s="23"/>
+      <c r="L109" s="16"/>
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
       <c r="O109" s="9"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
@@ -3389,12 +3988,12 @@
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
-      <c r="L110" s="23"/>
+      <c r="L110" s="16"/>
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
       <c r="O110" s="9"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
@@ -3403,14 +4002,14 @@
       <c r="F111" s="4"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
-      <c r="I111" s="22"/>
+      <c r="I111" s="10"/>
       <c r="J111" s="9"/>
       <c r="L111" s="4"/>
       <c r="M111" s="9"/>
       <c r="N111" s="9"/>
       <c r="O111" s="9"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
@@ -3421,12 +4020,12 @@
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
-      <c r="L112" s="23"/>
+      <c r="L112" s="16"/>
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
       <c r="O112" s="9"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
@@ -3437,12 +4036,12 @@
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
-      <c r="L113" s="23"/>
+      <c r="L113" s="16"/>
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
       <c r="O113" s="9"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
@@ -3458,7 +4057,7 @@
       <c r="N114" s="9"/>
       <c r="O114" s="9"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
@@ -3469,12 +4068,12 @@
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
-      <c r="L115" s="23"/>
+      <c r="L115" s="16"/>
       <c r="M115" s="9"/>
       <c r="N115" s="9"/>
       <c r="O115" s="9"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
@@ -3483,14 +4082,14 @@
       <c r="F116" s="4"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
-      <c r="I116" s="22"/>
+      <c r="I116" s="10"/>
       <c r="J116" s="9"/>
-      <c r="L116" s="23"/>
+      <c r="L116" s="16"/>
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
       <c r="O116" s="9"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
@@ -3499,14 +4098,14 @@
       <c r="F117" s="4"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
-      <c r="I117" s="22"/>
+      <c r="I117" s="10"/>
       <c r="J117" s="9"/>
-      <c r="L117" s="23"/>
+      <c r="L117" s="16"/>
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
       <c r="O117" s="9"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
@@ -3515,14 +4114,14 @@
       <c r="F118" s="4"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
-      <c r="I118" s="22"/>
+      <c r="I118" s="10"/>
       <c r="J118" s="9"/>
       <c r="L118" s="4"/>
       <c r="M118" s="9"/>
       <c r="N118" s="9"/>
       <c r="O118" s="9"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
@@ -3531,14 +4130,14 @@
       <c r="F119" s="4"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
-      <c r="I119" s="22"/>
+      <c r="I119" s="10"/>
       <c r="J119" s="9"/>
-      <c r="L119" s="23"/>
+      <c r="L119" s="16"/>
       <c r="M119" s="9"/>
       <c r="N119" s="9"/>
       <c r="O119" s="9"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
@@ -3547,14 +4146,14 @@
       <c r="F120" s="4"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
-      <c r="I120" s="22"/>
+      <c r="I120" s="10"/>
       <c r="J120" s="9"/>
       <c r="L120" s="4"/>
       <c r="M120" s="9"/>
       <c r="N120" s="9"/>
       <c r="O120" s="9"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
@@ -3563,14 +4162,14 @@
       <c r="F121" s="4"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
-      <c r="I121" s="22"/>
+      <c r="I121" s="10"/>
       <c r="J121" s="9"/>
-      <c r="L121" s="23"/>
+      <c r="L121" s="16"/>
       <c r="M121" s="9"/>
       <c r="N121" s="9"/>
       <c r="O121" s="9"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
@@ -3579,14 +4178,14 @@
       <c r="F122" s="4"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
-      <c r="I122" s="22"/>
+      <c r="I122" s="10"/>
       <c r="J122" s="9"/>
-      <c r="L122" s="23"/>
+      <c r="L122" s="16"/>
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
       <c r="O122" s="9"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
@@ -3595,14 +4194,14 @@
       <c r="F123" s="4"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
-      <c r="I123" s="22"/>
+      <c r="I123" s="10"/>
       <c r="J123" s="9"/>
-      <c r="L123" s="23"/>
+      <c r="L123" s="16"/>
       <c r="M123" s="9"/>
       <c r="N123" s="9"/>
       <c r="O123" s="9"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
@@ -3611,14 +4210,14 @@
       <c r="F124" s="4"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
-      <c r="I124" s="22"/>
+      <c r="I124" s="10"/>
       <c r="J124" s="9"/>
       <c r="L124" s="4"/>
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
       <c r="O124" s="9"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
@@ -3627,14 +4226,14 @@
       <c r="F125" s="4"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
-      <c r="I125" s="22"/>
+      <c r="I125" s="10"/>
       <c r="J125" s="9"/>
-      <c r="L125" s="23"/>
+      <c r="L125" s="16"/>
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
       <c r="O125" s="9"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
@@ -3643,14 +4242,14 @@
       <c r="F126" s="4"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
-      <c r="I126" s="22"/>
+      <c r="I126" s="10"/>
       <c r="J126" s="9"/>
       <c r="L126" s="4"/>
       <c r="M126" s="9"/>
       <c r="N126" s="9"/>
       <c r="O126" s="9"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
@@ -3659,14 +4258,14 @@
       <c r="F127" s="4"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
-      <c r="I127" s="22"/>
+      <c r="I127" s="10"/>
       <c r="J127" s="9"/>
-      <c r="L127" s="23"/>
+      <c r="L127" s="16"/>
       <c r="M127" s="9"/>
       <c r="N127" s="9"/>
       <c r="O127" s="9"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
@@ -3675,14 +4274,14 @@
       <c r="F128" s="4"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
-      <c r="I128" s="22"/>
+      <c r="I128" s="10"/>
       <c r="J128" s="9"/>
-      <c r="L128" s="23"/>
+      <c r="L128" s="16"/>
       <c r="M128" s="9"/>
       <c r="N128" s="9"/>
       <c r="O128" s="9"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
@@ -3691,14 +4290,14 @@
       <c r="F129" s="4"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
-      <c r="I129" s="22"/>
+      <c r="I129" s="10"/>
       <c r="J129" s="9"/>
-      <c r="L129" s="23"/>
+      <c r="L129" s="16"/>
       <c r="M129" s="9"/>
       <c r="N129" s="9"/>
       <c r="O129" s="9"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
@@ -3707,14 +4306,14 @@
       <c r="F130" s="4"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
-      <c r="I130" s="22"/>
+      <c r="I130" s="10"/>
       <c r="J130" s="9"/>
       <c r="L130" s="4"/>
       <c r="M130" s="9"/>
       <c r="N130" s="9"/>
       <c r="O130" s="9"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
@@ -3725,12 +4324,12 @@
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
-      <c r="L131" s="23"/>
+      <c r="L131" s="16"/>
       <c r="M131" s="9"/>
       <c r="N131" s="9"/>
       <c r="O131" s="9"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
@@ -3739,14 +4338,14 @@
       <c r="F132" s="4"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
-      <c r="I132" s="22"/>
+      <c r="I132" s="10"/>
       <c r="J132" s="9"/>
-      <c r="L132" s="23"/>
+      <c r="L132" s="16"/>
       <c r="M132" s="9"/>
       <c r="N132" s="9"/>
       <c r="O132" s="9"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
@@ -3755,14 +4354,14 @@
       <c r="F133" s="4"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
-      <c r="I133" s="22"/>
+      <c r="I133" s="10"/>
       <c r="J133" s="9"/>
       <c r="L133" s="4"/>
       <c r="M133" s="9"/>
       <c r="N133" s="9"/>
       <c r="O133" s="9"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
@@ -3771,14 +4370,14 @@
       <c r="F134" s="4"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
-      <c r="I134" s="22"/>
+      <c r="I134" s="10"/>
       <c r="J134" s="9"/>
       <c r="L134" s="4"/>
       <c r="M134" s="9"/>
       <c r="N134" s="9"/>
       <c r="O134" s="9"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
@@ -3787,14 +4386,14 @@
       <c r="F135" s="4"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
-      <c r="I135" s="22"/>
+      <c r="I135" s="10"/>
       <c r="J135" s="9"/>
-      <c r="L135" s="23"/>
+      <c r="L135" s="16"/>
       <c r="M135" s="9"/>
       <c r="N135" s="9"/>
       <c r="O135" s="9"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
@@ -3803,14 +4402,14 @@
       <c r="F136" s="4"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
-      <c r="I136" s="22"/>
+      <c r="I136" s="10"/>
       <c r="J136" s="9"/>
       <c r="L136" s="4"/>
       <c r="M136" s="9"/>
       <c r="N136" s="9"/>
       <c r="O136" s="9"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
@@ -3819,14 +4418,14 @@
       <c r="F137" s="4"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
-      <c r="I137" s="22"/>
+      <c r="I137" s="10"/>
       <c r="J137" s="9"/>
-      <c r="L137" s="23"/>
+      <c r="L137" s="16"/>
       <c r="M137" s="9"/>
       <c r="N137" s="9"/>
       <c r="O137" s="9"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
@@ -3836,13 +4435,13 @@
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
-      <c r="J138" s="22"/>
-      <c r="L138" s="23"/>
+      <c r="J138" s="10"/>
+      <c r="L138" s="16"/>
       <c r="M138" s="9"/>
       <c r="N138" s="9"/>
       <c r="O138" s="9"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
@@ -3851,14 +4450,14 @@
       <c r="F139" s="4"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
-      <c r="I139" s="22"/>
+      <c r="I139" s="10"/>
       <c r="J139" s="9"/>
       <c r="L139" s="4"/>
       <c r="M139" s="9"/>
       <c r="N139" s="9"/>
       <c r="O139" s="9"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
@@ -3867,14 +4466,14 @@
       <c r="F140" s="4"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
-      <c r="I140" s="22"/>
+      <c r="I140" s="10"/>
       <c r="J140" s="9"/>
-      <c r="L140" s="23"/>
+      <c r="L140" s="16"/>
       <c r="M140" s="9"/>
       <c r="N140" s="9"/>
       <c r="O140" s="9"/>
     </row>
-    <row r="141" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" s="2" customFormat="1" spans="1:15">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
@@ -3891,7 +4490,7 @@
       <c r="N141" s="21"/>
       <c r="O141" s="21"/>
     </row>
-    <row r="142" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" s="2" customFormat="1" spans="1:15">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
@@ -3908,7 +4507,7 @@
       <c r="N142" s="21"/>
       <c r="O142" s="21"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
@@ -3924,7 +4523,7 @@
       <c r="N143" s="9"/>
       <c r="O143" s="9"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
@@ -3940,7 +4539,7 @@
       <c r="N144" s="9"/>
       <c r="O144" s="9"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="7"/>
@@ -3956,7 +4555,7 @@
       <c r="N145" s="9"/>
       <c r="O145" s="9"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="7"/>
@@ -3972,7 +4571,7 @@
       <c r="N146" s="9"/>
       <c r="O146" s="9"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="7"/>
@@ -3988,7 +4587,7 @@
       <c r="N147" s="9"/>
       <c r="O147" s="9"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="7"/>
@@ -4004,7 +4603,7 @@
       <c r="N148" s="9"/>
       <c r="O148" s="9"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="7"/>
@@ -4020,7 +4619,7 @@
       <c r="N149" s="9"/>
       <c r="O149" s="9"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="7"/>
@@ -4036,7 +4635,7 @@
       <c r="N150" s="9"/>
       <c r="O150" s="9"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="7"/>
@@ -4052,7 +4651,7 @@
       <c r="N151" s="9"/>
       <c r="O151" s="9"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="7"/>
@@ -4068,7 +4667,7 @@
       <c r="N152" s="9"/>
       <c r="O152" s="9"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="7"/>
@@ -4084,7 +4683,7 @@
       <c r="N153" s="9"/>
       <c r="O153" s="9"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="7"/>
@@ -4100,7 +4699,7 @@
       <c r="N154" s="9"/>
       <c r="O154" s="9"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="7"/>
@@ -4116,7 +4715,7 @@
       <c r="N155" s="9"/>
       <c r="O155" s="9"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="7"/>
@@ -4132,7 +4731,7 @@
       <c r="N156" s="9"/>
       <c r="O156" s="9"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="7"/>
@@ -4148,7 +4747,7 @@
       <c r="N157" s="9"/>
       <c r="O157" s="9"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="7"/>
@@ -4164,7 +4763,7 @@
       <c r="N158" s="9"/>
       <c r="O158" s="9"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="7"/>
@@ -4180,7 +4779,7 @@
       <c r="N159" s="9"/>
       <c r="O159" s="9"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="7"/>
@@ -4196,7 +4795,7 @@
       <c r="N160" s="9"/>
       <c r="O160" s="9"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="7"/>
@@ -4212,7 +4811,7 @@
       <c r="N161" s="9"/>
       <c r="O161" s="9"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="7"/>
@@ -4228,7 +4827,7 @@
       <c r="N162" s="9"/>
       <c r="O162" s="9"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="7"/>
@@ -4244,7 +4843,7 @@
       <c r="N163" s="9"/>
       <c r="O163" s="9"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="7"/>
@@ -4260,7 +4859,7 @@
       <c r="N164" s="9"/>
       <c r="O164" s="9"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="7"/>
@@ -4276,7 +4875,7 @@
       <c r="N165" s="9"/>
       <c r="O165" s="9"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="7"/>
@@ -4292,7 +4891,7 @@
       <c r="N166" s="9"/>
       <c r="O166" s="9"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="7"/>
@@ -4308,7 +4907,7 @@
       <c r="N167" s="9"/>
       <c r="O167" s="9"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="7"/>
@@ -4324,7 +4923,7 @@
       <c r="N168" s="9"/>
       <c r="O168" s="9"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="7"/>
@@ -4340,7 +4939,7 @@
       <c r="N169" s="9"/>
       <c r="O169" s="9"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="7"/>
@@ -4356,7 +4955,7 @@
       <c r="N170" s="9"/>
       <c r="O170" s="9"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="7"/>
@@ -4372,7 +4971,7 @@
       <c r="N171" s="9"/>
       <c r="O171" s="9"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="7"/>
@@ -4388,7 +4987,7 @@
       <c r="N172" s="9"/>
       <c r="O172" s="9"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="7"/>
@@ -4404,7 +5003,7 @@
       <c r="N173" s="9"/>
       <c r="O173" s="9"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="7"/>
@@ -4420,7 +5019,7 @@
       <c r="N174" s="9"/>
       <c r="O174" s="9"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="7"/>
@@ -4436,7 +5035,7 @@
       <c r="N175" s="9"/>
       <c r="O175" s="9"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="7"/>
@@ -4452,7 +5051,7 @@
       <c r="N176" s="9"/>
       <c r="O176" s="9"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="7"/>
@@ -4468,7 +5067,7 @@
       <c r="N177" s="9"/>
       <c r="O177" s="9"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="7"/>
@@ -4484,7 +5083,7 @@
       <c r="N178" s="9"/>
       <c r="O178" s="9"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="7"/>
@@ -4500,7 +5099,7 @@
       <c r="N179" s="9"/>
       <c r="O179" s="9"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="7"/>
@@ -4516,7 +5115,7 @@
       <c r="N180" s="9"/>
       <c r="O180" s="9"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="7"/>
@@ -4532,7 +5131,7 @@
       <c r="N181" s="9"/>
       <c r="O181" s="9"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="7"/>
@@ -4548,7 +5147,7 @@
       <c r="N182" s="9"/>
       <c r="O182" s="9"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="7"/>
@@ -4564,7 +5163,7 @@
       <c r="N183" s="9"/>
       <c r="O183" s="9"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="7"/>
@@ -4580,7 +5179,7 @@
       <c r="N184" s="9"/>
       <c r="O184" s="9"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="7"/>
@@ -4596,7 +5195,7 @@
       <c r="N185" s="9"/>
       <c r="O185" s="9"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="7"/>
@@ -4612,7 +5211,7 @@
       <c r="N186" s="9"/>
       <c r="O186" s="9"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="7"/>
@@ -4628,7 +5227,7 @@
       <c r="N187" s="9"/>
       <c r="O187" s="9"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="7"/>
@@ -4644,7 +5243,7 @@
       <c r="N188" s="9"/>
       <c r="O188" s="9"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="7"/>
@@ -4655,12 +5254,12 @@
       <c r="H189" s="9"/>
       <c r="I189" s="9"/>
       <c r="J189" s="9"/>
-      <c r="L189" s="23"/>
+      <c r="L189" s="16"/>
       <c r="M189" s="9"/>
       <c r="N189" s="9"/>
       <c r="O189" s="9"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="7"/>
@@ -4671,12 +5270,12 @@
       <c r="H190" s="9"/>
       <c r="I190" s="9"/>
       <c r="J190" s="9"/>
-      <c r="L190" s="23"/>
+      <c r="L190" s="16"/>
       <c r="M190" s="9"/>
       <c r="N190" s="9"/>
       <c r="O190" s="9"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="7"/>
@@ -4692,7 +5291,7 @@
       <c r="N191" s="9"/>
       <c r="O191" s="9"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="7"/>
@@ -4703,12 +5302,12 @@
       <c r="H192" s="9"/>
       <c r="I192" s="9"/>
       <c r="J192" s="9"/>
-      <c r="L192" s="23"/>
+      <c r="L192" s="16"/>
       <c r="M192" s="9"/>
       <c r="N192" s="9"/>
       <c r="O192" s="9"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="7"/>
@@ -4724,7 +5323,7 @@
       <c r="N193" s="9"/>
       <c r="O193" s="9"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="7"/>
@@ -4735,12 +5334,12 @@
       <c r="H194" s="9"/>
       <c r="I194" s="9"/>
       <c r="J194" s="9"/>
-      <c r="L194" s="23"/>
+      <c r="L194" s="16"/>
       <c r="M194" s="9"/>
       <c r="N194" s="9"/>
       <c r="O194" s="9"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="7"/>
@@ -4751,12 +5350,12 @@
       <c r="H195" s="9"/>
       <c r="I195" s="9"/>
       <c r="J195" s="9"/>
-      <c r="L195" s="23"/>
+      <c r="L195" s="16"/>
       <c r="M195" s="9"/>
       <c r="N195" s="9"/>
       <c r="O195" s="9"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="7"/>
@@ -4772,7 +5371,7 @@
       <c r="N196" s="9"/>
       <c r="O196" s="9"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="7"/>
@@ -4783,12 +5382,12 @@
       <c r="H197" s="9"/>
       <c r="I197" s="9"/>
       <c r="J197" s="9"/>
-      <c r="L197" s="23"/>
+      <c r="L197" s="16"/>
       <c r="M197" s="9"/>
       <c r="N197" s="9"/>
       <c r="O197" s="9"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="7"/>
@@ -4799,12 +5398,12 @@
       <c r="H198" s="9"/>
       <c r="I198" s="9"/>
       <c r="J198" s="9"/>
-      <c r="L198" s="23"/>
+      <c r="L198" s="16"/>
       <c r="M198" s="9"/>
       <c r="N198" s="9"/>
       <c r="O198" s="9"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="7"/>
@@ -4820,7 +5419,7 @@
       <c r="N199" s="9"/>
       <c r="O199" s="9"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="7"/>
@@ -4831,12 +5430,12 @@
       <c r="H200" s="9"/>
       <c r="I200" s="9"/>
       <c r="J200" s="9"/>
-      <c r="L200" s="23"/>
+      <c r="L200" s="16"/>
       <c r="M200" s="9"/>
       <c r="N200" s="9"/>
       <c r="O200" s="9"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="7"/>
@@ -4852,7 +5451,7 @@
       <c r="N201" s="9"/>
       <c r="O201" s="9"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="7"/>
@@ -4863,12 +5462,12 @@
       <c r="H202" s="9"/>
       <c r="I202" s="9"/>
       <c r="J202" s="9"/>
-      <c r="L202" s="23"/>
+      <c r="L202" s="16"/>
       <c r="M202" s="9"/>
       <c r="N202" s="9"/>
       <c r="O202" s="9"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="7"/>
@@ -4879,12 +5478,12 @@
       <c r="H203" s="9"/>
       <c r="I203" s="9"/>
       <c r="J203" s="9"/>
-      <c r="L203" s="23"/>
+      <c r="L203" s="16"/>
       <c r="M203" s="9"/>
       <c r="N203" s="9"/>
       <c r="O203" s="9"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -4900,7 +5499,7 @@
       <c r="N204" s="9"/>
       <c r="O204" s="9"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -4916,7 +5515,7 @@
       <c r="N205" s="9"/>
       <c r="O205" s="9"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -4932,7 +5531,7 @@
       <c r="N206" s="9"/>
       <c r="O206" s="9"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -4948,7 +5547,7 @@
       <c r="N207" s="9"/>
       <c r="O207" s="9"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -4964,7 +5563,7 @@
       <c r="N208" s="9"/>
       <c r="O208" s="9"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15">
       <c r="A209" s="9"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -4980,7 +5579,7 @@
       <c r="N209" s="9"/>
       <c r="O209" s="9"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15">
       <c r="A210" s="9"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
@@ -4996,7 +5595,7 @@
       <c r="N210" s="9"/>
       <c r="O210" s="9"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -5012,7 +5611,7 @@
       <c r="N211" s="9"/>
       <c r="O211" s="9"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -5028,7 +5627,7 @@
       <c r="N212" s="9"/>
       <c r="O212" s="9"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15">
       <c r="A213" s="9"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
@@ -5044,7 +5643,7 @@
       <c r="N213" s="9"/>
       <c r="O213" s="9"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15">
       <c r="A214" s="9"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
@@ -5060,7 +5659,7 @@
       <c r="N214" s="9"/>
       <c r="O214" s="9"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15">
       <c r="A215" s="9"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -5076,7 +5675,7 @@
       <c r="N215" s="9"/>
       <c r="O215" s="9"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -5092,7 +5691,7 @@
       <c r="N216" s="9"/>
       <c r="O216" s="9"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -5108,7 +5707,7 @@
       <c r="N217" s="9"/>
       <c r="O217" s="9"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15">
       <c r="A218" s="9"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -5124,7 +5723,7 @@
       <c r="N218" s="9"/>
       <c r="O218" s="9"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15">
       <c r="A219" s="9"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -5140,7 +5739,7 @@
       <c r="N219" s="9"/>
       <c r="O219" s="9"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15">
       <c r="A220" s="9"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -5156,7 +5755,7 @@
       <c r="N220" s="9"/>
       <c r="O220" s="9"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15">
       <c r="A221" s="9"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -5172,7 +5771,7 @@
       <c r="N221" s="9"/>
       <c r="O221" s="9"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15">
       <c r="A222" s="9"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -5188,7 +5787,7 @@
       <c r="N222" s="9"/>
       <c r="O222" s="9"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15">
       <c r="A223" s="9"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -5204,7 +5803,7 @@
       <c r="N223" s="9"/>
       <c r="O223" s="9"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15">
       <c r="A224" s="9"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -5220,7 +5819,7 @@
       <c r="N224" s="9"/>
       <c r="O224" s="9"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15">
       <c r="A225" s="9"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -5236,7 +5835,7 @@
       <c r="N225" s="9"/>
       <c r="O225" s="9"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -5252,7 +5851,7 @@
       <c r="N226" s="9"/>
       <c r="O226" s="9"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15">
       <c r="A227" s="9"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -5268,7 +5867,7 @@
       <c r="N227" s="9"/>
       <c r="O227" s="9"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15">
       <c r="A228" s="9"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -5284,7 +5883,7 @@
       <c r="N228" s="9"/>
       <c r="O228" s="9"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15">
       <c r="A229" s="9"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -5300,7 +5899,7 @@
       <c r="N229" s="9"/>
       <c r="O229" s="9"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -5316,7 +5915,7 @@
       <c r="N230" s="9"/>
       <c r="O230" s="9"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -5332,7 +5931,7 @@
       <c r="N231" s="9"/>
       <c r="O231" s="9"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15">
       <c r="A232" s="9"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -5348,7 +5947,7 @@
       <c r="N232" s="9"/>
       <c r="O232" s="9"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15">
       <c r="A233" s="9"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -5364,7 +5963,7 @@
       <c r="N233" s="9"/>
       <c r="O233" s="9"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15">
       <c r="A234" s="9"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -5380,7 +5979,7 @@
       <c r="N234" s="9"/>
       <c r="O234" s="9"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15">
       <c r="A235" s="9"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -5396,7 +5995,7 @@
       <c r="N235" s="9"/>
       <c r="O235" s="9"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -5412,7 +6011,7 @@
       <c r="N236" s="9"/>
       <c r="O236" s="9"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15">
       <c r="A237" s="9"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
@@ -5428,7 +6027,7 @@
       <c r="N237" s="9"/>
       <c r="O237" s="9"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15">
       <c r="A238" s="9"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
@@ -5444,7 +6043,7 @@
       <c r="N238" s="9"/>
       <c r="O238" s="9"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15">
       <c r="A239" s="9"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
@@ -5460,7 +6059,7 @@
       <c r="N239" s="9"/>
       <c r="O239" s="9"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15">
       <c r="A240" s="9"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -5476,7 +6075,7 @@
       <c r="N240" s="9"/>
       <c r="O240" s="9"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -5493,41 +6092,42 @@
       <c r="O241" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
       <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="61.2" x14ac:dyDescent="0.25">
+    <row r="1" ht="40.5" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/doubleLine/双热线.xlsx
+++ b/src/doubleLine/双热线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="22488" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="双热线" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>节假日标志</t>
   </si>
@@ -318,6 +318,33 @@
   </si>
   <si>
     <t>00201002_01</t>
+  </si>
+  <si>
+    <t>00103003</t>
+  </si>
+  <si>
+    <t>00103003_01</t>
+  </si>
+  <si>
+    <t>crtfTyp</t>
+  </si>
+  <si>
+    <t>张凤阳</t>
+  </si>
+  <si>
+    <t>00103004</t>
+  </si>
+  <si>
+    <t>00103004_01</t>
+  </si>
+  <si>
+    <t>00201021</t>
+  </si>
+  <si>
+    <t>00201021_01</t>
+  </si>
+  <si>
+    <t>CUST_TYP</t>
   </si>
   <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
@@ -328,10 +355,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -362,8 +389,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,6 +487,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -385,46 +502,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,67 +526,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,19 +554,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,19 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,37 +602,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,73 +680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +704,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,6 +765,65 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,75 +866,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,137 +884,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1003,6 +1036,12 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1330,22 +1369,24 @@
   <sheetPr/>
   <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="14.775" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.775" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.775" customWidth="1"/>
-    <col min="8" max="8" width="38.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.7777777777778" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="38.4444444444444" customWidth="1"/>
     <col min="9" max="9" width="12.3333333333333" customWidth="1"/>
     <col min="11" max="11" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:15">
+    <row r="1" ht="61.2" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2773,52 +2814,133 @@
       <c r="O34" s="9"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="10"/>
+      <c r="A35" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="20" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
+      <c r="A36" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="20" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
+      <c r="A37" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="6"/>
@@ -3053,7 +3175,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
-      <c r="I52" s="17"/>
+      <c r="I52" s="23"/>
       <c r="J52" s="9"/>
       <c r="L52" s="4"/>
       <c r="M52" s="9"/>
@@ -3069,7 +3191,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="17"/>
+      <c r="I53" s="23"/>
       <c r="J53" s="9"/>
       <c r="L53" s="4"/>
       <c r="M53" s="9"/>
@@ -3085,7 +3207,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
-      <c r="I54" s="17"/>
+      <c r="I54" s="23"/>
       <c r="J54" s="9"/>
       <c r="L54" s="4"/>
       <c r="M54" s="9"/>
@@ -3101,7 +3223,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
-      <c r="I55" s="17"/>
+      <c r="I55" s="23"/>
       <c r="J55" s="9"/>
       <c r="L55" s="4"/>
       <c r="M55" s="9"/>
@@ -3117,7 +3239,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="17"/>
+      <c r="I56" s="23"/>
       <c r="J56" s="9"/>
       <c r="L56" s="4"/>
       <c r="M56" s="9"/>
@@ -3133,7 +3255,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="17"/>
+      <c r="I57" s="23"/>
       <c r="J57" s="9"/>
       <c r="L57" s="4"/>
       <c r="M57" s="9"/>
@@ -3149,7 +3271,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
-      <c r="I58" s="17"/>
+      <c r="I58" s="23"/>
       <c r="J58" s="9"/>
       <c r="L58" s="4"/>
       <c r="M58" s="9"/>
@@ -3165,7 +3287,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
-      <c r="I59" s="17"/>
+      <c r="I59" s="23"/>
       <c r="J59" s="9"/>
       <c r="L59" s="4"/>
       <c r="M59" s="9"/>
@@ -3181,7 +3303,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
-      <c r="I60" s="17"/>
+      <c r="I60" s="23"/>
       <c r="J60" s="9"/>
       <c r="L60" s="4"/>
       <c r="M60" s="9"/>
@@ -3197,7 +3319,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
-      <c r="I61" s="17"/>
+      <c r="I61" s="23"/>
       <c r="J61" s="9"/>
       <c r="L61" s="4"/>
       <c r="M61" s="9"/>
@@ -3213,7 +3335,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
-      <c r="I62" s="17"/>
+      <c r="I62" s="23"/>
       <c r="J62" s="9"/>
       <c r="L62" s="4"/>
       <c r="M62" s="9"/>
@@ -3229,7 +3351,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
-      <c r="I63" s="17"/>
+      <c r="I63" s="23"/>
       <c r="J63" s="9"/>
       <c r="L63" s="4"/>
       <c r="M63" s="9"/>
@@ -3245,7 +3367,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
-      <c r="I64" s="17"/>
+      <c r="I64" s="23"/>
       <c r="J64" s="9"/>
       <c r="L64" s="4"/>
       <c r="M64" s="9"/>
@@ -3261,7 +3383,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="17"/>
+      <c r="I65" s="23"/>
       <c r="J65" s="9"/>
       <c r="L65" s="4"/>
       <c r="M65" s="9"/>
@@ -3277,7 +3399,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="17"/>
+      <c r="I66" s="23"/>
       <c r="J66" s="9"/>
       <c r="L66" s="4"/>
       <c r="M66" s="9"/>
@@ -3293,7 +3415,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="17"/>
+      <c r="I67" s="23"/>
       <c r="J67" s="9"/>
       <c r="L67" s="4"/>
       <c r="M67" s="9"/>
@@ -3301,21 +3423,21 @@
       <c r="O67" s="9"/>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:15">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="21"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="27"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="6"/>
@@ -3326,7 +3448,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
-      <c r="I69" s="17"/>
+      <c r="I69" s="23"/>
       <c r="J69" s="9"/>
       <c r="L69" s="4"/>
       <c r="M69" s="9"/>
@@ -3834,68 +3956,68 @@
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="21"/>
-      <c r="H101" s="21"/>
-      <c r="I101" s="21"/>
-      <c r="J101" s="21"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
       <c r="K101" s="4"/>
-      <c r="L101" s="22"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="21"/>
-      <c r="O101" s="21"/>
+      <c r="L101" s="28"/>
+      <c r="M101" s="27"/>
+      <c r="N101" s="27"/>
+      <c r="O101" s="27"/>
     </row>
     <row r="102" s="2" customFormat="1" spans="1:15">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="21"/>
-      <c r="I102" s="21"/>
-      <c r="J102" s="21"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
       <c r="K102" s="4"/>
-      <c r="L102" s="22"/>
-      <c r="M102" s="21"/>
-      <c r="N102" s="21"/>
-      <c r="O102" s="21"/>
+      <c r="L102" s="28"/>
+      <c r="M102" s="27"/>
+      <c r="N102" s="27"/>
+      <c r="O102" s="27"/>
     </row>
     <row r="103" s="2" customFormat="1" spans="1:15">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
-      <c r="J103" s="21"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="22"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="21"/>
-      <c r="O103" s="21"/>
+      <c r="L103" s="28"/>
+      <c r="M103" s="27"/>
+      <c r="N103" s="27"/>
+      <c r="O103" s="27"/>
     </row>
     <row r="104" s="2" customFormat="1" spans="1:15">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="6"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
-      <c r="I104" s="21"/>
-      <c r="J104" s="21"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="20"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="21"/>
-      <c r="O104" s="21"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="27"/>
+      <c r="N104" s="27"/>
+      <c r="O104" s="27"/>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="6"/>
@@ -4478,34 +4600,34 @@
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="21"/>
-      <c r="H141" s="21"/>
-      <c r="I141" s="21"/>
-      <c r="J141" s="21"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="27"/>
       <c r="K141" s="4"/>
-      <c r="L141" s="20"/>
-      <c r="M141" s="21"/>
-      <c r="N141" s="21"/>
-      <c r="O141" s="21"/>
+      <c r="L141" s="26"/>
+      <c r="M141" s="27"/>
+      <c r="N141" s="27"/>
+      <c r="O141" s="27"/>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:15">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="21"/>
-      <c r="H142" s="21"/>
-      <c r="I142" s="21"/>
-      <c r="J142" s="21"/>
+      <c r="E142" s="26"/>
+      <c r="F142" s="26"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="27"/>
       <c r="K142" s="4"/>
-      <c r="L142" s="20"/>
-      <c r="M142" s="21"/>
-      <c r="N142" s="21"/>
-      <c r="O142" s="21"/>
+      <c r="L142" s="26"/>
+      <c r="M142" s="27"/>
+      <c r="N142" s="27"/>
+      <c r="O142" s="27"/>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="6"/>
@@ -6114,16 +6236,16 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:1">
+    <row r="1" ht="61.2" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/src/doubleLine/双热线.xlsx
+++ b/src/doubleLine/双热线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9420"/>
+    <workbookView windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="双热线" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="115">
   <si>
     <t>节假日标志</t>
   </si>
@@ -345,6 +345,18 @@
   </si>
   <si>
     <t>CUST_TYP</t>
+  </si>
+  <si>
+    <t>00302019</t>
+  </si>
+  <si>
+    <t>00302019_01</t>
+  </si>
+  <si>
+    <t>李行</t>
+  </si>
+  <si>
+    <t>部支金额</t>
   </si>
   <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
@@ -355,10 +367,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -389,6 +401,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -398,7 +432,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,7 +463,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,53 +501,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,53 +538,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,7 +572,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,31 +656,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,31 +686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,7 +704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,49 +728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,13 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,6 +759,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +797,57 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,37 +867,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,40 +890,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,137 +908,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1040,8 +1064,14 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1369,24 +1399,24 @@
   <sheetPr/>
   <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.7777777777778" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="38.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="14.775" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.775" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.775" customWidth="1"/>
+    <col min="8" max="8" width="38.4416666666667" customWidth="1"/>
     <col min="9" max="9" width="12.3333333333333" customWidth="1"/>
     <col min="11" max="11" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="61.2" spans="1:15">
+    <row r="1" ht="60.75" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2844,14 +2874,14 @@
       <c r="J35" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="21" t="s">
+      <c r="K35" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="L35" s="21" t="s">
+      <c r="L35" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
       <c r="O35" s="20" t="s">
         <v>104</v>
       </c>
@@ -2887,14 +2917,14 @@
       <c r="J36" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K36" s="21" t="s">
+      <c r="K36" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="L36" s="21" t="s">
+      <c r="L36" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
       <c r="O36" s="20" t="s">
         <v>104</v>
       </c>
@@ -2930,49 +2960,103 @@
       <c r="J37" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K37" s="21" t="s">
+      <c r="K37" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="21" t="s">
+      <c r="L37" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
       <c r="O37" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
+      <c r="A38" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
+      <c r="A39" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J39" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="K39" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="6"/>
@@ -3175,7 +3259,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
-      <c r="I52" s="23"/>
+      <c r="I52" s="29"/>
       <c r="J52" s="9"/>
       <c r="L52" s="4"/>
       <c r="M52" s="9"/>
@@ -3191,7 +3275,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="23"/>
+      <c r="I53" s="29"/>
       <c r="J53" s="9"/>
       <c r="L53" s="4"/>
       <c r="M53" s="9"/>
@@ -3207,7 +3291,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
-      <c r="I54" s="23"/>
+      <c r="I54" s="29"/>
       <c r="J54" s="9"/>
       <c r="L54" s="4"/>
       <c r="M54" s="9"/>
@@ -3223,7 +3307,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
-      <c r="I55" s="23"/>
+      <c r="I55" s="29"/>
       <c r="J55" s="9"/>
       <c r="L55" s="4"/>
       <c r="M55" s="9"/>
@@ -3239,7 +3323,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="23"/>
+      <c r="I56" s="29"/>
       <c r="J56" s="9"/>
       <c r="L56" s="4"/>
       <c r="M56" s="9"/>
@@ -3255,7 +3339,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="23"/>
+      <c r="I57" s="29"/>
       <c r="J57" s="9"/>
       <c r="L57" s="4"/>
       <c r="M57" s="9"/>
@@ -3271,7 +3355,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
-      <c r="I58" s="23"/>
+      <c r="I58" s="29"/>
       <c r="J58" s="9"/>
       <c r="L58" s="4"/>
       <c r="M58" s="9"/>
@@ -3287,7 +3371,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
-      <c r="I59" s="23"/>
+      <c r="I59" s="29"/>
       <c r="J59" s="9"/>
       <c r="L59" s="4"/>
       <c r="M59" s="9"/>
@@ -3303,7 +3387,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
-      <c r="I60" s="23"/>
+      <c r="I60" s="29"/>
       <c r="J60" s="9"/>
       <c r="L60" s="4"/>
       <c r="M60" s="9"/>
@@ -3319,7 +3403,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
-      <c r="I61" s="23"/>
+      <c r="I61" s="29"/>
       <c r="J61" s="9"/>
       <c r="L61" s="4"/>
       <c r="M61" s="9"/>
@@ -3335,7 +3419,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
-      <c r="I62" s="23"/>
+      <c r="I62" s="29"/>
       <c r="J62" s="9"/>
       <c r="L62" s="4"/>
       <c r="M62" s="9"/>
@@ -3351,7 +3435,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
-      <c r="I63" s="23"/>
+      <c r="I63" s="29"/>
       <c r="J63" s="9"/>
       <c r="L63" s="4"/>
       <c r="M63" s="9"/>
@@ -3367,7 +3451,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
-      <c r="I64" s="23"/>
+      <c r="I64" s="29"/>
       <c r="J64" s="9"/>
       <c r="L64" s="4"/>
       <c r="M64" s="9"/>
@@ -3383,7 +3467,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="23"/>
+      <c r="I65" s="29"/>
       <c r="J65" s="9"/>
       <c r="L65" s="4"/>
       <c r="M65" s="9"/>
@@ -3399,7 +3483,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="23"/>
+      <c r="I66" s="29"/>
       <c r="J66" s="9"/>
       <c r="L66" s="4"/>
       <c r="M66" s="9"/>
@@ -3415,7 +3499,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="23"/>
+      <c r="I67" s="29"/>
       <c r="J67" s="9"/>
       <c r="L67" s="4"/>
       <c r="M67" s="9"/>
@@ -3423,21 +3507,21 @@
       <c r="O67" s="9"/>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:15">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="27"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="33"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="33"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="6"/>
@@ -3448,7 +3532,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
-      <c r="I69" s="23"/>
+      <c r="I69" s="29"/>
       <c r="J69" s="9"/>
       <c r="L69" s="4"/>
       <c r="M69" s="9"/>
@@ -3956,68 +4040,68 @@
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="33"/>
+      <c r="J101" s="33"/>
       <c r="K101" s="4"/>
-      <c r="L101" s="28"/>
-      <c r="M101" s="27"/>
-      <c r="N101" s="27"/>
-      <c r="O101" s="27"/>
+      <c r="L101" s="34"/>
+      <c r="M101" s="33"/>
+      <c r="N101" s="33"/>
+      <c r="O101" s="33"/>
     </row>
     <row r="102" s="2" customFormat="1" spans="1:15">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
       <c r="K102" s="4"/>
-      <c r="L102" s="28"/>
-      <c r="M102" s="27"/>
-      <c r="N102" s="27"/>
-      <c r="O102" s="27"/>
+      <c r="L102" s="34"/>
+      <c r="M102" s="33"/>
+      <c r="N102" s="33"/>
+      <c r="O102" s="33"/>
     </row>
     <row r="103" s="2" customFormat="1" spans="1:15">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="33"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="28"/>
-      <c r="M103" s="27"/>
-      <c r="N103" s="27"/>
-      <c r="O103" s="27"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="33"/>
+      <c r="O103" s="33"/>
     </row>
     <row r="104" s="2" customFormat="1" spans="1:15">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="6"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="26"/>
-      <c r="M104" s="27"/>
-      <c r="N104" s="27"/>
-      <c r="O104" s="27"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="33"/>
+      <c r="N104" s="33"/>
+      <c r="O104" s="33"/>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="6"/>
@@ -4600,34 +4684,34 @@
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="27"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="33"/>
+      <c r="I141" s="33"/>
+      <c r="J141" s="33"/>
       <c r="K141" s="4"/>
-      <c r="L141" s="26"/>
-      <c r="M141" s="27"/>
-      <c r="N141" s="27"/>
-      <c r="O141" s="27"/>
+      <c r="L141" s="32"/>
+      <c r="M141" s="33"/>
+      <c r="N141" s="33"/>
+      <c r="O141" s="33"/>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:15">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="26"/>
-      <c r="F142" s="26"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="27"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="33"/>
+      <c r="H142" s="33"/>
+      <c r="I142" s="33"/>
+      <c r="J142" s="33"/>
       <c r="K142" s="4"/>
-      <c r="L142" s="26"/>
-      <c r="M142" s="27"/>
-      <c r="N142" s="27"/>
-      <c r="O142" s="27"/>
+      <c r="L142" s="32"/>
+      <c r="M142" s="33"/>
+      <c r="N142" s="33"/>
+      <c r="O142" s="33"/>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="6"/>
@@ -6236,16 +6320,16 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" ht="61.2" spans="1:1">
+    <row r="1" ht="60.75" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/src/doubleLine/双热线.xlsx
+++ b/src/doubleLine/双热线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="双热线" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="117">
   <si>
     <t>节假日标志</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>CUST_TYP</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
   <si>
     <t>00302019</t>
@@ -367,10 +373,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -402,21 +408,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -425,9 +424,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,8 +437,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -454,21 +468,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -477,16 +476,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,9 +493,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,16 +514,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,21 +537,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,19 +584,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,13 +644,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,19 +662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,31 +680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +704,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,73 +758,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,61 +793,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,6 +825,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -876,16 +843,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -896,10 +896,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,137 +908,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1067,11 +1067,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1400,12 +1399,12 @@
   <dimension ref="A1:O241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="14.775" style="3" customWidth="1"/>
@@ -1416,7 +1415,7 @@
     <col min="11" max="11" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" spans="1:15">
+    <row r="1" ht="40.5" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2961,10 +2960,10 @@
         <v>30</v>
       </c>
       <c r="K37" s="26" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="L37" s="26" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
@@ -2986,10 +2985,10 @@
         <v>18</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>27</v>
@@ -3003,7 +3002,7 @@
       <c r="J38" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K38" s="28" t="s">
+      <c r="K38" s="24" t="s">
         <v>43</v>
       </c>
       <c r="L38" s="24" t="s">
@@ -3012,7 +3011,7 @@
       <c r="M38" s="25"/>
       <c r="N38" s="25"/>
       <c r="O38" s="25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3029,10 +3028,10 @@
         <v>18</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>27</v>
@@ -3044,18 +3043,18 @@
         <v>34</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="K39" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="K39" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L39" s="28" t="s">
+      <c r="L39" s="24" t="s">
         <v>37</v>
       </c>
       <c r="M39" s="25"/>
       <c r="N39" s="25"/>
       <c r="O39" s="25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3259,7 +3258,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
-      <c r="I52" s="29"/>
+      <c r="I52" s="28"/>
       <c r="J52" s="9"/>
       <c r="L52" s="4"/>
       <c r="M52" s="9"/>
@@ -3275,7 +3274,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="29"/>
+      <c r="I53" s="28"/>
       <c r="J53" s="9"/>
       <c r="L53" s="4"/>
       <c r="M53" s="9"/>
@@ -3291,7 +3290,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
-      <c r="I54" s="29"/>
+      <c r="I54" s="28"/>
       <c r="J54" s="9"/>
       <c r="L54" s="4"/>
       <c r="M54" s="9"/>
@@ -3307,7 +3306,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
-      <c r="I55" s="29"/>
+      <c r="I55" s="28"/>
       <c r="J55" s="9"/>
       <c r="L55" s="4"/>
       <c r="M55" s="9"/>
@@ -3323,7 +3322,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="29"/>
+      <c r="I56" s="28"/>
       <c r="J56" s="9"/>
       <c r="L56" s="4"/>
       <c r="M56" s="9"/>
@@ -3339,7 +3338,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="29"/>
+      <c r="I57" s="28"/>
       <c r="J57" s="9"/>
       <c r="L57" s="4"/>
       <c r="M57" s="9"/>
@@ -3355,7 +3354,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
-      <c r="I58" s="29"/>
+      <c r="I58" s="28"/>
       <c r="J58" s="9"/>
       <c r="L58" s="4"/>
       <c r="M58" s="9"/>
@@ -3371,7 +3370,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
-      <c r="I59" s="29"/>
+      <c r="I59" s="28"/>
       <c r="J59" s="9"/>
       <c r="L59" s="4"/>
       <c r="M59" s="9"/>
@@ -3387,7 +3386,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
-      <c r="I60" s="29"/>
+      <c r="I60" s="28"/>
       <c r="J60" s="9"/>
       <c r="L60" s="4"/>
       <c r="M60" s="9"/>
@@ -3403,7 +3402,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
-      <c r="I61" s="29"/>
+      <c r="I61" s="28"/>
       <c r="J61" s="9"/>
       <c r="L61" s="4"/>
       <c r="M61" s="9"/>
@@ -3419,7 +3418,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
-      <c r="I62" s="29"/>
+      <c r="I62" s="28"/>
       <c r="J62" s="9"/>
       <c r="L62" s="4"/>
       <c r="M62" s="9"/>
@@ -3435,7 +3434,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
-      <c r="I63" s="29"/>
+      <c r="I63" s="28"/>
       <c r="J63" s="9"/>
       <c r="L63" s="4"/>
       <c r="M63" s="9"/>
@@ -3451,7 +3450,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
-      <c r="I64" s="29"/>
+      <c r="I64" s="28"/>
       <c r="J64" s="9"/>
       <c r="L64" s="4"/>
       <c r="M64" s="9"/>
@@ -3467,7 +3466,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="29"/>
+      <c r="I65" s="28"/>
       <c r="J65" s="9"/>
       <c r="L65" s="4"/>
       <c r="M65" s="9"/>
@@ -3483,7 +3482,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="29"/>
+      <c r="I66" s="28"/>
       <c r="J66" s="9"/>
       <c r="L66" s="4"/>
       <c r="M66" s="9"/>
@@ -3499,7 +3498,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="29"/>
+      <c r="I67" s="28"/>
       <c r="J67" s="9"/>
       <c r="L67" s="4"/>
       <c r="M67" s="9"/>
@@ -3507,21 +3506,21 @@
       <c r="O67" s="9"/>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:15">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="33"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="32"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="33"/>
-      <c r="N68" s="33"/>
-      <c r="O68" s="33"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="32"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="6"/>
@@ -3532,7 +3531,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
-      <c r="I69" s="29"/>
+      <c r="I69" s="28"/>
       <c r="J69" s="9"/>
       <c r="L69" s="4"/>
       <c r="M69" s="9"/>
@@ -4040,68 +4039,68 @@
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
-      <c r="I101" s="33"/>
-      <c r="J101" s="33"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
       <c r="K101" s="4"/>
-      <c r="L101" s="34"/>
-      <c r="M101" s="33"/>
-      <c r="N101" s="33"/>
-      <c r="O101" s="33"/>
+      <c r="L101" s="33"/>
+      <c r="M101" s="32"/>
+      <c r="N101" s="32"/>
+      <c r="O101" s="32"/>
     </row>
     <row r="102" s="2" customFormat="1" spans="1:15">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
-      <c r="I102" s="33"/>
-      <c r="J102" s="33"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
       <c r="K102" s="4"/>
-      <c r="L102" s="34"/>
-      <c r="M102" s="33"/>
-      <c r="N102" s="33"/>
-      <c r="O102" s="33"/>
+      <c r="L102" s="33"/>
+      <c r="M102" s="32"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="32"/>
     </row>
     <row r="103" s="2" customFormat="1" spans="1:15">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
-      <c r="I103" s="33"/>
-      <c r="J103" s="33"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="34"/>
-      <c r="M103" s="33"/>
-      <c r="N103" s="33"/>
-      <c r="O103" s="33"/>
+      <c r="L103" s="33"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="32"/>
     </row>
     <row r="104" s="2" customFormat="1" spans="1:15">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="6"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="33"/>
-      <c r="I104" s="33"/>
-      <c r="J104" s="33"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="32"/>
-      <c r="M104" s="33"/>
-      <c r="N104" s="33"/>
-      <c r="O104" s="33"/>
+      <c r="L104" s="31"/>
+      <c r="M104" s="32"/>
+      <c r="N104" s="32"/>
+      <c r="O104" s="32"/>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="6"/>
@@ -4684,34 +4683,34 @@
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="32"/>
-      <c r="F141" s="32"/>
-      <c r="G141" s="33"/>
-      <c r="H141" s="33"/>
-      <c r="I141" s="33"/>
-      <c r="J141" s="33"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="32"/>
+      <c r="I141" s="32"/>
+      <c r="J141" s="32"/>
       <c r="K141" s="4"/>
-      <c r="L141" s="32"/>
-      <c r="M141" s="33"/>
-      <c r="N141" s="33"/>
-      <c r="O141" s="33"/>
+      <c r="L141" s="31"/>
+      <c r="M141" s="32"/>
+      <c r="N141" s="32"/>
+      <c r="O141" s="32"/>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:15">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="32"/>
-      <c r="G142" s="33"/>
-      <c r="H142" s="33"/>
-      <c r="I142" s="33"/>
-      <c r="J142" s="33"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="32"/>
+      <c r="I142" s="32"/>
+      <c r="J142" s="32"/>
       <c r="K142" s="4"/>
-      <c r="L142" s="32"/>
-      <c r="M142" s="33"/>
-      <c r="N142" s="33"/>
-      <c r="O142" s="33"/>
+      <c r="L142" s="31"/>
+      <c r="M142" s="32"/>
+      <c r="N142" s="32"/>
+      <c r="O142" s="32"/>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="6"/>
@@ -6299,11 +6298,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
+      <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
       <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
-      <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6320,16 +6319,16 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" ht="60.75" spans="1:1">
+    <row r="1" ht="40.5" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/src/doubleLine/双热线.xlsx
+++ b/src/doubleLine/双热线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="双热线" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="118">
   <si>
     <t>节假日标志</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>00301007_01</t>
+  </si>
+  <si>
+    <t>账号客户类型为对公且交易金额大于等于20万</t>
   </si>
   <si>
     <t>00201002</t>
@@ -373,10 +376,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -408,36 +411,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -446,54 +419,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,6 +441,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -522,7 +470,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,6 +485,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -544,10 +539,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -584,7 +587,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,13 +725,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,13 +743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,55 +755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,79 +767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,56 +796,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -867,11 +820,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,16 +867,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,133 +911,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1398,10 +1401,10 @@
   <sheetPr/>
   <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
+      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2792,7 +2795,7 @@
         <v>27</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>34</v>
@@ -2804,7 +2807,7 @@
         <v>36</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -2826,10 +2829,10 @@
         <v>18</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>21</v>
@@ -2856,10 +2859,10 @@
         <v>18</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>27</v>
@@ -2868,7 +2871,7 @@
         <v>58</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J35" s="20" t="s">
         <v>30</v>
@@ -2882,7 +2885,7 @@
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
       <c r="O35" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2899,10 +2902,10 @@
         <v>18</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>27</v>
@@ -2911,7 +2914,7 @@
         <v>58</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J36" s="20" t="s">
         <v>30</v>
@@ -2925,7 +2928,7 @@
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
       <c r="O36" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2942,10 +2945,10 @@
         <v>18</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>27</v>
@@ -2954,16 +2957,16 @@
         <v>58</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J37" s="20" t="s">
         <v>30</v>
       </c>
       <c r="K37" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L37" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
@@ -2985,10 +2988,10 @@
         <v>18</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>27</v>
@@ -3011,7 +3014,7 @@
       <c r="M38" s="25"/>
       <c r="N38" s="25"/>
       <c r="O38" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3028,10 +3031,10 @@
         <v>18</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>27</v>
@@ -3043,7 +3046,7 @@
         <v>34</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K39" s="24" t="s">
         <v>36</v>
@@ -3054,7 +3057,7 @@
       <c r="M39" s="25"/>
       <c r="N39" s="25"/>
       <c r="O39" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -6298,11 +6301,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+      <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
-      <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6328,7 +6331,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/src/doubleLine/双热线.xlsx
+++ b/src/doubleLine/双热线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="双热线" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="120">
   <si>
     <t>节假日标志</t>
   </si>
@@ -293,6 +293,12 @@
     <t>custTypCd</t>
   </si>
   <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
     <t>tran_amt</t>
   </si>
   <si>
@@ -350,12 +356,6 @@
     <t>CUST_TYP</t>
   </si>
   <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
     <t>00302019</t>
   </si>
   <si>
@@ -366,6 +366,31 @@
   </si>
   <si>
     <t>部支金额</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0030200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>00302004_01</t>
   </si>
   <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
@@ -376,10 +401,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -411,7 +436,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,16 +464,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,37 +479,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,32 +511,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,9 +520,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,8 +550,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,7 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799798577837458"/>
+        <fgColor theme="3" tint="0.799768059327982"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,7 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,13 +624,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,19 +672,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,43 +714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,19 +732,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,49 +768,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,26 +836,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,22 +884,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,13 +904,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,10 +924,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -911,137 +936,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1072,7 +1097,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1399,12 +1423,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O241"/>
+  <dimension ref="A1:O240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="$A42:$XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2674,11 +2698,11 @@
       <c r="J30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>43</v>
+      <c r="K30" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -2712,7 +2736,7 @@
         <v>86</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>35</v>
@@ -2743,10 +2767,10 @@
         <v>18</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>27</v>
@@ -2755,7 +2779,7 @@
         <v>86</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>35</v>
@@ -2769,7 +2793,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2786,16 +2810,16 @@
         <v>18</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>34</v>
@@ -2812,7 +2836,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2829,10 +2853,10 @@
         <v>18</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>21</v>
@@ -2859,10 +2883,10 @@
         <v>18</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>27</v>
@@ -2871,21 +2895,21 @@
         <v>58</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J35" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="L35" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
+      <c r="K35" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
       <c r="O35" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2902,10 +2926,10 @@
         <v>18</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>27</v>
@@ -2914,21 +2938,21 @@
         <v>58</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J36" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K36" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="L36" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
+      <c r="K36" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
       <c r="O36" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2945,10 +2969,10 @@
         <v>18</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>27</v>
@@ -2957,19 +2981,19 @@
         <v>58</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J37" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K37" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="L37" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
+      <c r="K37" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
       <c r="O37" s="20" t="s">
         <v>55</v>
       </c>
@@ -3005,11 +3029,11 @@
       <c r="J38" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K38" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="L38" s="24" t="s">
-        <v>44</v>
+      <c r="K38" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="M38" s="25"/>
       <c r="N38" s="25"/>
@@ -3061,36 +3085,90 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="L40" s="4"/>
+      <c r="A40" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
+      <c r="O40" s="10" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="L41" s="4"/>
+      <c r="A41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
+      <c r="O41" s="10" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="6"/>
@@ -3245,7 +3323,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="I51" s="27"/>
       <c r="J51" s="9"/>
       <c r="L51" s="4"/>
       <c r="M51" s="9"/>
@@ -3261,7 +3339,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
-      <c r="I52" s="28"/>
+      <c r="I52" s="27"/>
       <c r="J52" s="9"/>
       <c r="L52" s="4"/>
       <c r="M52" s="9"/>
@@ -3277,7 +3355,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="28"/>
+      <c r="I53" s="27"/>
       <c r="J53" s="9"/>
       <c r="L53" s="4"/>
       <c r="M53" s="9"/>
@@ -3293,7 +3371,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
-      <c r="I54" s="28"/>
+      <c r="I54" s="27"/>
       <c r="J54" s="9"/>
       <c r="L54" s="4"/>
       <c r="M54" s="9"/>
@@ -3309,7 +3387,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
-      <c r="I55" s="28"/>
+      <c r="I55" s="27"/>
       <c r="J55" s="9"/>
       <c r="L55" s="4"/>
       <c r="M55" s="9"/>
@@ -3325,7 +3403,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="28"/>
+      <c r="I56" s="27"/>
       <c r="J56" s="9"/>
       <c r="L56" s="4"/>
       <c r="M56" s="9"/>
@@ -3341,7 +3419,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="28"/>
+      <c r="I57" s="27"/>
       <c r="J57" s="9"/>
       <c r="L57" s="4"/>
       <c r="M57" s="9"/>
@@ -3357,7 +3435,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
-      <c r="I58" s="28"/>
+      <c r="I58" s="27"/>
       <c r="J58" s="9"/>
       <c r="L58" s="4"/>
       <c r="M58" s="9"/>
@@ -3373,7 +3451,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
-      <c r="I59" s="28"/>
+      <c r="I59" s="27"/>
       <c r="J59" s="9"/>
       <c r="L59" s="4"/>
       <c r="M59" s="9"/>
@@ -3389,7 +3467,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
-      <c r="I60" s="28"/>
+      <c r="I60" s="27"/>
       <c r="J60" s="9"/>
       <c r="L60" s="4"/>
       <c r="M60" s="9"/>
@@ -3405,7 +3483,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
-      <c r="I61" s="28"/>
+      <c r="I61" s="27"/>
       <c r="J61" s="9"/>
       <c r="L61" s="4"/>
       <c r="M61" s="9"/>
@@ -3421,7 +3499,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
-      <c r="I62" s="28"/>
+      <c r="I62" s="27"/>
       <c r="J62" s="9"/>
       <c r="L62" s="4"/>
       <c r="M62" s="9"/>
@@ -3437,7 +3515,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
-      <c r="I63" s="28"/>
+      <c r="I63" s="27"/>
       <c r="J63" s="9"/>
       <c r="L63" s="4"/>
       <c r="M63" s="9"/>
@@ -3453,7 +3531,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
-      <c r="I64" s="28"/>
+      <c r="I64" s="27"/>
       <c r="J64" s="9"/>
       <c r="L64" s="4"/>
       <c r="M64" s="9"/>
@@ -3469,7 +3547,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="28"/>
+      <c r="I65" s="27"/>
       <c r="J65" s="9"/>
       <c r="L65" s="4"/>
       <c r="M65" s="9"/>
@@ -3485,45 +3563,45 @@
       <c r="F66" s="4"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="28"/>
+      <c r="I66" s="27"/>
       <c r="J66" s="9"/>
       <c r="L66" s="4"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
     </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="9"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-    </row>
-    <row r="68" s="2" customFormat="1" spans="1:15">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="32"/>
-      <c r="O68" s="32"/>
+    <row r="67" s="2" customFormat="1" spans="1:15">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="9"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="6"/>
@@ -3534,7 +3612,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
-      <c r="I69" s="28"/>
+      <c r="I69" s="10"/>
       <c r="J69" s="9"/>
       <c r="L69" s="4"/>
       <c r="M69" s="9"/>
@@ -3552,7 +3630,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="10"/>
       <c r="J70" s="9"/>
-      <c r="L70" s="4"/>
+      <c r="L70" s="16"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
@@ -3568,7 +3646,7 @@
       <c r="H71" s="9"/>
       <c r="I71" s="10"/>
       <c r="J71" s="9"/>
-      <c r="L71" s="16"/>
+      <c r="L71" s="4"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
@@ -3583,8 +3661,8 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="10"/>
-      <c r="J72" s="9"/>
-      <c r="L72" s="4"/>
+      <c r="J72" s="10"/>
+      <c r="L72" s="16"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
@@ -3599,8 +3677,8 @@
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="L73" s="16"/>
+      <c r="J73" s="9"/>
+      <c r="L73" s="4"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
@@ -3632,7 +3710,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="10"/>
       <c r="J75" s="9"/>
-      <c r="L75" s="4"/>
+      <c r="L75" s="16"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
@@ -3648,7 +3726,7 @@
       <c r="H76" s="9"/>
       <c r="I76" s="10"/>
       <c r="J76" s="9"/>
-      <c r="L76" s="16"/>
+      <c r="L76" s="4"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
@@ -3664,7 +3742,7 @@
       <c r="H77" s="9"/>
       <c r="I77" s="10"/>
       <c r="J77" s="9"/>
-      <c r="L77" s="4"/>
+      <c r="L77" s="16"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
@@ -3680,7 +3758,7 @@
       <c r="H78" s="9"/>
       <c r="I78" s="10"/>
       <c r="J78" s="9"/>
-      <c r="L78" s="16"/>
+      <c r="L78" s="4"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
@@ -3696,7 +3774,7 @@
       <c r="H79" s="9"/>
       <c r="I79" s="10"/>
       <c r="J79" s="9"/>
-      <c r="L79" s="4"/>
+      <c r="L79" s="16"/>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
@@ -3728,7 +3806,7 @@
       <c r="H81" s="9"/>
       <c r="I81" s="10"/>
       <c r="J81" s="9"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="4"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
@@ -3744,7 +3822,7 @@
       <c r="H82" s="9"/>
       <c r="I82" s="10"/>
       <c r="J82" s="9"/>
-      <c r="L82" s="4"/>
+      <c r="L82" s="16"/>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
@@ -3776,7 +3854,7 @@
       <c r="H84" s="9"/>
       <c r="I84" s="10"/>
       <c r="J84" s="9"/>
-      <c r="L84" s="16"/>
+      <c r="L84" s="4"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
       <c r="O84" s="9"/>
@@ -3792,7 +3870,7 @@
       <c r="H85" s="9"/>
       <c r="I85" s="10"/>
       <c r="J85" s="9"/>
-      <c r="L85" s="4"/>
+      <c r="L85" s="16"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
       <c r="O85" s="9"/>
@@ -3840,7 +3918,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="10"/>
       <c r="J88" s="9"/>
-      <c r="L88" s="16"/>
+      <c r="L88" s="4"/>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
@@ -3856,7 +3934,7 @@
       <c r="H89" s="9"/>
       <c r="I89" s="10"/>
       <c r="J89" s="9"/>
-      <c r="L89" s="4"/>
+      <c r="L89" s="16"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
@@ -3872,7 +3950,7 @@
       <c r="H90" s="9"/>
       <c r="I90" s="10"/>
       <c r="J90" s="9"/>
-      <c r="L90" s="16"/>
+      <c r="L90" s="4"/>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
@@ -3888,7 +3966,7 @@
       <c r="H91" s="9"/>
       <c r="I91" s="10"/>
       <c r="J91" s="9"/>
-      <c r="L91" s="4"/>
+      <c r="L91" s="16"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
@@ -3936,7 +4014,7 @@
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
       <c r="J94" s="9"/>
-      <c r="L94" s="16"/>
+      <c r="L94" s="4"/>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
@@ -3952,7 +4030,7 @@
       <c r="H95" s="9"/>
       <c r="I95" s="10"/>
       <c r="J95" s="9"/>
-      <c r="L95" s="4"/>
+      <c r="L95" s="16"/>
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
@@ -3966,9 +4044,9 @@
       <c r="F96" s="4"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
-      <c r="I96" s="10"/>
+      <c r="I96" s="9"/>
       <c r="J96" s="9"/>
-      <c r="L96" s="16"/>
+      <c r="L96" s="4"/>
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
@@ -3982,9 +4060,9 @@
       <c r="F97" s="4"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
+      <c r="I97" s="10"/>
       <c r="J97" s="9"/>
-      <c r="L97" s="4"/>
+      <c r="L97" s="16"/>
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
       <c r="O97" s="9"/>
@@ -3998,9 +4076,9 @@
       <c r="F98" s="4"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
-      <c r="I98" s="10"/>
+      <c r="I98" s="9"/>
       <c r="J98" s="9"/>
-      <c r="L98" s="16"/>
+      <c r="L98" s="4"/>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
@@ -4016,94 +4094,94 @@
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
-      <c r="L99" s="4"/>
+      <c r="L99" s="16"/>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
       <c r="O99" s="9"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" s="2" customFormat="1" spans="1:15">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="9"/>
-      <c r="O100" s="9"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="31"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="32"/>
+      <c r="M100" s="31"/>
+      <c r="N100" s="31"/>
+      <c r="O100" s="31"/>
     </row>
     <row r="101" s="2" customFormat="1" spans="1:15">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32"/>
-      <c r="J101" s="32"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="31"/>
       <c r="K101" s="4"/>
-      <c r="L101" s="33"/>
-      <c r="M101" s="32"/>
-      <c r="N101" s="32"/>
-      <c r="O101" s="32"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="31"/>
+      <c r="N101" s="31"/>
+      <c r="O101" s="31"/>
     </row>
     <row r="102" s="2" customFormat="1" spans="1:15">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="32"/>
-      <c r="J102" s="32"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="31"/>
+      <c r="I102" s="31"/>
+      <c r="J102" s="31"/>
       <c r="K102" s="4"/>
-      <c r="L102" s="33"/>
-      <c r="M102" s="32"/>
-      <c r="N102" s="32"/>
-      <c r="O102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="31"/>
+      <c r="N102" s="31"/>
+      <c r="O102" s="31"/>
     </row>
     <row r="103" s="2" customFormat="1" spans="1:15">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="32"/>
-      <c r="J103" s="32"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="31"/>
+      <c r="J103" s="31"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="33"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="32"/>
-      <c r="O103" s="32"/>
-    </row>
-    <row r="104" s="2" customFormat="1" spans="1:15">
+      <c r="L103" s="30"/>
+      <c r="M103" s="31"/>
+      <c r="N103" s="31"/>
+      <c r="O103" s="31"/>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="6"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="31"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="32"/>
-      <c r="O104" s="32"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="6"/>
@@ -4194,9 +4272,9 @@
       <c r="F110" s="4"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
+      <c r="I110" s="10"/>
       <c r="J110" s="9"/>
-      <c r="L110" s="16"/>
+      <c r="L110" s="4"/>
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
       <c r="O110" s="9"/>
@@ -4210,9 +4288,9 @@
       <c r="F111" s="4"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
-      <c r="I111" s="10"/>
+      <c r="I111" s="9"/>
       <c r="J111" s="9"/>
-      <c r="L111" s="4"/>
+      <c r="L111" s="16"/>
       <c r="M111" s="9"/>
       <c r="N111" s="9"/>
       <c r="O111" s="9"/>
@@ -4244,7 +4322,7 @@
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
-      <c r="L113" s="16"/>
+      <c r="L113" s="4"/>
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
       <c r="O113" s="9"/>
@@ -4260,7 +4338,7 @@
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
-      <c r="L114" s="4"/>
+      <c r="L114" s="16"/>
       <c r="M114" s="9"/>
       <c r="N114" s="9"/>
       <c r="O114" s="9"/>
@@ -4274,7 +4352,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
+      <c r="I115" s="10"/>
       <c r="J115" s="9"/>
       <c r="L115" s="16"/>
       <c r="M115" s="9"/>
@@ -4308,7 +4386,7 @@
       <c r="H117" s="9"/>
       <c r="I117" s="10"/>
       <c r="J117" s="9"/>
-      <c r="L117" s="16"/>
+      <c r="L117" s="4"/>
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
       <c r="O117" s="9"/>
@@ -4324,7 +4402,7 @@
       <c r="H118" s="9"/>
       <c r="I118" s="10"/>
       <c r="J118" s="9"/>
-      <c r="L118" s="4"/>
+      <c r="L118" s="16"/>
       <c r="M118" s="9"/>
       <c r="N118" s="9"/>
       <c r="O118" s="9"/>
@@ -4340,7 +4418,7 @@
       <c r="H119" s="9"/>
       <c r="I119" s="10"/>
       <c r="J119" s="9"/>
-      <c r="L119" s="16"/>
+      <c r="L119" s="4"/>
       <c r="M119" s="9"/>
       <c r="N119" s="9"/>
       <c r="O119" s="9"/>
@@ -4356,7 +4434,7 @@
       <c r="H120" s="9"/>
       <c r="I120" s="10"/>
       <c r="J120" s="9"/>
-      <c r="L120" s="4"/>
+      <c r="L120" s="16"/>
       <c r="M120" s="9"/>
       <c r="N120" s="9"/>
       <c r="O120" s="9"/>
@@ -4404,7 +4482,7 @@
       <c r="H123" s="9"/>
       <c r="I123" s="10"/>
       <c r="J123" s="9"/>
-      <c r="L123" s="16"/>
+      <c r="L123" s="4"/>
       <c r="M123" s="9"/>
       <c r="N123" s="9"/>
       <c r="O123" s="9"/>
@@ -4420,7 +4498,7 @@
       <c r="H124" s="9"/>
       <c r="I124" s="10"/>
       <c r="J124" s="9"/>
-      <c r="L124" s="4"/>
+      <c r="L124" s="16"/>
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
       <c r="O124" s="9"/>
@@ -4436,7 +4514,7 @@
       <c r="H125" s="9"/>
       <c r="I125" s="10"/>
       <c r="J125" s="9"/>
-      <c r="L125" s="16"/>
+      <c r="L125" s="4"/>
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
       <c r="O125" s="9"/>
@@ -4452,7 +4530,7 @@
       <c r="H126" s="9"/>
       <c r="I126" s="10"/>
       <c r="J126" s="9"/>
-      <c r="L126" s="4"/>
+      <c r="L126" s="16"/>
       <c r="M126" s="9"/>
       <c r="N126" s="9"/>
       <c r="O126" s="9"/>
@@ -4500,7 +4578,7 @@
       <c r="H129" s="9"/>
       <c r="I129" s="10"/>
       <c r="J129" s="9"/>
-      <c r="L129" s="16"/>
+      <c r="L129" s="4"/>
       <c r="M129" s="9"/>
       <c r="N129" s="9"/>
       <c r="O129" s="9"/>
@@ -4514,9 +4592,9 @@
       <c r="F130" s="4"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
-      <c r="I130" s="10"/>
+      <c r="I130" s="9"/>
       <c r="J130" s="9"/>
-      <c r="L130" s="4"/>
+      <c r="L130" s="16"/>
       <c r="M130" s="9"/>
       <c r="N130" s="9"/>
       <c r="O130" s="9"/>
@@ -4530,7 +4608,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
+      <c r="I131" s="10"/>
       <c r="J131" s="9"/>
       <c r="L131" s="16"/>
       <c r="M131" s="9"/>
@@ -4548,7 +4626,7 @@
       <c r="H132" s="9"/>
       <c r="I132" s="10"/>
       <c r="J132" s="9"/>
-      <c r="L132" s="16"/>
+      <c r="L132" s="4"/>
       <c r="M132" s="9"/>
       <c r="N132" s="9"/>
       <c r="O132" s="9"/>
@@ -4580,7 +4658,7 @@
       <c r="H134" s="9"/>
       <c r="I134" s="10"/>
       <c r="J134" s="9"/>
-      <c r="L134" s="4"/>
+      <c r="L134" s="16"/>
       <c r="M134" s="9"/>
       <c r="N134" s="9"/>
       <c r="O134" s="9"/>
@@ -4596,7 +4674,7 @@
       <c r="H135" s="9"/>
       <c r="I135" s="10"/>
       <c r="J135" s="9"/>
-      <c r="L135" s="16"/>
+      <c r="L135" s="4"/>
       <c r="M135" s="9"/>
       <c r="N135" s="9"/>
       <c r="O135" s="9"/>
@@ -4612,7 +4690,7 @@
       <c r="H136" s="9"/>
       <c r="I136" s="10"/>
       <c r="J136" s="9"/>
-      <c r="L136" s="4"/>
+      <c r="L136" s="16"/>
       <c r="M136" s="9"/>
       <c r="N136" s="9"/>
       <c r="O136" s="9"/>
@@ -4626,8 +4704,8 @@
       <c r="F137" s="4"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="10"/>
       <c r="L137" s="16"/>
       <c r="M137" s="9"/>
       <c r="N137" s="9"/>
@@ -4642,9 +4720,9 @@
       <c r="F138" s="4"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="10"/>
-      <c r="L138" s="16"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="9"/>
+      <c r="L138" s="4"/>
       <c r="M138" s="9"/>
       <c r="N138" s="9"/>
       <c r="O138" s="9"/>
@@ -4660,60 +4738,60 @@
       <c r="H139" s="9"/>
       <c r="I139" s="10"/>
       <c r="J139" s="9"/>
-      <c r="L139" s="4"/>
+      <c r="L139" s="16"/>
       <c r="M139" s="9"/>
       <c r="N139" s="9"/>
       <c r="O139" s="9"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" s="2" customFormat="1" spans="1:15">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
       <c r="D140" s="6"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="9"/>
-      <c r="L140" s="16"/>
-      <c r="M140" s="9"/>
-      <c r="N140" s="9"/>
-      <c r="O140" s="9"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="31"/>
+      <c r="I140" s="31"/>
+      <c r="J140" s="31"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="30"/>
+      <c r="M140" s="31"/>
+      <c r="N140" s="31"/>
+      <c r="O140" s="31"/>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:15">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="31"/>
-      <c r="F141" s="31"/>
-      <c r="G141" s="32"/>
-      <c r="H141" s="32"/>
-      <c r="I141" s="32"/>
-      <c r="J141" s="32"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="30"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="31"/>
+      <c r="I141" s="31"/>
+      <c r="J141" s="31"/>
       <c r="K141" s="4"/>
-      <c r="L141" s="31"/>
-      <c r="M141" s="32"/>
-      <c r="N141" s="32"/>
-      <c r="O141" s="32"/>
-    </row>
-    <row r="142" s="2" customFormat="1" spans="1:15">
+      <c r="L141" s="30"/>
+      <c r="M141" s="31"/>
+      <c r="N141" s="31"/>
+      <c r="O141" s="31"/>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="31"/>
-      <c r="F142" s="31"/>
-      <c r="G142" s="32"/>
-      <c r="H142" s="32"/>
-      <c r="I142" s="32"/>
-      <c r="J142" s="32"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="31"/>
-      <c r="M142" s="32"/>
-      <c r="N142" s="32"/>
-      <c r="O142" s="32"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="6"/>
@@ -5446,7 +5524,7 @@
       <c r="H188" s="9"/>
       <c r="I188" s="9"/>
       <c r="J188" s="9"/>
-      <c r="L188" s="4"/>
+      <c r="L188" s="16"/>
       <c r="M188" s="9"/>
       <c r="N188" s="9"/>
       <c r="O188" s="9"/>
@@ -5478,7 +5556,7 @@
       <c r="H190" s="9"/>
       <c r="I190" s="9"/>
       <c r="J190" s="9"/>
-      <c r="L190" s="16"/>
+      <c r="L190" s="4"/>
       <c r="M190" s="9"/>
       <c r="N190" s="9"/>
       <c r="O190" s="9"/>
@@ -5494,7 +5572,7 @@
       <c r="H191" s="9"/>
       <c r="I191" s="9"/>
       <c r="J191" s="9"/>
-      <c r="L191" s="4"/>
+      <c r="L191" s="16"/>
       <c r="M191" s="9"/>
       <c r="N191" s="9"/>
       <c r="O191" s="9"/>
@@ -5510,7 +5588,7 @@
       <c r="H192" s="9"/>
       <c r="I192" s="9"/>
       <c r="J192" s="9"/>
-      <c r="L192" s="16"/>
+      <c r="L192" s="4"/>
       <c r="M192" s="9"/>
       <c r="N192" s="9"/>
       <c r="O192" s="9"/>
@@ -5526,7 +5604,7 @@
       <c r="H193" s="9"/>
       <c r="I193" s="9"/>
       <c r="J193" s="9"/>
-      <c r="L193" s="4"/>
+      <c r="L193" s="16"/>
       <c r="M193" s="9"/>
       <c r="N193" s="9"/>
       <c r="O193" s="9"/>
@@ -5558,7 +5636,7 @@
       <c r="H195" s="9"/>
       <c r="I195" s="9"/>
       <c r="J195" s="9"/>
-      <c r="L195" s="16"/>
+      <c r="L195" s="4"/>
       <c r="M195" s="9"/>
       <c r="N195" s="9"/>
       <c r="O195" s="9"/>
@@ -5574,7 +5652,7 @@
       <c r="H196" s="9"/>
       <c r="I196" s="9"/>
       <c r="J196" s="9"/>
-      <c r="L196" s="4"/>
+      <c r="L196" s="16"/>
       <c r="M196" s="9"/>
       <c r="N196" s="9"/>
       <c r="O196" s="9"/>
@@ -5606,7 +5684,7 @@
       <c r="H198" s="9"/>
       <c r="I198" s="9"/>
       <c r="J198" s="9"/>
-      <c r="L198" s="16"/>
+      <c r="L198" s="4"/>
       <c r="M198" s="9"/>
       <c r="N198" s="9"/>
       <c r="O198" s="9"/>
@@ -5622,7 +5700,7 @@
       <c r="H199" s="9"/>
       <c r="I199" s="9"/>
       <c r="J199" s="9"/>
-      <c r="L199" s="4"/>
+      <c r="L199" s="16"/>
       <c r="M199" s="9"/>
       <c r="N199" s="9"/>
       <c r="O199" s="9"/>
@@ -5638,7 +5716,7 @@
       <c r="H200" s="9"/>
       <c r="I200" s="9"/>
       <c r="J200" s="9"/>
-      <c r="L200" s="16"/>
+      <c r="L200" s="4"/>
       <c r="M200" s="9"/>
       <c r="N200" s="9"/>
       <c r="O200" s="9"/>
@@ -5654,7 +5732,7 @@
       <c r="H201" s="9"/>
       <c r="I201" s="9"/>
       <c r="J201" s="9"/>
-      <c r="L201" s="4"/>
+      <c r="L201" s="16"/>
       <c r="M201" s="9"/>
       <c r="N201" s="9"/>
       <c r="O201" s="9"/>
@@ -5676,17 +5754,17 @@
       <c r="O202" s="9"/>
     </row>
     <row r="203" spans="1:15">
-      <c r="A203" s="6"/>
-      <c r="B203" s="6"/>
-      <c r="C203" s="7"/>
-      <c r="D203" s="6"/>
+      <c r="A203" s="9"/>
+      <c r="B203" s="9"/>
+      <c r="C203" s="9"/>
+      <c r="D203" s="9"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
       <c r="I203" s="9"/>
       <c r="J203" s="9"/>
-      <c r="L203" s="16"/>
+      <c r="L203" s="4"/>
       <c r="M203" s="9"/>
       <c r="N203" s="9"/>
       <c r="O203" s="9"/>
@@ -6282,22 +6360,6 @@
       <c r="M240" s="9"/>
       <c r="N240" s="9"/>
       <c r="O240" s="9"/>
-    </row>
-    <row r="241" spans="1:15">
-      <c r="A241" s="9"/>
-      <c r="B241" s="9"/>
-      <c r="C241" s="9"/>
-      <c r="D241" s="9"/>
-      <c r="E241" s="4"/>
-      <c r="F241" s="4"/>
-      <c r="G241" s="9"/>
-      <c r="H241" s="9"/>
-      <c r="I241" s="9"/>
-      <c r="J241" s="9"/>
-      <c r="L241" s="4"/>
-      <c r="M241" s="9"/>
-      <c r="N241" s="9"/>
-      <c r="O241" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -6331,7 +6393,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/src/doubleLine/双热线.xlsx
+++ b/src/doubleLine/双热线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="122">
   <si>
     <t>节假日标志</t>
   </si>
@@ -393,6 +393,12 @@
     <t>00302004_01</t>
   </si>
   <si>
+    <t>00103002</t>
+  </si>
+  <si>
+    <t>00103002_01</t>
+  </si>
+  <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
   </si>
 </sst>
@@ -401,10 +407,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -436,7 +442,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,8 +455,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,7 +479,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,7 +524,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,94 +578,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -612,7 +618,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,31 +756,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,13 +774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,121 +798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,17 +827,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,40 +853,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,6 +883,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -918,16 +906,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,133 +942,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1428,7 +1434,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="$A42:$XFD42"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3172,19 +3178,44 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
+      <c r="B42" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="20" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="6"/>
@@ -6393,7 +6424,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/src/doubleLine/双热线.xlsx
+++ b/src/doubleLine/双热线.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NXSVN\02工程活动\04设计与实现\交易数据统计\交易规则统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874993F6-F19A-47EF-A12B-7F674635CF9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E057B619-FC84-484F-8A24-353C5A7F934C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="双热线" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="166">
   <si>
     <t>节假日标志</t>
   </si>
@@ -388,6 +388,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -398,6 +399,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -419,6 +421,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -429,6 +432,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -444,6 +448,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -454,6 +459,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -578,6 +584,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -605,6 +612,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -666,6 +674,10 @@
   </si>
   <si>
     <t>1,2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>custType</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -692,6 +704,7 @@
       <b/>
       <sz val="16"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -699,18 +712,21 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1132,22 +1148,22 @@
   <dimension ref="A1:O241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="38.5" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" customWidth="1"/>
+    <col min="8" max="8" width="38.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
     <col min="11" max="11" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -1226,7 +1242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -1269,7 +1285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1355,7 +1371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1398,7 +1414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1441,7 +1457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1484,7 +1500,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1527,7 +1543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
@@ -1570,7 +1586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
@@ -1613,7 +1629,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
@@ -1654,7 +1670,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>15</v>
       </c>
@@ -1697,7 +1713,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
@@ -1740,7 +1756,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
@@ -1783,7 +1799,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
@@ -1826,7 +1842,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
@@ -1869,7 +1885,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>15</v>
       </c>
@@ -1912,7 +1928,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
@@ -1955,7 +1971,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
@@ -1998,7 +2014,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>15</v>
       </c>
@@ -2041,7 +2057,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>15</v>
       </c>
@@ -2084,7 +2100,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>15</v>
       </c>
@@ -2127,7 +2143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>15</v>
       </c>
@@ -2170,7 +2186,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>15</v>
       </c>
@@ -2213,7 +2229,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>15</v>
       </c>
@@ -2256,7 +2272,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
@@ -2299,7 +2315,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>15</v>
       </c>
@@ -2342,7 +2358,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
@@ -2385,7 +2401,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
@@ -2428,7 +2444,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>15</v>
       </c>
@@ -2471,7 +2487,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
         <v>16</v>
@@ -2510,7 +2526,7 @@
       <c r="N32" s="11"/>
       <c r="O32" s="12"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>15</v>
       </c>
@@ -2553,7 +2569,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>15</v>
       </c>
@@ -2583,7 +2599,7 @@
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>15</v>
       </c>
@@ -2626,7 +2642,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>15</v>
       </c>
@@ -2669,7 +2685,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>15</v>
       </c>
@@ -2712,7 +2728,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>15</v>
       </c>
@@ -2755,7 +2771,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>15</v>
       </c>
@@ -2798,7 +2814,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>15</v>
       </c>
@@ -2841,7 +2857,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>15</v>
       </c>
@@ -2866,8 +2882,8 @@
       <c r="H41" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I41" s="12" t="s">
-        <v>61</v>
+      <c r="I41" s="49" t="s">
+        <v>165</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>28</v>
@@ -2884,7 +2900,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>15</v>
       </c>
@@ -2927,7 +2943,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="19" t="s">
         <v>16</v>
@@ -2968,7 +2984,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>15</v>
       </c>
@@ -3011,7 +3027,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>15</v>
       </c>
@@ -3054,7 +3070,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>15</v>
       </c>
@@ -3097,7 +3113,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>15</v>
       </c>
@@ -3140,7 +3156,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>15</v>
       </c>
@@ -3181,7 +3197,7 @@
       <c r="N48" s="11"/>
       <c r="O48" s="12"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>15</v>
       </c>
@@ -3222,7 +3238,7 @@
       <c r="N49" s="11"/>
       <c r="O49" s="12"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C50" s="14" t="s">
         <v>17</v>
       </c>
@@ -3254,7 +3270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>15</v>
       </c>
@@ -3295,7 +3311,7 @@
       <c r="N51" s="11"/>
       <c r="O51" s="12"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
@@ -3334,7 +3350,7 @@
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
     </row>
-    <row r="53" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="19" t="s">
         <v>16</v>
@@ -3373,7 +3389,7 @@
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="19" t="s">
         <v>16</v>
@@ -3412,7 +3428,7 @@
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
     </row>
-    <row r="55" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="19" t="s">
         <v>16</v>
@@ -3451,7 +3467,7 @@
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="19" t="s">
         <v>16</v>
@@ -3490,7 +3506,7 @@
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
     </row>
-    <row r="57" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
@@ -3529,7 +3545,7 @@
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="19" t="s">
         <v>16</v>
@@ -3568,7 +3584,7 @@
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
     </row>
-    <row r="59" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="19" t="s">
         <v>16</v>
@@ -3607,7 +3623,7 @@
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
         <v>16</v>
@@ -3648,7 +3664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
         <v>16</v>
@@ -3689,7 +3705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
         <v>16</v>
@@ -3730,7 +3746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
         <v>16</v>
@@ -3771,7 +3787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
@@ -3787,7 +3803,7 @@
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
@@ -3803,7 +3819,7 @@
       <c r="N65" s="11"/>
       <c r="O65" s="11"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
@@ -3819,7 +3835,7 @@
       <c r="N66" s="11"/>
       <c r="O66" s="11"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
@@ -3835,7 +3851,7 @@
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
     </row>
-    <row r="68" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="43"/>
       <c r="B68" s="43"/>
       <c r="C68" s="44"/>
@@ -3852,7 +3868,7 @@
       <c r="N68" s="46"/>
       <c r="O68" s="46"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
@@ -3868,7 +3884,7 @@
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
@@ -3884,7 +3900,7 @@
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
@@ -3900,7 +3916,7 @@
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
@@ -3916,7 +3932,7 @@
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
@@ -3932,7 +3948,7 @@
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
@@ -3948,7 +3964,7 @@
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
@@ -3964,7 +3980,7 @@
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
@@ -3980,7 +3996,7 @@
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
@@ -3996,7 +4012,7 @@
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
@@ -4012,7 +4028,7 @@
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
@@ -4028,7 +4044,7 @@
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
@@ -4044,7 +4060,7 @@
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
@@ -4060,7 +4076,7 @@
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
@@ -4076,7 +4092,7 @@
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
@@ -4092,7 +4108,7 @@
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
@@ -4108,7 +4124,7 @@
       <c r="N84" s="11"/>
       <c r="O84" s="11"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
@@ -4124,7 +4140,7 @@
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
@@ -4140,7 +4156,7 @@
       <c r="N86" s="11"/>
       <c r="O86" s="11"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
@@ -4156,7 +4172,7 @@
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
@@ -4172,7 +4188,7 @@
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
@@ -4188,7 +4204,7 @@
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
@@ -4204,7 +4220,7 @@
       <c r="N90" s="11"/>
       <c r="O90" s="11"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
@@ -4220,7 +4236,7 @@
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
@@ -4236,7 +4252,7 @@
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
@@ -4252,7 +4268,7 @@
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
@@ -4268,7 +4284,7 @@
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
@@ -4284,7 +4300,7 @@
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
@@ -4300,7 +4316,7 @@
       <c r="N96" s="11"/>
       <c r="O96" s="11"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
@@ -4316,7 +4332,7 @@
       <c r="N97" s="11"/>
       <c r="O97" s="11"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
@@ -4332,7 +4348,7 @@
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
@@ -4348,7 +4364,7 @@
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
@@ -4364,7 +4380,7 @@
       <c r="N100" s="11"/>
       <c r="O100" s="11"/>
     </row>
-    <row r="101" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
@@ -4381,7 +4397,7 @@
       <c r="N101" s="46"/>
       <c r="O101" s="46"/>
     </row>
-    <row r="102" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
@@ -4398,7 +4414,7 @@
       <c r="N102" s="46"/>
       <c r="O102" s="46"/>
     </row>
-    <row r="103" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="9"/>
@@ -4415,7 +4431,7 @@
       <c r="N103" s="46"/>
       <c r="O103" s="46"/>
     </row>
-    <row r="104" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="9"/>
@@ -4432,7 +4448,7 @@
       <c r="N104" s="46"/>
       <c r="O104" s="46"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="9"/>
@@ -4448,7 +4464,7 @@
       <c r="N105" s="11"/>
       <c r="O105" s="11"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="9"/>
@@ -4464,7 +4480,7 @@
       <c r="N106" s="11"/>
       <c r="O106" s="11"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="9"/>
@@ -4480,7 +4496,7 @@
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="9"/>
@@ -4496,7 +4512,7 @@
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="9"/>
@@ -4512,7 +4528,7 @@
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="9"/>
@@ -4528,7 +4544,7 @@
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="9"/>
@@ -4544,7 +4560,7 @@
       <c r="N111" s="11"/>
       <c r="O111" s="11"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="9"/>
@@ -4560,7 +4576,7 @@
       <c r="N112" s="11"/>
       <c r="O112" s="11"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="9"/>
@@ -4576,7 +4592,7 @@
       <c r="N113" s="11"/>
       <c r="O113" s="11"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="9"/>
@@ -4592,7 +4608,7 @@
       <c r="N114" s="11"/>
       <c r="O114" s="11"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="9"/>
@@ -4608,7 +4624,7 @@
       <c r="N115" s="11"/>
       <c r="O115" s="11"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="9"/>
@@ -4624,7 +4640,7 @@
       <c r="N116" s="11"/>
       <c r="O116" s="11"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="9"/>
@@ -4640,7 +4656,7 @@
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="9"/>
@@ -4656,7 +4672,7 @@
       <c r="N118" s="11"/>
       <c r="O118" s="11"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="9"/>
@@ -4672,7 +4688,7 @@
       <c r="N119" s="11"/>
       <c r="O119" s="11"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="9"/>
@@ -4688,7 +4704,7 @@
       <c r="N120" s="11"/>
       <c r="O120" s="11"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="9"/>
@@ -4704,7 +4720,7 @@
       <c r="N121" s="11"/>
       <c r="O121" s="11"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="9"/>
@@ -4720,7 +4736,7 @@
       <c r="N122" s="11"/>
       <c r="O122" s="11"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="9"/>
@@ -4736,7 +4752,7 @@
       <c r="N123" s="11"/>
       <c r="O123" s="11"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="9"/>
@@ -4752,7 +4768,7 @@
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="9"/>
@@ -4768,7 +4784,7 @@
       <c r="N125" s="11"/>
       <c r="O125" s="11"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="9"/>
@@ -4784,7 +4800,7 @@
       <c r="N126" s="11"/>
       <c r="O126" s="11"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="9"/>
@@ -4800,7 +4816,7 @@
       <c r="N127" s="11"/>
       <c r="O127" s="11"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="9"/>
@@ -4816,7 +4832,7 @@
       <c r="N128" s="11"/>
       <c r="O128" s="11"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="9"/>
@@ -4832,7 +4848,7 @@
       <c r="N129" s="11"/>
       <c r="O129" s="11"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="9"/>
@@ -4848,7 +4864,7 @@
       <c r="N130" s="11"/>
       <c r="O130" s="11"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="9"/>
@@ -4864,7 +4880,7 @@
       <c r="N131" s="11"/>
       <c r="O131" s="11"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="9"/>
@@ -4880,7 +4896,7 @@
       <c r="N132" s="11"/>
       <c r="O132" s="11"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="9"/>
@@ -4896,7 +4912,7 @@
       <c r="N133" s="11"/>
       <c r="O133" s="11"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="9"/>
@@ -4912,7 +4928,7 @@
       <c r="N134" s="11"/>
       <c r="O134" s="11"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="9"/>
@@ -4928,7 +4944,7 @@
       <c r="N135" s="11"/>
       <c r="O135" s="11"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="9"/>
@@ -4944,7 +4960,7 @@
       <c r="N136" s="11"/>
       <c r="O136" s="11"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="9"/>
@@ -4960,7 +4976,7 @@
       <c r="N137" s="11"/>
       <c r="O137" s="11"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="9"/>
@@ -4976,7 +4992,7 @@
       <c r="N138" s="11"/>
       <c r="O138" s="11"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="9"/>
@@ -4992,7 +5008,7 @@
       <c r="N139" s="11"/>
       <c r="O139" s="11"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="9"/>
@@ -5008,7 +5024,7 @@
       <c r="N140" s="11"/>
       <c r="O140" s="11"/>
     </row>
-    <row r="141" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="9"/>
@@ -5025,7 +5041,7 @@
       <c r="N141" s="46"/>
       <c r="O141" s="46"/>
     </row>
-    <row r="142" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="9"/>
@@ -5042,7 +5058,7 @@
       <c r="N142" s="46"/>
       <c r="O142" s="46"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="9"/>
@@ -5058,7 +5074,7 @@
       <c r="N143" s="11"/>
       <c r="O143" s="11"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="9"/>
@@ -5074,7 +5090,7 @@
       <c r="N144" s="11"/>
       <c r="O144" s="11"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="9"/>
@@ -5090,7 +5106,7 @@
       <c r="N145" s="11"/>
       <c r="O145" s="11"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="9"/>
@@ -5106,7 +5122,7 @@
       <c r="N146" s="11"/>
       <c r="O146" s="11"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="9"/>
@@ -5122,7 +5138,7 @@
       <c r="N147" s="11"/>
       <c r="O147" s="11"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="9"/>
@@ -5138,7 +5154,7 @@
       <c r="N148" s="11"/>
       <c r="O148" s="11"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="9"/>
@@ -5154,7 +5170,7 @@
       <c r="N149" s="11"/>
       <c r="O149" s="11"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="9"/>
@@ -5170,7 +5186,7 @@
       <c r="N150" s="11"/>
       <c r="O150" s="11"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="9"/>
@@ -5186,7 +5202,7 @@
       <c r="N151" s="11"/>
       <c r="O151" s="11"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="9"/>
@@ -5202,7 +5218,7 @@
       <c r="N152" s="11"/>
       <c r="O152" s="11"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="9"/>
@@ -5218,7 +5234,7 @@
       <c r="N153" s="11"/>
       <c r="O153" s="11"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="9"/>
@@ -5234,7 +5250,7 @@
       <c r="N154" s="11"/>
       <c r="O154" s="11"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="9"/>
@@ -5250,7 +5266,7 @@
       <c r="N155" s="11"/>
       <c r="O155" s="11"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="9"/>
@@ -5266,7 +5282,7 @@
       <c r="N156" s="11"/>
       <c r="O156" s="11"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="9"/>
@@ -5282,7 +5298,7 @@
       <c r="N157" s="11"/>
       <c r="O157" s="11"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="9"/>
@@ -5298,7 +5314,7 @@
       <c r="N158" s="11"/>
       <c r="O158" s="11"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="9"/>
@@ -5314,7 +5330,7 @@
       <c r="N159" s="11"/>
       <c r="O159" s="11"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="9"/>
@@ -5330,7 +5346,7 @@
       <c r="N160" s="11"/>
       <c r="O160" s="11"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="9"/>
@@ -5346,7 +5362,7 @@
       <c r="N161" s="11"/>
       <c r="O161" s="11"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="9"/>
@@ -5362,7 +5378,7 @@
       <c r="N162" s="11"/>
       <c r="O162" s="11"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="9"/>
@@ -5378,7 +5394,7 @@
       <c r="N163" s="11"/>
       <c r="O163" s="11"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="9"/>
@@ -5394,7 +5410,7 @@
       <c r="N164" s="11"/>
       <c r="O164" s="11"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="9"/>
@@ -5410,7 +5426,7 @@
       <c r="N165" s="11"/>
       <c r="O165" s="11"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="9"/>
@@ -5426,7 +5442,7 @@
       <c r="N166" s="11"/>
       <c r="O166" s="11"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="9"/>
@@ -5442,7 +5458,7 @@
       <c r="N167" s="11"/>
       <c r="O167" s="11"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="9"/>
@@ -5458,7 +5474,7 @@
       <c r="N168" s="11"/>
       <c r="O168" s="11"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="9"/>
@@ -5474,7 +5490,7 @@
       <c r="N169" s="11"/>
       <c r="O169" s="11"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="9"/>
@@ -5490,7 +5506,7 @@
       <c r="N170" s="11"/>
       <c r="O170" s="11"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="9"/>
@@ -5506,7 +5522,7 @@
       <c r="N171" s="11"/>
       <c r="O171" s="11"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="9"/>
@@ -5522,7 +5538,7 @@
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="9"/>
@@ -5538,7 +5554,7 @@
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="9"/>
@@ -5554,7 +5570,7 @@
       <c r="N174" s="11"/>
       <c r="O174" s="11"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="9"/>
@@ -5570,7 +5586,7 @@
       <c r="N175" s="11"/>
       <c r="O175" s="11"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="9"/>
@@ -5586,7 +5602,7 @@
       <c r="N176" s="11"/>
       <c r="O176" s="11"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="9"/>
@@ -5602,7 +5618,7 @@
       <c r="N177" s="11"/>
       <c r="O177" s="11"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="9"/>
@@ -5618,7 +5634,7 @@
       <c r="N178" s="11"/>
       <c r="O178" s="11"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="9"/>
@@ -5634,7 +5650,7 @@
       <c r="N179" s="11"/>
       <c r="O179" s="11"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="9"/>
@@ -5650,7 +5666,7 @@
       <c r="N180" s="11"/>
       <c r="O180" s="11"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="9"/>
@@ -5666,7 +5682,7 @@
       <c r="N181" s="11"/>
       <c r="O181" s="11"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="9"/>
@@ -5682,7 +5698,7 @@
       <c r="N182" s="11"/>
       <c r="O182" s="11"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="9"/>
@@ -5698,7 +5714,7 @@
       <c r="N183" s="11"/>
       <c r="O183" s="11"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="9"/>
@@ -5714,7 +5730,7 @@
       <c r="N184" s="11"/>
       <c r="O184" s="11"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="9"/>
@@ -5730,7 +5746,7 @@
       <c r="N185" s="11"/>
       <c r="O185" s="11"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="9"/>
@@ -5746,7 +5762,7 @@
       <c r="N186" s="11"/>
       <c r="O186" s="11"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="9"/>
@@ -5762,7 +5778,7 @@
       <c r="N187" s="11"/>
       <c r="O187" s="11"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="9"/>
@@ -5778,7 +5794,7 @@
       <c r="N188" s="11"/>
       <c r="O188" s="11"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="9"/>
@@ -5794,7 +5810,7 @@
       <c r="N189" s="11"/>
       <c r="O189" s="11"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="9"/>
@@ -5810,7 +5826,7 @@
       <c r="N190" s="11"/>
       <c r="O190" s="11"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="9"/>
@@ -5826,7 +5842,7 @@
       <c r="N191" s="11"/>
       <c r="O191" s="11"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="9"/>
@@ -5842,7 +5858,7 @@
       <c r="N192" s="11"/>
       <c r="O192" s="11"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="9"/>
@@ -5858,7 +5874,7 @@
       <c r="N193" s="11"/>
       <c r="O193" s="11"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="9"/>
@@ -5874,7 +5890,7 @@
       <c r="N194" s="11"/>
       <c r="O194" s="11"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="9"/>
@@ -5890,7 +5906,7 @@
       <c r="N195" s="11"/>
       <c r="O195" s="11"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="9"/>
@@ -5906,7 +5922,7 @@
       <c r="N196" s="11"/>
       <c r="O196" s="11"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="9"/>
@@ -5922,7 +5938,7 @@
       <c r="N197" s="11"/>
       <c r="O197" s="11"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="9"/>
@@ -5938,7 +5954,7 @@
       <c r="N198" s="11"/>
       <c r="O198" s="11"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="9"/>
@@ -5954,7 +5970,7 @@
       <c r="N199" s="11"/>
       <c r="O199" s="11"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="9"/>
@@ -5970,7 +5986,7 @@
       <c r="N200" s="11"/>
       <c r="O200" s="11"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="9"/>
@@ -5986,7 +6002,7 @@
       <c r="N201" s="11"/>
       <c r="O201" s="11"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="9"/>
@@ -6002,7 +6018,7 @@
       <c r="N202" s="11"/>
       <c r="O202" s="11"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="9"/>
@@ -6018,7 +6034,7 @@
       <c r="N203" s="11"/>
       <c r="O203" s="11"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -6034,7 +6050,7 @@
       <c r="N204" s="11"/>
       <c r="O204" s="11"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -6050,7 +6066,7 @@
       <c r="N205" s="11"/>
       <c r="O205" s="11"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -6066,7 +6082,7 @@
       <c r="N206" s="11"/>
       <c r="O206" s="11"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -6082,7 +6098,7 @@
       <c r="N207" s="11"/>
       <c r="O207" s="11"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -6098,7 +6114,7 @@
       <c r="N208" s="11"/>
       <c r="O208" s="11"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -6114,7 +6130,7 @@
       <c r="N209" s="11"/>
       <c r="O209" s="11"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -6130,7 +6146,7 @@
       <c r="N210" s="11"/>
       <c r="O210" s="11"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -6146,7 +6162,7 @@
       <c r="N211" s="11"/>
       <c r="O211" s="11"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -6162,7 +6178,7 @@
       <c r="N212" s="11"/>
       <c r="O212" s="11"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -6178,7 +6194,7 @@
       <c r="N213" s="11"/>
       <c r="O213" s="11"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -6194,7 +6210,7 @@
       <c r="N214" s="11"/>
       <c r="O214" s="11"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -6210,7 +6226,7 @@
       <c r="N215" s="11"/>
       <c r="O215" s="11"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -6226,7 +6242,7 @@
       <c r="N216" s="11"/>
       <c r="O216" s="11"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -6242,7 +6258,7 @@
       <c r="N217" s="11"/>
       <c r="O217" s="11"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -6258,7 +6274,7 @@
       <c r="N218" s="11"/>
       <c r="O218" s="11"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -6274,7 +6290,7 @@
       <c r="N219" s="11"/>
       <c r="O219" s="11"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -6290,7 +6306,7 @@
       <c r="N220" s="11"/>
       <c r="O220" s="11"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -6306,7 +6322,7 @@
       <c r="N221" s="11"/>
       <c r="O221" s="11"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -6322,7 +6338,7 @@
       <c r="N222" s="11"/>
       <c r="O222" s="11"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -6338,7 +6354,7 @@
       <c r="N223" s="11"/>
       <c r="O223" s="11"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
@@ -6354,7 +6370,7 @@
       <c r="N224" s="11"/>
       <c r="O224" s="11"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
@@ -6370,7 +6386,7 @@
       <c r="N225" s="11"/>
       <c r="O225" s="11"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
@@ -6386,7 +6402,7 @@
       <c r="N226" s="11"/>
       <c r="O226" s="11"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
@@ -6402,7 +6418,7 @@
       <c r="N227" s="11"/>
       <c r="O227" s="11"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
@@ -6418,7 +6434,7 @@
       <c r="N228" s="11"/>
       <c r="O228" s="11"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
@@ -6434,7 +6450,7 @@
       <c r="N229" s="11"/>
       <c r="O229" s="11"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
@@ -6450,7 +6466,7 @@
       <c r="N230" s="11"/>
       <c r="O230" s="11"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
@@ -6466,7 +6482,7 @@
       <c r="N231" s="11"/>
       <c r="O231" s="11"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
@@ -6482,7 +6498,7 @@
       <c r="N232" s="11"/>
       <c r="O232" s="11"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="11"/>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
@@ -6498,7 +6514,7 @@
       <c r="N233" s="11"/>
       <c r="O233" s="11"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="11"/>
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
@@ -6514,7 +6530,7 @@
       <c r="N234" s="11"/>
       <c r="O234" s="11"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="11"/>
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
@@ -6530,7 +6546,7 @@
       <c r="N235" s="11"/>
       <c r="O235" s="11"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="11"/>
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
@@ -6546,7 +6562,7 @@
       <c r="N236" s="11"/>
       <c r="O236" s="11"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
@@ -6562,7 +6578,7 @@
       <c r="N237" s="11"/>
       <c r="O237" s="11"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="11"/>
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
@@ -6578,7 +6594,7 @@
       <c r="N238" s="11"/>
       <c r="O238" s="11"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
@@ -6594,7 +6610,7 @@
       <c r="N239" s="11"/>
       <c r="O239" s="11"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="11"/>
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
@@ -6610,7 +6626,7 @@
       <c r="N240" s="11"/>
       <c r="O240" s="11"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
@@ -6649,14 +6665,14 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>148</v>
       </c>

--- a/src/doubleLine/双热线.xlsx
+++ b/src/doubleLine/双热线.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NXSVN\02工程活动\04设计与实现\交易数据统计\交易规则统计\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E057B619-FC84-484F-8A24-353C5A7F934C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="双热线" sheetId="1" r:id="rId1"/>
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="165">
   <si>
     <t>节假日标志</t>
   </si>
@@ -80,15 +74,24 @@
     <t>*,</t>
   </si>
   <si>
+    <t>09999999</t>
+  </si>
+  <si>
+    <t>09999999_01</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>测试交易</t>
+  </si>
+  <si>
     <t>00401020</t>
   </si>
   <si>
     <t>00401020_01</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>陆海</t>
   </si>
   <si>
@@ -170,6 +173,12 @@
     <t>customerType</t>
   </si>
   <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
     <t>00201015_02</t>
   </si>
   <si>
@@ -291,12 +300,6 @@
   </si>
   <si>
     <t>custTypCd</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>1,2</t>
   </si>
   <si>
     <t>tran_amt</t>
@@ -388,7 +391,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -399,7 +401,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -421,7 +422,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -432,7 +432,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -448,7 +447,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -459,7 +457,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -531,24 +528,14 @@
     <t>wthmnyTotlAmt</t>
   </si>
   <si>
-    <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
-  </si>
-  <si>
-    <t>账户对公</t>
-  </si>
-  <si>
-    <t>账户对公</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>custTypeCd1</t>
-  </si>
-  <si>
-    <t>客户类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>0020101</t>
     </r>
     <r>
@@ -556,16 +543,21 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>6</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>0020101</t>
     </r>
     <r>
@@ -573,7 +565,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -584,16 +575,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>_01</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户对公</t>
+  </si>
+  <si>
+    <t>custTypeCd1</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>0020101</t>
     </r>
     <r>
@@ -601,7 +603,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -612,47 +613,33 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>_02</t>
     </r>
+  </si>
+  <si>
+    <t>custTypeCd2</t>
+  </si>
+  <si>
+    <t>00201005</t>
+  </si>
+  <si>
+    <t>00201005_01</t>
+  </si>
+  <si>
+    <t>PUB_PRIV_FLG_CD</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>custTypeCd2</t>
-  </si>
-  <si>
-    <t>00201005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>00201005_01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>00201005_02</t>
-  </si>
-  <si>
-    <t>PUB_PRIV_FLG_CD</t>
-  </si>
-  <si>
-    <t>公私标志</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>002010</t>
     </r>
     <r>
@@ -660,32 +647,63 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>05</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>custType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>00201005_02</t>
+  </si>
+  <si>
+    <t>00101004</t>
+  </si>
+  <si>
+    <t>冯强</t>
+  </si>
+  <si>
+    <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,14 +715,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -712,41 +752,111 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,7 +865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79970702230903046"/>
+        <fgColor theme="3" tint="0.79970702230903"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,8 +893,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -807,13 +1103,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -821,67 +1359,108 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1139,31 +1718,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O241"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" customWidth="1"/>
-    <col min="8" max="8" width="38.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="38.5" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
     <col min="11" max="11" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="61.2" x14ac:dyDescent="0.25">
+    <row r="1" ht="40.5" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -1235,6 +1815,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -1242,7 +1823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -1262,30 +1843,19 @@
         <v>24</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1299,36 +1869,36 @@
         <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="I4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="L4" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1342,36 +1912,36 @@
         <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="K5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="L5" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1385,36 +1955,36 @@
         <v>18</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="K6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="L6" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1428,36 +1998,36 @@
         <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>91</v>
+      <c r="L7" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1471,36 +2041,36 @@
         <v>18</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1514,79 +2084,79 @@
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="J9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" s="51" t="s">
-        <v>164</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="17" t="s">
+      <c r="K10" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17" t="s">
+      <c r="L10" s="36" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
@@ -1600,36 +2170,36 @@
         <v>18</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I11" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="L11" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
@@ -1642,35 +2212,37 @@
       <c r="D12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="15" t="s">
         <v>55</v>
       </c>
+      <c r="F12" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="G12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11" t="s">
+      <c r="I12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="13" t="s">
         <v>15</v>
       </c>
@@ -1683,37 +2255,35 @@
       <c r="D13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>60</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>29</v>
+      <c r="I13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
@@ -1727,36 +2297,36 @@
         <v>18</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="L14" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
@@ -1770,36 +2340,36 @@
         <v>18</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
@@ -1812,37 +2382,37 @@
       <c r="D16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>63</v>
+      <c r="E16" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="L16" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
@@ -1855,37 +2425,37 @@
       <c r="D17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>65</v>
+      <c r="E17" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="13" t="s">
         <v>15</v>
       </c>
@@ -1899,36 +2469,36 @@
         <v>18</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="L18" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
@@ -1942,36 +2512,36 @@
         <v>18</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
@@ -1985,36 +2555,36 @@
         <v>18</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="L20" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="13" t="s">
         <v>15</v>
       </c>
@@ -2028,36 +2598,36 @@
         <v>18</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="13" t="s">
         <v>15</v>
       </c>
@@ -2071,36 +2641,36 @@
         <v>18</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="L22" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="13" t="s">
         <v>15</v>
       </c>
@@ -2114,36 +2684,36 @@
         <v>18</v>
       </c>
       <c r="E23" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="G23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="I23" s="12" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="13" t="s">
         <v>15</v>
       </c>
@@ -2157,36 +2727,36 @@
         <v>18</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="J24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="L24" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="13" t="s">
         <v>15</v>
       </c>
@@ -2200,36 +2770,36 @@
         <v>18</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="13" t="s">
         <v>15</v>
       </c>
@@ -2243,79 +2813,79 @@
         <v>18</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="I27" s="12" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="8" t="s">
         <v>15</v>
       </c>
@@ -2329,43 +2899,43 @@
         <v>18</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J28" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -2378,73 +2948,73 @@
         <v>88</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="L29" s="18" t="s">
         <v>91</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>35</v>
+        <v>94</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="8" t="s">
         <v>15</v>
       </c>
@@ -2458,78 +3028,80 @@
         <v>18</v>
       </c>
       <c r="E31" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="18" t="s">
-        <v>94</v>
-      </c>
       <c r="G31" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>95</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="B32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="G32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I32" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>28</v>
+      <c r="J32" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="12"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="O32" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="8"/>
       <c r="B33" s="8" t="s">
         <v>16</v>
       </c>
@@ -2540,109 +3112,107 @@
         <v>18</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I33" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="L33" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="G34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="L34" s="6"/>
+      <c r="I34" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="O34" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="21" t="s">
+      <c r="E35" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" s="22" t="s">
+      <c r="F35" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="J35" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L35" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="19" t="s">
         <v>15</v>
       </c>
@@ -2656,251 +3226,251 @@
         <v>18</v>
       </c>
       <c r="E36" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="G36" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="G36" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>105</v>
-      </c>
       <c r="J36" s="22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="M36" s="37"/>
       <c r="N36" s="37"/>
       <c r="O36" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="J37" s="26" t="s">
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:15">
+      <c r="A38" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K37" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="L37" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="H38" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B39" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C39" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D39" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J38" s="22" t="s">
+      <c r="E39" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L38" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="22" t="s">
+      <c r="H39" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" s="21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B40" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C40" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D40" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="31" t="s">
+      <c r="E40" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="J39" s="31" t="s">
+      <c r="J40" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K39" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="L39" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I40" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="K40" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="L40" s="30" t="s">
+      <c r="H41" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41" s="10" t="s">
+      <c r="J41" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="K41" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="G41" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="13" t="s">
         <v>15</v>
       </c>
@@ -2914,206 +3484,206 @@
         <v>18</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="L42" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L42" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
       <c r="O42" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" s="21" t="s">
+      <c r="E43" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="J43" s="22" t="s">
+      <c r="F43" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K43" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L43" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
+      <c r="H43" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="8"/>
+      <c r="B44" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" s="3" customFormat="1" spans="1:15">
+      <c r="A45" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B45" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C45" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D45" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="G44" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" s="35" t="s">
+      <c r="E45" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="K44" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="L44" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="G45" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I45" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="K45" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="L45" s="34" t="s">
-        <v>74</v>
+      <c r="H45" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="L45" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="M45" s="40"/>
       <c r="N45" s="40"/>
-      <c r="O45" s="35" t="s">
+      <c r="O45" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" s="3" customFormat="1" spans="1:15">
+      <c r="A46" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="34" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="18" t="s">
+      <c r="F46" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="G46" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I46" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="12" t="s">
+      <c r="L46" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="8" t="s">
         <v>15</v>
       </c>
@@ -3127,77 +3697,79 @@
         <v>18</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I47" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="J47" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I47" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>25</v>
+      <c r="G48" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" s="18" t="s">
-        <v>29</v>
+        <v>89</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
-      <c r="O48" s="12"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O48" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="8" t="s">
         <v>15</v>
       </c>
@@ -3211,34 +3783,40 @@
         <v>18</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I49" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K49" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J49" s="12" t="s">
+      <c r="L49" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
       <c r="O49" s="12"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
+      <c r="A50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="C50" s="14" t="s">
         <v>17</v>
       </c>
@@ -3246,37 +3824,34 @@
         <v>18</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="18" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="12"/>
+    </row>
+    <row r="51" spans="3:12">
       <c r="C51" s="14" t="s">
         <v>17</v>
       </c>
@@ -3284,73 +3859,72 @@
         <v>18</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I51" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J51" s="12" t="s">
+      <c r="L51" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="12"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="19" t="s">
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F52" s="6" t="s">
+      <c r="E52" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="G52" s="20" t="s">
-        <v>25</v>
+      <c r="F52" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>33</v>
+        <v>102</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L52" s="18" t="s">
-        <v>74</v>
+        <v>37</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-    </row>
-    <row r="53" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="O52" s="12"/>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="8"/>
       <c r="B53" s="19" t="s">
         <v>16</v>
@@ -3362,34 +3936,34 @@
         <v>18</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I53" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="J53" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K53" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L53" s="21" t="s">
-        <v>91</v>
+        <v>102</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" ht="28.5" spans="1:15">
       <c r="A54" s="8"/>
       <c r="B54" s="19" t="s">
         <v>16</v>
@@ -3401,34 +3975,34 @@
         <v>18</v>
       </c>
       <c r="E54" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="G54" s="20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I54" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I54" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="J54" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L54" s="18" t="s">
-        <v>74</v>
+      <c r="J54" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L54" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
     </row>
-    <row r="55" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" s="8"/>
       <c r="B55" s="19" t="s">
         <v>16</v>
@@ -3440,34 +4014,34 @@
         <v>18</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I55" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="J55" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K55" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L55" s="21" t="s">
-        <v>91</v>
+        <v>102</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L55" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" ht="28.5" spans="1:15">
       <c r="A56" s="8"/>
       <c r="B56" s="19" t="s">
         <v>16</v>
@@ -3485,28 +4059,28 @@
         <v>144</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L56" s="18" t="s">
-        <v>74</v>
+        <v>102</v>
+      </c>
+      <c r="I56" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="J56" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
     </row>
-    <row r="57" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" s="8"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
@@ -3518,34 +4092,34 @@
         <v>18</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I57" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="J57" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K57" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L57" s="21" t="s">
-        <v>91</v>
+        <v>102</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L57" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" ht="28.5" spans="1:15">
       <c r="A58" s="8"/>
       <c r="B58" s="19" t="s">
         <v>16</v>
@@ -3557,34 +4131,34 @@
         <v>18</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L58" s="18" t="s">
-        <v>74</v>
+        <v>102</v>
+      </c>
+      <c r="I58" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L58" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
     </row>
-    <row r="59" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="A59" s="8"/>
       <c r="B59" s="19" t="s">
         <v>16</v>
@@ -3596,75 +4170,73 @@
         <v>18</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I59" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="J59" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K59" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L59" s="21" t="s">
-        <v>91</v>
+        <v>102</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L59" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" ht="28.5" spans="1:15">
       <c r="A60" s="8"/>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="F60" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="I60" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="J60" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="K60" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="L60" s="25" t="s">
-        <v>91</v>
+      <c r="E60" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I60" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="J60" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L60" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
-      <c r="O60" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O60" s="11"/>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
         <v>16</v>
@@ -3675,37 +4247,37 @@
       <c r="D61" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="48" t="s">
+      <c r="E61" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F61" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="I61" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="J61" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="K61" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="L61" s="25" t="s">
-        <v>91</v>
+        <v>154</v>
+      </c>
+      <c r="J61" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L61" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
       <c r="O61" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
         <v>16</v>
@@ -3716,37 +4288,37 @@
       <c r="D62" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="F62" s="48" t="s">
-        <v>158</v>
+      <c r="E62" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I62" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="J62" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L62" s="48" t="s">
-        <v>163</v>
+        <v>153</v>
+      </c>
+      <c r="I62" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="J62" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L62" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
       <c r="O62" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
         <v>16</v>
@@ -3757,69 +4329,110 @@
       <c r="D63" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="F63" s="48" t="s">
+      <c r="E63" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I63" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I63" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="J63" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K63" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="L63" s="25" t="s">
-        <v>91</v>
+      <c r="J63" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L63" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
       <c r="O63" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I64" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="11"/>
-      <c r="L64" s="6"/>
+      <c r="K64" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L64" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="11"/>
+      <c r="O64" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="H65" s="11"/>
       <c r="I65" s="42"/>
       <c r="J65" s="11"/>
       <c r="L65" s="6"/>
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O65" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
@@ -3835,7 +4448,7 @@
       <c r="N66" s="11"/>
       <c r="O66" s="11"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
@@ -3851,40 +4464,40 @@
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
     </row>
-    <row r="68" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
+    <row r="68" spans="1:15">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
       <c r="I68" s="42"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="45"/>
-      <c r="M68" s="46"/>
-      <c r="N68" s="46"/>
-      <c r="O68" s="46"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+    </row>
+    <row r="69" s="4" customFormat="1" spans="1:15">
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
       <c r="I69" s="42"/>
-      <c r="J69" s="11"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J69" s="47"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
@@ -3893,14 +4506,14 @@
       <c r="F70" s="6"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
-      <c r="I70" s="12"/>
+      <c r="I70" s="42"/>
       <c r="J70" s="11"/>
       <c r="L70" s="6"/>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
@@ -3911,12 +4524,12 @@
       <c r="H71" s="11"/>
       <c r="I71" s="12"/>
       <c r="J71" s="11"/>
-      <c r="L71" s="18"/>
+      <c r="L71" s="6"/>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
@@ -3927,12 +4540,12 @@
       <c r="H72" s="11"/>
       <c r="I72" s="12"/>
       <c r="J72" s="11"/>
-      <c r="L72" s="6"/>
+      <c r="L72" s="18"/>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
@@ -3942,13 +4555,13 @@
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="L73" s="18"/>
+      <c r="J73" s="11"/>
+      <c r="L73" s="6"/>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
@@ -3958,13 +4571,13 @@
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="12"/>
-      <c r="J74" s="11"/>
-      <c r="L74" s="6"/>
+      <c r="J74" s="12"/>
+      <c r="L74" s="18"/>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
@@ -3980,7 +4593,7 @@
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
@@ -3991,12 +4604,12 @@
       <c r="H76" s="11"/>
       <c r="I76" s="12"/>
       <c r="J76" s="11"/>
-      <c r="L76" s="18"/>
+      <c r="L76" s="6"/>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
@@ -4007,12 +4620,12 @@
       <c r="H77" s="11"/>
       <c r="I77" s="12"/>
       <c r="J77" s="11"/>
-      <c r="L77" s="6"/>
+      <c r="L77" s="18"/>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
@@ -4023,12 +4636,12 @@
       <c r="H78" s="11"/>
       <c r="I78" s="12"/>
       <c r="J78" s="11"/>
-      <c r="L78" s="18"/>
+      <c r="L78" s="6"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
@@ -4039,12 +4652,12 @@
       <c r="H79" s="11"/>
       <c r="I79" s="12"/>
       <c r="J79" s="11"/>
-      <c r="L79" s="6"/>
+      <c r="L79" s="18"/>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
@@ -4055,12 +4668,12 @@
       <c r="H80" s="11"/>
       <c r="I80" s="12"/>
       <c r="J80" s="11"/>
-      <c r="L80" s="18"/>
+      <c r="L80" s="6"/>
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
@@ -4076,7 +4689,7 @@
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
@@ -4087,12 +4700,12 @@
       <c r="H82" s="11"/>
       <c r="I82" s="12"/>
       <c r="J82" s="11"/>
-      <c r="L82" s="6"/>
+      <c r="L82" s="18"/>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
@@ -4103,12 +4716,12 @@
       <c r="H83" s="11"/>
       <c r="I83" s="12"/>
       <c r="J83" s="11"/>
-      <c r="L83" s="18"/>
+      <c r="L83" s="6"/>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
@@ -4124,7 +4737,7 @@
       <c r="N84" s="11"/>
       <c r="O84" s="11"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
@@ -4135,12 +4748,12 @@
       <c r="H85" s="11"/>
       <c r="I85" s="12"/>
       <c r="J85" s="11"/>
-      <c r="L85" s="6"/>
+      <c r="L85" s="18"/>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
@@ -4151,12 +4764,12 @@
       <c r="H86" s="11"/>
       <c r="I86" s="12"/>
       <c r="J86" s="11"/>
-      <c r="L86" s="18"/>
+      <c r="L86" s="6"/>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
       <c r="O86" s="11"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
@@ -4172,7 +4785,7 @@
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
@@ -4188,7 +4801,7 @@
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
@@ -4199,12 +4812,12 @@
       <c r="H89" s="11"/>
       <c r="I89" s="12"/>
       <c r="J89" s="11"/>
-      <c r="L89" s="6"/>
+      <c r="L89" s="18"/>
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
@@ -4215,12 +4828,12 @@
       <c r="H90" s="11"/>
       <c r="I90" s="12"/>
       <c r="J90" s="11"/>
-      <c r="L90" s="18"/>
+      <c r="L90" s="6"/>
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
       <c r="O90" s="11"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
@@ -4231,12 +4844,12 @@
       <c r="H91" s="11"/>
       <c r="I91" s="12"/>
       <c r="J91" s="11"/>
-      <c r="L91" s="6"/>
+      <c r="L91" s="18"/>
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
@@ -4247,12 +4860,12 @@
       <c r="H92" s="11"/>
       <c r="I92" s="12"/>
       <c r="J92" s="11"/>
-      <c r="L92" s="18"/>
+      <c r="L92" s="6"/>
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
@@ -4268,7 +4881,7 @@
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
@@ -4284,7 +4897,7 @@
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
@@ -4295,12 +4908,12 @@
       <c r="H95" s="11"/>
       <c r="I95" s="12"/>
       <c r="J95" s="11"/>
-      <c r="L95" s="6"/>
+      <c r="L95" s="18"/>
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
@@ -4311,12 +4924,12 @@
       <c r="H96" s="11"/>
       <c r="I96" s="12"/>
       <c r="J96" s="11"/>
-      <c r="L96" s="18"/>
+      <c r="L96" s="6"/>
       <c r="M96" s="11"/>
       <c r="N96" s="11"/>
       <c r="O96" s="11"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
@@ -4325,14 +4938,14 @@
       <c r="F97" s="6"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
+      <c r="I97" s="12"/>
       <c r="J97" s="11"/>
-      <c r="L97" s="6"/>
+      <c r="L97" s="18"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
       <c r="O97" s="11"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
@@ -4341,14 +4954,14 @@
       <c r="F98" s="6"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
-      <c r="I98" s="12"/>
+      <c r="I98" s="11"/>
       <c r="J98" s="11"/>
-      <c r="L98" s="18"/>
+      <c r="L98" s="6"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
@@ -4357,14 +4970,14 @@
       <c r="F99" s="6"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
+      <c r="I99" s="12"/>
       <c r="J99" s="11"/>
-      <c r="L99" s="6"/>
+      <c r="L99" s="18"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
@@ -4375,96 +4988,96 @@
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
-      <c r="L100" s="18"/>
+      <c r="L100" s="6"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
       <c r="O100" s="11"/>
     </row>
-    <row r="101" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
       <c r="D101" s="8"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="46"/>
-      <c r="J101" s="46"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="47"/>
-      <c r="M101" s="46"/>
-      <c r="N101" s="46"/>
-      <c r="O101" s="46"/>
-    </row>
-    <row r="102" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+    </row>
+    <row r="102" s="4" customFormat="1" spans="1:15">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
       <c r="D102" s="8"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="46"/>
-      <c r="J102" s="46"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="47"/>
       <c r="K102" s="6"/>
-      <c r="L102" s="47"/>
-      <c r="M102" s="46"/>
-      <c r="N102" s="46"/>
-      <c r="O102" s="46"/>
-    </row>
-    <row r="103" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L102" s="48"/>
+      <c r="M102" s="47"/>
+      <c r="N102" s="47"/>
+      <c r="O102" s="47"/>
+    </row>
+    <row r="103" s="4" customFormat="1" spans="1:15">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="9"/>
       <c r="D103" s="8"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="46"/>
-      <c r="J103" s="46"/>
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="47"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="47"/>
+      <c r="J103" s="47"/>
       <c r="K103" s="6"/>
-      <c r="L103" s="47"/>
-      <c r="M103" s="46"/>
-      <c r="N103" s="46"/>
-      <c r="O103" s="46"/>
-    </row>
-    <row r="104" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L103" s="48"/>
+      <c r="M103" s="47"/>
+      <c r="N103" s="47"/>
+      <c r="O103" s="47"/>
+    </row>
+    <row r="104" s="4" customFormat="1" spans="1:15">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="9"/>
       <c r="D104" s="8"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="46"/>
-      <c r="J104" s="46"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="47"/>
+      <c r="H104" s="47"/>
+      <c r="I104" s="47"/>
+      <c r="J104" s="47"/>
       <c r="K104" s="6"/>
-      <c r="L104" s="45"/>
-      <c r="M104" s="46"/>
-      <c r="N104" s="46"/>
-      <c r="O104" s="46"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L104" s="48"/>
+      <c r="M104" s="47"/>
+      <c r="N104" s="47"/>
+      <c r="O104" s="47"/>
+    </row>
+    <row r="105" s="4" customFormat="1" spans="1:15">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="9"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="11"/>
-      <c r="N105" s="11"/>
-      <c r="O105" s="11"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E105" s="46"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="47"/>
+      <c r="I105" s="47"/>
+      <c r="J105" s="47"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="46"/>
+      <c r="M105" s="47"/>
+      <c r="N105" s="47"/>
+      <c r="O105" s="47"/>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="9"/>
@@ -4480,7 +5093,7 @@
       <c r="N106" s="11"/>
       <c r="O106" s="11"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="9"/>
@@ -4496,7 +5109,7 @@
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="9"/>
@@ -4512,7 +5125,7 @@
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="9"/>
@@ -4528,7 +5141,7 @@
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="9"/>
@@ -4544,7 +5157,7 @@
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="9"/>
@@ -4553,14 +5166,14 @@
       <c r="F111" s="6"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
-      <c r="I111" s="12"/>
+      <c r="I111" s="11"/>
       <c r="J111" s="11"/>
-      <c r="L111" s="6"/>
+      <c r="L111" s="18"/>
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
       <c r="O111" s="11"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="9"/>
@@ -4569,14 +5182,14 @@
       <c r="F112" s="6"/>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
+      <c r="I112" s="12"/>
       <c r="J112" s="11"/>
-      <c r="L112" s="18"/>
+      <c r="L112" s="6"/>
       <c r="M112" s="11"/>
       <c r="N112" s="11"/>
       <c r="O112" s="11"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="9"/>
@@ -4592,7 +5205,7 @@
       <c r="N113" s="11"/>
       <c r="O113" s="11"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="9"/>
@@ -4603,12 +5216,12 @@
       <c r="H114" s="11"/>
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
-      <c r="L114" s="6"/>
+      <c r="L114" s="18"/>
       <c r="M114" s="11"/>
       <c r="N114" s="11"/>
       <c r="O114" s="11"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="9"/>
@@ -4619,12 +5232,12 @@
       <c r="H115" s="11"/>
       <c r="I115" s="11"/>
       <c r="J115" s="11"/>
-      <c r="L115" s="18"/>
+      <c r="L115" s="6"/>
       <c r="M115" s="11"/>
       <c r="N115" s="11"/>
       <c r="O115" s="11"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="9"/>
@@ -4633,14 +5246,14 @@
       <c r="F116" s="6"/>
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
-      <c r="I116" s="12"/>
+      <c r="I116" s="11"/>
       <c r="J116" s="11"/>
       <c r="L116" s="18"/>
       <c r="M116" s="11"/>
       <c r="N116" s="11"/>
       <c r="O116" s="11"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="9"/>
@@ -4656,7 +5269,7 @@
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="9"/>
@@ -4667,12 +5280,12 @@
       <c r="H118" s="11"/>
       <c r="I118" s="12"/>
       <c r="J118" s="11"/>
-      <c r="L118" s="6"/>
+      <c r="L118" s="18"/>
       <c r="M118" s="11"/>
       <c r="N118" s="11"/>
       <c r="O118" s="11"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="9"/>
@@ -4683,12 +5296,12 @@
       <c r="H119" s="11"/>
       <c r="I119" s="12"/>
       <c r="J119" s="11"/>
-      <c r="L119" s="18"/>
+      <c r="L119" s="6"/>
       <c r="M119" s="11"/>
       <c r="N119" s="11"/>
       <c r="O119" s="11"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="9"/>
@@ -4699,12 +5312,12 @@
       <c r="H120" s="11"/>
       <c r="I120" s="12"/>
       <c r="J120" s="11"/>
-      <c r="L120" s="6"/>
+      <c r="L120" s="18"/>
       <c r="M120" s="11"/>
       <c r="N120" s="11"/>
       <c r="O120" s="11"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="9"/>
@@ -4715,12 +5328,12 @@
       <c r="H121" s="11"/>
       <c r="I121" s="12"/>
       <c r="J121" s="11"/>
-      <c r="L121" s="18"/>
+      <c r="L121" s="6"/>
       <c r="M121" s="11"/>
       <c r="N121" s="11"/>
       <c r="O121" s="11"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="9"/>
@@ -4736,7 +5349,7 @@
       <c r="N122" s="11"/>
       <c r="O122" s="11"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="9"/>
@@ -4752,7 +5365,7 @@
       <c r="N123" s="11"/>
       <c r="O123" s="11"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="9"/>
@@ -4763,12 +5376,12 @@
       <c r="H124" s="11"/>
       <c r="I124" s="12"/>
       <c r="J124" s="11"/>
-      <c r="L124" s="6"/>
+      <c r="L124" s="18"/>
       <c r="M124" s="11"/>
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="9"/>
@@ -4779,12 +5392,12 @@
       <c r="H125" s="11"/>
       <c r="I125" s="12"/>
       <c r="J125" s="11"/>
-      <c r="L125" s="18"/>
+      <c r="L125" s="6"/>
       <c r="M125" s="11"/>
       <c r="N125" s="11"/>
       <c r="O125" s="11"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="9"/>
@@ -4795,12 +5408,12 @@
       <c r="H126" s="11"/>
       <c r="I126" s="12"/>
       <c r="J126" s="11"/>
-      <c r="L126" s="6"/>
+      <c r="L126" s="18"/>
       <c r="M126" s="11"/>
       <c r="N126" s="11"/>
       <c r="O126" s="11"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="9"/>
@@ -4811,12 +5424,12 @@
       <c r="H127" s="11"/>
       <c r="I127" s="12"/>
       <c r="J127" s="11"/>
-      <c r="L127" s="18"/>
+      <c r="L127" s="6"/>
       <c r="M127" s="11"/>
       <c r="N127" s="11"/>
       <c r="O127" s="11"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="9"/>
@@ -4832,7 +5445,7 @@
       <c r="N128" s="11"/>
       <c r="O128" s="11"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="9"/>
@@ -4848,7 +5461,7 @@
       <c r="N129" s="11"/>
       <c r="O129" s="11"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="9"/>
@@ -4859,12 +5472,12 @@
       <c r="H130" s="11"/>
       <c r="I130" s="12"/>
       <c r="J130" s="11"/>
-      <c r="L130" s="6"/>
+      <c r="L130" s="18"/>
       <c r="M130" s="11"/>
       <c r="N130" s="11"/>
       <c r="O130" s="11"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="9"/>
@@ -4873,14 +5486,14 @@
       <c r="F131" s="6"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
+      <c r="I131" s="12"/>
       <c r="J131" s="11"/>
-      <c r="L131" s="18"/>
+      <c r="L131" s="6"/>
       <c r="M131" s="11"/>
       <c r="N131" s="11"/>
       <c r="O131" s="11"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="9"/>
@@ -4889,14 +5502,14 @@
       <c r="F132" s="6"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
-      <c r="I132" s="12"/>
+      <c r="I132" s="11"/>
       <c r="J132" s="11"/>
       <c r="L132" s="18"/>
       <c r="M132" s="11"/>
       <c r="N132" s="11"/>
       <c r="O132" s="11"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="9"/>
@@ -4907,12 +5520,12 @@
       <c r="H133" s="11"/>
       <c r="I133" s="12"/>
       <c r="J133" s="11"/>
-      <c r="L133" s="6"/>
+      <c r="L133" s="18"/>
       <c r="M133" s="11"/>
       <c r="N133" s="11"/>
       <c r="O133" s="11"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="9"/>
@@ -4928,7 +5541,7 @@
       <c r="N134" s="11"/>
       <c r="O134" s="11"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="9"/>
@@ -4939,12 +5552,12 @@
       <c r="H135" s="11"/>
       <c r="I135" s="12"/>
       <c r="J135" s="11"/>
-      <c r="L135" s="18"/>
+      <c r="L135" s="6"/>
       <c r="M135" s="11"/>
       <c r="N135" s="11"/>
       <c r="O135" s="11"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="9"/>
@@ -4955,12 +5568,12 @@
       <c r="H136" s="11"/>
       <c r="I136" s="12"/>
       <c r="J136" s="11"/>
-      <c r="L136" s="6"/>
+      <c r="L136" s="18"/>
       <c r="M136" s="11"/>
       <c r="N136" s="11"/>
       <c r="O136" s="11"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="9"/>
@@ -4971,12 +5584,12 @@
       <c r="H137" s="11"/>
       <c r="I137" s="12"/>
       <c r="J137" s="11"/>
-      <c r="L137" s="18"/>
+      <c r="L137" s="6"/>
       <c r="M137" s="11"/>
       <c r="N137" s="11"/>
       <c r="O137" s="11"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="9"/>
@@ -4985,14 +5598,14 @@
       <c r="F138" s="6"/>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
-      <c r="I138" s="11"/>
-      <c r="J138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="11"/>
       <c r="L138" s="18"/>
       <c r="M138" s="11"/>
       <c r="N138" s="11"/>
       <c r="O138" s="11"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="9"/>
@@ -5001,14 +5614,14 @@
       <c r="F139" s="6"/>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
-      <c r="I139" s="12"/>
-      <c r="J139" s="11"/>
-      <c r="L139" s="6"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="12"/>
+      <c r="L139" s="18"/>
       <c r="M139" s="11"/>
       <c r="N139" s="11"/>
       <c r="O139" s="11"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="9"/>
@@ -5019,62 +5632,62 @@
       <c r="H140" s="11"/>
       <c r="I140" s="12"/>
       <c r="J140" s="11"/>
-      <c r="L140" s="18"/>
+      <c r="L140" s="6"/>
       <c r="M140" s="11"/>
       <c r="N140" s="11"/>
       <c r="O140" s="11"/>
     </row>
-    <row r="141" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="9"/>
       <c r="D141" s="8"/>
-      <c r="E141" s="45"/>
-      <c r="F141" s="45"/>
-      <c r="G141" s="46"/>
-      <c r="H141" s="46"/>
-      <c r="I141" s="46"/>
-      <c r="J141" s="46"/>
-      <c r="K141" s="6"/>
-      <c r="L141" s="45"/>
-      <c r="M141" s="46"/>
-      <c r="N141" s="46"/>
-      <c r="O141" s="46"/>
-    </row>
-    <row r="142" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="11"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+      <c r="O141" s="11"/>
+    </row>
+    <row r="142" s="4" customFormat="1" spans="1:15">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="9"/>
       <c r="D142" s="8"/>
-      <c r="E142" s="45"/>
-      <c r="F142" s="45"/>
-      <c r="G142" s="46"/>
-      <c r="H142" s="46"/>
-      <c r="I142" s="46"/>
-      <c r="J142" s="46"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="47"/>
+      <c r="H142" s="47"/>
+      <c r="I142" s="47"/>
+      <c r="J142" s="47"/>
       <c r="K142" s="6"/>
-      <c r="L142" s="45"/>
-      <c r="M142" s="46"/>
-      <c r="N142" s="46"/>
-      <c r="O142" s="46"/>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L142" s="46"/>
+      <c r="M142" s="47"/>
+      <c r="N142" s="47"/>
+      <c r="O142" s="47"/>
+    </row>
+    <row r="143" s="4" customFormat="1" spans="1:15">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="9"/>
       <c r="D143" s="8"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="11"/>
-      <c r="J143" s="11"/>
-      <c r="L143" s="6"/>
-      <c r="M143" s="11"/>
-      <c r="N143" s="11"/>
-      <c r="O143" s="11"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E143" s="46"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="47"/>
+      <c r="H143" s="47"/>
+      <c r="I143" s="47"/>
+      <c r="J143" s="47"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="46"/>
+      <c r="M143" s="47"/>
+      <c r="N143" s="47"/>
+      <c r="O143" s="47"/>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="9"/>
@@ -5090,7 +5703,7 @@
       <c r="N144" s="11"/>
       <c r="O144" s="11"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="9"/>
@@ -5106,7 +5719,7 @@
       <c r="N145" s="11"/>
       <c r="O145" s="11"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="9"/>
@@ -5122,7 +5735,7 @@
       <c r="N146" s="11"/>
       <c r="O146" s="11"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="9"/>
@@ -5138,7 +5751,7 @@
       <c r="N147" s="11"/>
       <c r="O147" s="11"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="9"/>
@@ -5154,7 +5767,7 @@
       <c r="N148" s="11"/>
       <c r="O148" s="11"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="9"/>
@@ -5170,7 +5783,7 @@
       <c r="N149" s="11"/>
       <c r="O149" s="11"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="9"/>
@@ -5186,7 +5799,7 @@
       <c r="N150" s="11"/>
       <c r="O150" s="11"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="9"/>
@@ -5202,7 +5815,7 @@
       <c r="N151" s="11"/>
       <c r="O151" s="11"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="9"/>
@@ -5218,7 +5831,7 @@
       <c r="N152" s="11"/>
       <c r="O152" s="11"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="9"/>
@@ -5234,7 +5847,7 @@
       <c r="N153" s="11"/>
       <c r="O153" s="11"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="9"/>
@@ -5250,7 +5863,7 @@
       <c r="N154" s="11"/>
       <c r="O154" s="11"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="9"/>
@@ -5266,7 +5879,7 @@
       <c r="N155" s="11"/>
       <c r="O155" s="11"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="9"/>
@@ -5282,7 +5895,7 @@
       <c r="N156" s="11"/>
       <c r="O156" s="11"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="9"/>
@@ -5298,7 +5911,7 @@
       <c r="N157" s="11"/>
       <c r="O157" s="11"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="9"/>
@@ -5314,7 +5927,7 @@
       <c r="N158" s="11"/>
       <c r="O158" s="11"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="9"/>
@@ -5330,7 +5943,7 @@
       <c r="N159" s="11"/>
       <c r="O159" s="11"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="9"/>
@@ -5346,7 +5959,7 @@
       <c r="N160" s="11"/>
       <c r="O160" s="11"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="9"/>
@@ -5362,7 +5975,7 @@
       <c r="N161" s="11"/>
       <c r="O161" s="11"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="9"/>
@@ -5378,7 +5991,7 @@
       <c r="N162" s="11"/>
       <c r="O162" s="11"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="9"/>
@@ -5394,7 +6007,7 @@
       <c r="N163" s="11"/>
       <c r="O163" s="11"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="9"/>
@@ -5410,7 +6023,7 @@
       <c r="N164" s="11"/>
       <c r="O164" s="11"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="9"/>
@@ -5426,7 +6039,7 @@
       <c r="N165" s="11"/>
       <c r="O165" s="11"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="9"/>
@@ -5442,7 +6055,7 @@
       <c r="N166" s="11"/>
       <c r="O166" s="11"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="9"/>
@@ -5458,7 +6071,7 @@
       <c r="N167" s="11"/>
       <c r="O167" s="11"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="9"/>
@@ -5474,7 +6087,7 @@
       <c r="N168" s="11"/>
       <c r="O168" s="11"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="9"/>
@@ -5490,7 +6103,7 @@
       <c r="N169" s="11"/>
       <c r="O169" s="11"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="9"/>
@@ -5506,7 +6119,7 @@
       <c r="N170" s="11"/>
       <c r="O170" s="11"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="9"/>
@@ -5522,7 +6135,7 @@
       <c r="N171" s="11"/>
       <c r="O171" s="11"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="9"/>
@@ -5538,7 +6151,7 @@
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="9"/>
@@ -5554,7 +6167,7 @@
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="9"/>
@@ -5570,7 +6183,7 @@
       <c r="N174" s="11"/>
       <c r="O174" s="11"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="9"/>
@@ -5586,7 +6199,7 @@
       <c r="N175" s="11"/>
       <c r="O175" s="11"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="9"/>
@@ -5602,7 +6215,7 @@
       <c r="N176" s="11"/>
       <c r="O176" s="11"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="9"/>
@@ -5618,7 +6231,7 @@
       <c r="N177" s="11"/>
       <c r="O177" s="11"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="9"/>
@@ -5634,7 +6247,7 @@
       <c r="N178" s="11"/>
       <c r="O178" s="11"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="9"/>
@@ -5650,7 +6263,7 @@
       <c r="N179" s="11"/>
       <c r="O179" s="11"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="9"/>
@@ -5666,7 +6279,7 @@
       <c r="N180" s="11"/>
       <c r="O180" s="11"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="9"/>
@@ -5682,7 +6295,7 @@
       <c r="N181" s="11"/>
       <c r="O181" s="11"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="9"/>
@@ -5698,7 +6311,7 @@
       <c r="N182" s="11"/>
       <c r="O182" s="11"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="9"/>
@@ -5714,7 +6327,7 @@
       <c r="N183" s="11"/>
       <c r="O183" s="11"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="9"/>
@@ -5730,7 +6343,7 @@
       <c r="N184" s="11"/>
       <c r="O184" s="11"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="9"/>
@@ -5746,7 +6359,7 @@
       <c r="N185" s="11"/>
       <c r="O185" s="11"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="9"/>
@@ -5762,7 +6375,7 @@
       <c r="N186" s="11"/>
       <c r="O186" s="11"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="9"/>
@@ -5778,7 +6391,7 @@
       <c r="N187" s="11"/>
       <c r="O187" s="11"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="9"/>
@@ -5794,7 +6407,7 @@
       <c r="N188" s="11"/>
       <c r="O188" s="11"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="9"/>
@@ -5805,12 +6418,12 @@
       <c r="H189" s="11"/>
       <c r="I189" s="11"/>
       <c r="J189" s="11"/>
-      <c r="L189" s="18"/>
+      <c r="L189" s="6"/>
       <c r="M189" s="11"/>
       <c r="N189" s="11"/>
       <c r="O189" s="11"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="9"/>
@@ -5826,7 +6439,7 @@
       <c r="N190" s="11"/>
       <c r="O190" s="11"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="9"/>
@@ -5837,12 +6450,12 @@
       <c r="H191" s="11"/>
       <c r="I191" s="11"/>
       <c r="J191" s="11"/>
-      <c r="L191" s="6"/>
+      <c r="L191" s="18"/>
       <c r="M191" s="11"/>
       <c r="N191" s="11"/>
       <c r="O191" s="11"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="9"/>
@@ -5853,12 +6466,12 @@
       <c r="H192" s="11"/>
       <c r="I192" s="11"/>
       <c r="J192" s="11"/>
-      <c r="L192" s="18"/>
+      <c r="L192" s="6"/>
       <c r="M192" s="11"/>
       <c r="N192" s="11"/>
       <c r="O192" s="11"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="9"/>
@@ -5869,12 +6482,12 @@
       <c r="H193" s="11"/>
       <c r="I193" s="11"/>
       <c r="J193" s="11"/>
-      <c r="L193" s="6"/>
+      <c r="L193" s="18"/>
       <c r="M193" s="11"/>
       <c r="N193" s="11"/>
       <c r="O193" s="11"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="9"/>
@@ -5885,12 +6498,12 @@
       <c r="H194" s="11"/>
       <c r="I194" s="11"/>
       <c r="J194" s="11"/>
-      <c r="L194" s="18"/>
+      <c r="L194" s="6"/>
       <c r="M194" s="11"/>
       <c r="N194" s="11"/>
       <c r="O194" s="11"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="9"/>
@@ -5906,7 +6519,7 @@
       <c r="N195" s="11"/>
       <c r="O195" s="11"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="9"/>
@@ -5917,12 +6530,12 @@
       <c r="H196" s="11"/>
       <c r="I196" s="11"/>
       <c r="J196" s="11"/>
-      <c r="L196" s="6"/>
+      <c r="L196" s="18"/>
       <c r="M196" s="11"/>
       <c r="N196" s="11"/>
       <c r="O196" s="11"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="9"/>
@@ -5933,12 +6546,12 @@
       <c r="H197" s="11"/>
       <c r="I197" s="11"/>
       <c r="J197" s="11"/>
-      <c r="L197" s="18"/>
+      <c r="L197" s="6"/>
       <c r="M197" s="11"/>
       <c r="N197" s="11"/>
       <c r="O197" s="11"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="9"/>
@@ -5954,7 +6567,7 @@
       <c r="N198" s="11"/>
       <c r="O198" s="11"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="9"/>
@@ -5965,12 +6578,12 @@
       <c r="H199" s="11"/>
       <c r="I199" s="11"/>
       <c r="J199" s="11"/>
-      <c r="L199" s="6"/>
+      <c r="L199" s="18"/>
       <c r="M199" s="11"/>
       <c r="N199" s="11"/>
       <c r="O199" s="11"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="9"/>
@@ -5981,12 +6594,12 @@
       <c r="H200" s="11"/>
       <c r="I200" s="11"/>
       <c r="J200" s="11"/>
-      <c r="L200" s="18"/>
+      <c r="L200" s="6"/>
       <c r="M200" s="11"/>
       <c r="N200" s="11"/>
       <c r="O200" s="11"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="9"/>
@@ -5997,12 +6610,12 @@
       <c r="H201" s="11"/>
       <c r="I201" s="11"/>
       <c r="J201" s="11"/>
-      <c r="L201" s="6"/>
+      <c r="L201" s="18"/>
       <c r="M201" s="11"/>
       <c r="N201" s="11"/>
       <c r="O201" s="11"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="9"/>
@@ -6013,12 +6626,12 @@
       <c r="H202" s="11"/>
       <c r="I202" s="11"/>
       <c r="J202" s="11"/>
-      <c r="L202" s="18"/>
+      <c r="L202" s="6"/>
       <c r="M202" s="11"/>
       <c r="N202" s="11"/>
       <c r="O202" s="11"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="9"/>
@@ -6034,23 +6647,23 @@
       <c r="N203" s="11"/>
       <c r="O203" s="11"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A204" s="11"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="11"/>
-      <c r="D204" s="11"/>
+    <row r="204" spans="1:15">
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="9"/>
+      <c r="D204" s="8"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="11"/>
       <c r="H204" s="11"/>
       <c r="I204" s="11"/>
       <c r="J204" s="11"/>
-      <c r="L204" s="6"/>
+      <c r="L204" s="18"/>
       <c r="M204" s="11"/>
       <c r="N204" s="11"/>
       <c r="O204" s="11"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -6066,7 +6679,7 @@
       <c r="N205" s="11"/>
       <c r="O205" s="11"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -6082,7 +6695,7 @@
       <c r="N206" s="11"/>
       <c r="O206" s="11"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -6098,7 +6711,7 @@
       <c r="N207" s="11"/>
       <c r="O207" s="11"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -6114,7 +6727,7 @@
       <c r="N208" s="11"/>
       <c r="O208" s="11"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -6130,7 +6743,7 @@
       <c r="N209" s="11"/>
       <c r="O209" s="11"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -6146,7 +6759,7 @@
       <c r="N210" s="11"/>
       <c r="O210" s="11"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -6162,7 +6775,7 @@
       <c r="N211" s="11"/>
       <c r="O211" s="11"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -6178,7 +6791,7 @@
       <c r="N212" s="11"/>
       <c r="O212" s="11"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -6194,7 +6807,7 @@
       <c r="N213" s="11"/>
       <c r="O213" s="11"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -6210,7 +6823,7 @@
       <c r="N214" s="11"/>
       <c r="O214" s="11"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -6226,7 +6839,7 @@
       <c r="N215" s="11"/>
       <c r="O215" s="11"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -6242,7 +6855,7 @@
       <c r="N216" s="11"/>
       <c r="O216" s="11"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -6258,7 +6871,7 @@
       <c r="N217" s="11"/>
       <c r="O217" s="11"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -6274,7 +6887,7 @@
       <c r="N218" s="11"/>
       <c r="O218" s="11"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -6290,7 +6903,7 @@
       <c r="N219" s="11"/>
       <c r="O219" s="11"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -6306,7 +6919,7 @@
       <c r="N220" s="11"/>
       <c r="O220" s="11"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -6322,7 +6935,7 @@
       <c r="N221" s="11"/>
       <c r="O221" s="11"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -6338,7 +6951,7 @@
       <c r="N222" s="11"/>
       <c r="O222" s="11"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -6354,7 +6967,7 @@
       <c r="N223" s="11"/>
       <c r="O223" s="11"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
@@ -6370,7 +6983,7 @@
       <c r="N224" s="11"/>
       <c r="O224" s="11"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
@@ -6386,7 +6999,7 @@
       <c r="N225" s="11"/>
       <c r="O225" s="11"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
@@ -6402,7 +7015,7 @@
       <c r="N226" s="11"/>
       <c r="O226" s="11"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
@@ -6418,7 +7031,7 @@
       <c r="N227" s="11"/>
       <c r="O227" s="11"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
@@ -6434,7 +7047,7 @@
       <c r="N228" s="11"/>
       <c r="O228" s="11"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
@@ -6450,7 +7063,7 @@
       <c r="N229" s="11"/>
       <c r="O229" s="11"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
@@ -6466,7 +7079,7 @@
       <c r="N230" s="11"/>
       <c r="O230" s="11"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
@@ -6482,7 +7095,7 @@
       <c r="N231" s="11"/>
       <c r="O231" s="11"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
@@ -6498,7 +7111,7 @@
       <c r="N232" s="11"/>
       <c r="O232" s="11"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15">
       <c r="A233" s="11"/>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
@@ -6514,7 +7127,7 @@
       <c r="N233" s="11"/>
       <c r="O233" s="11"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15">
       <c r="A234" s="11"/>
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
@@ -6530,7 +7143,7 @@
       <c r="N234" s="11"/>
       <c r="O234" s="11"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15">
       <c r="A235" s="11"/>
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
@@ -6546,7 +7159,7 @@
       <c r="N235" s="11"/>
       <c r="O235" s="11"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15">
       <c r="A236" s="11"/>
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
@@ -6562,7 +7175,7 @@
       <c r="N236" s="11"/>
       <c r="O236" s="11"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15">
       <c r="A237" s="11"/>
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
@@ -6578,7 +7191,7 @@
       <c r="N237" s="11"/>
       <c r="O237" s="11"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15">
       <c r="A238" s="11"/>
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
@@ -6594,7 +7207,7 @@
       <c r="N238" s="11"/>
       <c r="O238" s="11"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15">
       <c r="A239" s="11"/>
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
@@ -6610,7 +7223,7 @@
       <c r="N239" s="11"/>
       <c r="O239" s="11"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15">
       <c r="A240" s="11"/>
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
@@ -6626,7 +7239,7 @@
       <c r="N240" s="11"/>
       <c r="O240" s="11"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15">
       <c r="A241" s="11"/>
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
@@ -6642,43 +7255,60 @@
       <c r="N241" s="11"/>
       <c r="O241" s="11"/>
     </row>
+    <row r="242" spans="1:15">
+      <c r="A242" s="11"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="11"/>
+      <c r="H242" s="11"/>
+      <c r="I242" s="11"/>
+      <c r="J242" s="11"/>
+      <c r="L242" s="6"/>
+      <c r="M242" s="11"/>
+      <c r="N242" s="11"/>
+      <c r="O242" s="11"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
       <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="61.2" x14ac:dyDescent="0.25">
+    <row r="1" ht="40.5" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/doubleLine/双热线.xlsx
+++ b/src/doubleLine/双热线.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\资料\资料\四川农信\SVN\02工程活动\04设计与实现\交易数据统计\交易规则统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Agree\四川农信\doc\SVN\04设计与实现\交易数据统计\交易规则统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C517E3-36F0-455D-A720-E1034E468AD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7366B100-6A98-44F2-875D-8C03D9530609}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="3" r:id="rId1"/>
@@ -37,6 +37,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>14476:</t>
@@ -46,6 +47,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="160">
   <si>
     <t>节假日标志</t>
   </si>
@@ -533,6 +535,22 @@
   </si>
   <si>
     <t>客户类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00305013</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00305013_01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>custTypCdOut</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtlSumAmt</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -552,6 +570,7 @@
       <b/>
       <sz val="16"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -559,6 +578,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -597,6 +617,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -604,6 +625,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -703,6 +725,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -722,7 +812,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -978,15 +1068,15 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="50.125" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="50.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>148</v>
       </c>
@@ -1000,7 +1090,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -1014,97 +1104,97 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="24"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="24"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="24"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="24"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="24"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="24"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="24"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="24"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="24"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="24"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="24"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="24"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="24"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="24"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="24"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="24"/>
       <c r="C18" s="4"/>
@@ -1120,28 +1210,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="8" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="43.75" style="8" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="43.77734375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" style="8" customWidth="1"/>
     <col min="10" max="10" width="9" style="8"/>
     <col min="11" max="11" width="9" style="7"/>
     <col min="12" max="15" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -1221,7 +1311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
@@ -1254,7 +1344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -1297,7 +1387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
@@ -1340,7 +1430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
@@ -1383,7 +1473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
@@ -1426,7 +1516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1469,7 +1559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
@@ -1512,7 +1602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1555,7 +1645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
@@ -1598,7 +1688,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
@@ -1641,7 +1731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
@@ -1684,7 +1774,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
@@ -1727,7 +1817,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>15</v>
       </c>
@@ -1770,7 +1860,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
@@ -1813,7 +1903,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
@@ -1856,7 +1946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -1899,7 +1989,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>15</v>
       </c>
@@ -1942,7 +2032,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
@@ -1985,7 +2075,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>15</v>
       </c>
@@ -2028,7 +2118,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>15</v>
       </c>
@@ -2071,7 +2161,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>15</v>
       </c>
@@ -2114,7 +2204,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>15</v>
       </c>
@@ -2157,7 +2247,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>15</v>
       </c>
@@ -2200,7 +2290,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>15</v>
       </c>
@@ -2243,7 +2333,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>15</v>
       </c>
@@ -2286,7 +2376,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>15</v>
       </c>
@@ -2329,7 +2419,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>15</v>
       </c>
@@ -2372,7 +2462,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
@@ -2415,7 +2505,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
@@ -2458,7 +2548,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>15</v>
       </c>
@@ -2501,7 +2591,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>15</v>
       </c>
@@ -2544,7 +2634,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>15</v>
       </c>
@@ -2587,7 +2677,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>15</v>
       </c>
@@ -2620,7 +2710,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>15</v>
       </c>
@@ -2663,7 +2753,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>15</v>
       </c>
@@ -2706,7 +2796,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>15</v>
       </c>
@@ -2749,7 +2839,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>15</v>
       </c>
@@ -2792,7 +2882,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>15</v>
       </c>
@@ -2835,7 +2925,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>15</v>
       </c>
@@ -2878,7 +2968,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>15</v>
       </c>
@@ -2921,7 +3011,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>15</v>
       </c>
@@ -2964,7 +3054,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>15</v>
       </c>
@@ -3007,7 +3097,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>15</v>
       </c>
@@ -3050,7 +3140,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>15</v>
       </c>
@@ -3093,7 +3183,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>15</v>
       </c>
@@ -3136,7 +3226,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>15</v>
       </c>
@@ -3179,7 +3269,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>15</v>
       </c>
@@ -3222,7 +3312,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>15</v>
       </c>
@@ -3265,7 +3355,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>15</v>
       </c>
@@ -3308,7 +3398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>15</v>
       </c>
@@ -3351,7 +3441,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>15</v>
       </c>
@@ -3394,7 +3484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>15</v>
       </c>
@@ -3437,7 +3527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>15</v>
       </c>
@@ -3470,41 +3560,93 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-    </row>
-    <row r="57" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-    </row>
-    <row r="58" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="18"/>
@@ -3521,7 +3663,7 @@
       <c r="N58" s="17"/>
       <c r="O58" s="17"/>
     </row>
-    <row r="59" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="18"/>
@@ -3538,7 +3680,7 @@
       <c r="N59" s="17"/>
       <c r="O59" s="17"/>
     </row>
-    <row r="60" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="18"/>
@@ -3555,7 +3697,7 @@
       <c r="N60" s="17"/>
       <c r="O60" s="17"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -3563,7 +3705,7 @@
       <c r="I61" s="9"/>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
@@ -3571,7 +3713,7 @@
       <c r="I62" s="9"/>
       <c r="L62" s="10"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
@@ -3579,7 +3721,7 @@
       <c r="I63" s="9"/>
       <c r="L63" s="7"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
@@ -3588,7 +3730,7 @@
       <c r="J64" s="9"/>
       <c r="L64" s="10"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
@@ -3596,7 +3738,7 @@
       <c r="I65" s="9"/>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
@@ -3604,7 +3746,7 @@
       <c r="I66" s="9"/>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
@@ -3612,7 +3754,7 @@
       <c r="I67" s="9"/>
       <c r="L67" s="10"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
@@ -3620,7 +3762,7 @@
       <c r="I68" s="9"/>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
@@ -3628,7 +3770,7 @@
       <c r="I69" s="9"/>
       <c r="L69" s="10"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
@@ -3636,7 +3778,7 @@
       <c r="I70" s="9"/>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -3644,7 +3786,7 @@
       <c r="I71" s="9"/>
       <c r="L71" s="10"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
@@ -3652,7 +3794,7 @@
       <c r="I72" s="9"/>
       <c r="L72" s="10"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
@@ -3660,7 +3802,7 @@
       <c r="I73" s="9"/>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
@@ -3668,7 +3810,7 @@
       <c r="I74" s="9"/>
       <c r="L74" s="10"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
@@ -3676,7 +3818,7 @@
       <c r="I75" s="9"/>
       <c r="L75" s="10"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
@@ -3684,7 +3826,7 @@
       <c r="I76" s="9"/>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
@@ -3692,7 +3834,7 @@
       <c r="I77" s="9"/>
       <c r="L77" s="10"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
@@ -3700,7 +3842,7 @@
       <c r="I78" s="9"/>
       <c r="L78" s="10"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
@@ -3708,7 +3850,7 @@
       <c r="I79" s="9"/>
       <c r="L79" s="10"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
@@ -3716,7 +3858,7 @@
       <c r="I80" s="9"/>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
@@ -3724,7 +3866,7 @@
       <c r="I81" s="9"/>
       <c r="L81" s="10"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
@@ -3732,7 +3874,7 @@
       <c r="I82" s="9"/>
       <c r="L82" s="7"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
@@ -3740,7 +3882,7 @@
       <c r="I83" s="9"/>
       <c r="L83" s="10"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
@@ -3748,7 +3890,7 @@
       <c r="I84" s="9"/>
       <c r="L84" s="10"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
@@ -3756,7 +3898,7 @@
       <c r="I85" s="9"/>
       <c r="L85" s="10"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
@@ -3764,7 +3906,7 @@
       <c r="I86" s="9"/>
       <c r="L86" s="7"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
@@ -3772,14 +3914,14 @@
       <c r="I87" s="9"/>
       <c r="L87" s="10"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="5"/>
       <c r="L88" s="7"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
@@ -3787,21 +3929,21 @@
       <c r="I89" s="9"/>
       <c r="L89" s="10"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="5"/>
       <c r="L90" s="7"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="5"/>
       <c r="L91" s="10"/>
     </row>
-    <row r="92" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
@@ -3818,7 +3960,7 @@
       <c r="N92" s="12"/>
       <c r="O92" s="12"/>
     </row>
-    <row r="93" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
@@ -3835,7 +3977,7 @@
       <c r="N93" s="12"/>
       <c r="O93" s="12"/>
     </row>
-    <row r="94" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
@@ -3852,7 +3994,7 @@
       <c r="N94" s="12"/>
       <c r="O94" s="12"/>
     </row>
-    <row r="95" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
@@ -3869,49 +4011,49 @@
       <c r="N95" s="12"/>
       <c r="O95" s="12"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="5"/>
       <c r="L96" s="10"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="5"/>
       <c r="L97" s="10"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="5"/>
       <c r="L98" s="10"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="5"/>
       <c r="L99" s="10"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="5"/>
       <c r="L100" s="10"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="5"/>
       <c r="L101" s="10"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
@@ -3919,35 +4061,35 @@
       <c r="I102" s="9"/>
       <c r="L102" s="7"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
       <c r="D103" s="5"/>
       <c r="L103" s="10"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="6"/>
       <c r="D104" s="5"/>
       <c r="L104" s="10"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="6"/>
       <c r="D105" s="5"/>
       <c r="L105" s="7"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="6"/>
       <c r="D106" s="5"/>
       <c r="L106" s="10"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
@@ -3955,7 +4097,7 @@
       <c r="I107" s="9"/>
       <c r="L107" s="10"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
@@ -3963,7 +4105,7 @@
       <c r="I108" s="9"/>
       <c r="L108" s="10"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
@@ -3971,7 +4113,7 @@
       <c r="I109" s="9"/>
       <c r="L109" s="7"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
@@ -3979,7 +4121,7 @@
       <c r="I110" s="9"/>
       <c r="L110" s="10"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="6"/>
@@ -3987,7 +4129,7 @@
       <c r="I111" s="9"/>
       <c r="L111" s="7"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="6"/>
@@ -3995,7 +4137,7 @@
       <c r="I112" s="9"/>
       <c r="L112" s="10"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
@@ -4003,7 +4145,7 @@
       <c r="I113" s="9"/>
       <c r="L113" s="10"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="6"/>
@@ -4011,7 +4153,7 @@
       <c r="I114" s="9"/>
       <c r="L114" s="10"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="6"/>
@@ -4019,7 +4161,7 @@
       <c r="I115" s="9"/>
       <c r="L115" s="7"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
@@ -4027,7 +4169,7 @@
       <c r="I116" s="9"/>
       <c r="L116" s="10"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
@@ -4035,7 +4177,7 @@
       <c r="I117" s="9"/>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="6"/>
@@ -4043,7 +4185,7 @@
       <c r="I118" s="9"/>
       <c r="L118" s="10"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="6"/>
@@ -4051,7 +4193,7 @@
       <c r="I119" s="9"/>
       <c r="L119" s="10"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="6"/>
@@ -4059,7 +4201,7 @@
       <c r="I120" s="9"/>
       <c r="L120" s="10"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
@@ -4067,14 +4209,14 @@
       <c r="I121" s="9"/>
       <c r="L121" s="7"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="6"/>
       <c r="D122" s="5"/>
       <c r="L122" s="10"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
@@ -4082,7 +4224,7 @@
       <c r="I123" s="9"/>
       <c r="L123" s="10"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
@@ -4090,7 +4232,7 @@
       <c r="I124" s="9"/>
       <c r="L124" s="7"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
@@ -4098,7 +4240,7 @@
       <c r="I125" s="9"/>
       <c r="L125" s="7"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="6"/>
@@ -4106,7 +4248,7 @@
       <c r="I126" s="9"/>
       <c r="L126" s="10"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
@@ -4114,7 +4256,7 @@
       <c r="I127" s="9"/>
       <c r="L127" s="7"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
@@ -4122,7 +4264,7 @@
       <c r="I128" s="9"/>
       <c r="L128" s="10"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
@@ -4130,7 +4272,7 @@
       <c r="J129" s="9"/>
       <c r="L129" s="10"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="6"/>
@@ -4138,7 +4280,7 @@
       <c r="I130" s="9"/>
       <c r="L130" s="7"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
@@ -4146,7 +4288,7 @@
       <c r="I131" s="9"/>
       <c r="L131" s="10"/>
     </row>
-    <row r="132" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="6"/>
@@ -4163,7 +4305,7 @@
       <c r="N132" s="12"/>
       <c r="O132" s="12"/>
     </row>
-    <row r="133" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="6"/>
@@ -4180,545 +4322,545 @@
       <c r="N133" s="12"/>
       <c r="O133" s="12"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="6"/>
       <c r="D134" s="5"/>
       <c r="L134" s="7"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
       <c r="D135" s="5"/>
       <c r="L135" s="7"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
       <c r="D136" s="5"/>
       <c r="L136" s="7"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="6"/>
       <c r="D137" s="5"/>
       <c r="L137" s="7"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
       <c r="D138" s="5"/>
       <c r="L138" s="7"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="6"/>
       <c r="D139" s="5"/>
       <c r="L139" s="7"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="6"/>
       <c r="D140" s="5"/>
       <c r="L140" s="7"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="6"/>
       <c r="D141" s="5"/>
       <c r="L141" s="7"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="6"/>
       <c r="D142" s="5"/>
       <c r="L142" s="7"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="6"/>
       <c r="D143" s="5"/>
       <c r="L143" s="7"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="6"/>
       <c r="D144" s="5"/>
       <c r="L144" s="7"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="6"/>
       <c r="D145" s="5"/>
       <c r="L145" s="7"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="6"/>
       <c r="D146" s="5"/>
       <c r="L146" s="7"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="6"/>
       <c r="D147" s="5"/>
       <c r="L147" s="7"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="6"/>
       <c r="D148" s="5"/>
       <c r="L148" s="7"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="6"/>
       <c r="D149" s="5"/>
       <c r="L149" s="7"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="6"/>
       <c r="D150" s="5"/>
       <c r="L150" s="7"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="6"/>
       <c r="D151" s="5"/>
       <c r="L151" s="7"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="6"/>
       <c r="D152" s="5"/>
       <c r="L152" s="7"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="6"/>
       <c r="D153" s="5"/>
       <c r="L153" s="7"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="6"/>
       <c r="D154" s="5"/>
       <c r="L154" s="7"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="6"/>
       <c r="D155" s="5"/>
       <c r="L155" s="7"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="6"/>
       <c r="D156" s="5"/>
       <c r="L156" s="7"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="6"/>
       <c r="D157" s="5"/>
       <c r="L157" s="7"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="6"/>
       <c r="D158" s="5"/>
       <c r="L158" s="7"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="6"/>
       <c r="D159" s="5"/>
       <c r="L159" s="7"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="6"/>
       <c r="D160" s="5"/>
       <c r="L160" s="7"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="6"/>
       <c r="D161" s="5"/>
       <c r="L161" s="7"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="6"/>
       <c r="D162" s="5"/>
       <c r="L162" s="7"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="6"/>
       <c r="D163" s="5"/>
       <c r="L163" s="7"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="6"/>
       <c r="D164" s="5"/>
       <c r="L164" s="7"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="6"/>
       <c r="D165" s="5"/>
       <c r="L165" s="7"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="6"/>
       <c r="D166" s="5"/>
       <c r="L166" s="7"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6"/>
       <c r="D167" s="5"/>
       <c r="L167" s="7"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="6"/>
       <c r="D168" s="5"/>
       <c r="L168" s="7"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="6"/>
       <c r="D169" s="5"/>
       <c r="L169" s="7"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="6"/>
       <c r="D170" s="5"/>
       <c r="L170" s="7"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="6"/>
       <c r="D171" s="5"/>
       <c r="L171" s="7"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="6"/>
       <c r="D172" s="5"/>
       <c r="L172" s="7"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="6"/>
       <c r="D173" s="5"/>
       <c r="L173" s="7"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="6"/>
       <c r="D174" s="5"/>
       <c r="L174" s="7"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="6"/>
       <c r="D175" s="5"/>
       <c r="L175" s="7"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="6"/>
       <c r="D176" s="5"/>
       <c r="L176" s="7"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="6"/>
       <c r="D177" s="5"/>
       <c r="L177" s="7"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="6"/>
       <c r="D178" s="5"/>
       <c r="L178" s="7"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="6"/>
       <c r="D179" s="5"/>
       <c r="L179" s="7"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="6"/>
       <c r="D180" s="5"/>
       <c r="L180" s="10"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="6"/>
       <c r="D181" s="5"/>
       <c r="L181" s="10"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="6"/>
       <c r="D182" s="5"/>
       <c r="L182" s="7"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="6"/>
       <c r="D183" s="5"/>
       <c r="L183" s="10"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="6"/>
       <c r="D184" s="5"/>
       <c r="L184" s="7"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="6"/>
       <c r="D185" s="5"/>
       <c r="L185" s="10"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6"/>
       <c r="D186" s="5"/>
       <c r="L186" s="10"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="6"/>
       <c r="D187" s="5"/>
       <c r="L187" s="7"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="6"/>
       <c r="D188" s="5"/>
       <c r="L188" s="10"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6"/>
       <c r="D189" s="5"/>
       <c r="L189" s="10"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6"/>
       <c r="D190" s="5"/>
       <c r="L190" s="7"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="6"/>
       <c r="D191" s="5"/>
       <c r="L191" s="10"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="6"/>
       <c r="D192" s="5"/>
       <c r="L192" s="7"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="6"/>
       <c r="D193" s="5"/>
       <c r="L193" s="10"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="6"/>
       <c r="D194" s="5"/>
       <c r="L194" s="10"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L195" s="7"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L196" s="7"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L197" s="7"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L198" s="7"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L199" s="7"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L200" s="7"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L201" s="7"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L202" s="7"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L203" s="7"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L204" s="7"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L205" s="7"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L206" s="7"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L207" s="7"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L208" s="7"/>
     </row>
-    <row r="209" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L209" s="7"/>
     </row>
-    <row r="210" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L210" s="7"/>
     </row>
-    <row r="211" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L211" s="7"/>
     </row>
-    <row r="212" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L212" s="7"/>
     </row>
-    <row r="213" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L213" s="7"/>
     </row>
-    <row r="214" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L214" s="7"/>
     </row>
-    <row r="215" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L215" s="7"/>
     </row>
-    <row r="216" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L216" s="7"/>
     </row>
-    <row r="217" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L217" s="7"/>
     </row>
-    <row r="218" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L218" s="7"/>
     </row>
-    <row r="219" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L219" s="7"/>
     </row>
-    <row r="220" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L220" s="7"/>
     </row>
-    <row r="221" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L221" s="7"/>
     </row>
-    <row r="222" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L222" s="7"/>
     </row>
-    <row r="223" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L223" s="7"/>
     </row>
-    <row r="224" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L224" s="7"/>
     </row>
-    <row r="225" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L225" s="7"/>
     </row>
-    <row r="226" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L226" s="7"/>
     </row>
-    <row r="227" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L227" s="7"/>
     </row>
-    <row r="228" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L228" s="7"/>
     </row>
-    <row r="229" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L229" s="7"/>
     </row>
-    <row r="230" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L230" s="7"/>
     </row>
-    <row r="231" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L231" s="7"/>
     </row>
-    <row r="232" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L232" s="7"/>
     </row>
   </sheetData>
@@ -4733,7 +4875,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/doubleLine/双热线.xlsx
+++ b/src/doubleLine/双热线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="149">
   <si>
     <t>序号</t>
   </si>
@@ -427,10 +427,10 @@
     <t>00201093</t>
   </si>
   <si>
-    <t>00101038</t>
-  </si>
-  <si>
-    <t>001010381</t>
+    <t>00101049</t>
+  </si>
+  <si>
+    <t>0010104901</t>
   </si>
   <si>
     <t>廖浩</t>
@@ -485,6 +485,18 @@
   </si>
   <si>
     <t>00101026_01</t>
+  </si>
+  <si>
+    <t>00509011</t>
+  </si>
+  <si>
+    <t>0050901101</t>
+  </si>
+  <si>
+    <t>TradeData.Amt</t>
+  </si>
+  <si>
+    <t>李节</t>
   </si>
 </sst>
 </file>
@@ -492,9 +504,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -535,8 +547,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,13 +572,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,16 +592,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,21 +631,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,7 +654,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -640,17 +662,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -662,17 +683,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,13 +728,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,55 +770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,7 +788,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,25 +812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,7 +824,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,25 +848,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,13 +878,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,17 +937,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,25 +979,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1003,11 +1009,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,10 +1040,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1040,137 +1052,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1195,6 +1207,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1549,137 +1564,137 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11.3796296296296" style="27" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.3833333333333" style="28" customWidth="1"/>
     <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="50.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="50.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" spans="1:4">
-      <c r="A1" s="28" t="s">
+    <row r="1" s="27" customFormat="1" spans="1:4">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="30">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="32">
         <v>43707</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1693,21 +1708,21 @@
   <dimension ref="A1:O217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.12962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.13333333333333" style="5" customWidth="1"/>
     <col min="4" max="4" width="8" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="6" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.8796296296296" style="5" customWidth="1"/>
-    <col min="8" max="8" width="52.6296296296296" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.8833333333333" style="5" customWidth="1"/>
+    <col min="8" max="8" width="52.6333333333333" style="5" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="5" customWidth="1"/>
     <col min="10" max="10" width="10.75" style="5" customWidth="1"/>
     <col min="11" max="11" width="9" style="6"/>
@@ -1715,7 +1730,7 @@
     <col min="13" max="15" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="61.2" spans="1:15">
+    <row r="1" ht="40.5" spans="1:15">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -1793,7 +1808,7 @@
       <c r="J2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="12" t="s">
@@ -1879,7 +1894,7 @@
       <c r="J4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="12" t="s">
@@ -1922,7 +1937,7 @@
       <c r="J5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="12" t="s">
@@ -1965,7 +1980,7 @@
       <c r="J6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="12" t="s">
@@ -2739,7 +2754,7 @@
       <c r="J24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="12" t="s">
@@ -2782,7 +2797,7 @@
       <c r="J25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="34" t="s">
+      <c r="K25" s="35" t="s">
         <v>78</v>
       </c>
       <c r="L25" s="12" t="s">
@@ -2825,7 +2840,7 @@
       <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="12" t="s">
@@ -2868,7 +2883,7 @@
       <c r="J27" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="35" t="s">
         <v>78</v>
       </c>
       <c r="L27" s="12" t="s">
@@ -2911,7 +2926,7 @@
       <c r="J28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="12" t="s">
@@ -2954,7 +2969,7 @@
       <c r="J29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="34" t="s">
+      <c r="K29" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="12" t="s">
@@ -2997,7 +3012,7 @@
       <c r="J30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="34" t="s">
+      <c r="K30" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="12" t="s">
@@ -3040,7 +3055,7 @@
       <c r="J31" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K31" s="34" t="s">
+      <c r="K31" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="12" t="s">
@@ -3083,7 +3098,7 @@
       <c r="J32" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K32" s="34" t="s">
+      <c r="K32" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="12" t="s">
@@ -3108,10 +3123,10 @@
       <c r="D33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="35" t="s">
         <v>118</v>
       </c>
       <c r="G33" s="12" t="s">
@@ -3159,7 +3174,7 @@
       <c r="J34" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="34" t="s">
+      <c r="K34" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="12" t="s">
@@ -3184,10 +3199,10 @@
       <c r="D35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="35" t="s">
         <v>123</v>
       </c>
       <c r="G35" s="13" t="s">
@@ -3202,7 +3217,7 @@
       <c r="J35" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="34" t="s">
+      <c r="K35" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="12" t="s">
@@ -3227,10 +3242,10 @@
       <c r="D36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="35" t="s">
         <v>124</v>
       </c>
       <c r="G36" s="12" t="s">
@@ -3245,7 +3260,7 @@
       <c r="J36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K36" s="34" t="s">
+      <c r="K36" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="12" t="s">
@@ -3645,38 +3660,90 @@
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:15">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
+      <c r="A46" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="19">
+        <v>500000</v>
+      </c>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
+      <c r="O46" s="13" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:15">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
+      <c r="A47" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
+      <c r="O47" s="13" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:15">
       <c r="A48" s="13"/>
@@ -3806,10 +3873,10 @@
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="15"/>
-      <c r="I55" s="19"/>
+      <c r="I55" s="20"/>
       <c r="J55" s="15"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
       <c r="O55" s="15"/>
@@ -3819,23 +3886,23 @@
       <c r="B56" s="16"/>
       <c r="C56" s="17"/>
       <c r="D56" s="16"/>
-      <c r="I56" s="21"/>
-      <c r="L56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="L56" s="23"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="17"/>
       <c r="D57" s="16"/>
-      <c r="I57" s="21"/>
-      <c r="L57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="L57" s="23"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="17"/>
       <c r="D58" s="16"/>
-      <c r="I58" s="21"/>
+      <c r="I58" s="22"/>
       <c r="L58" s="6"/>
     </row>
     <row r="59" spans="1:12">
@@ -3843,23 +3910,23 @@
       <c r="B59" s="16"/>
       <c r="C59" s="17"/>
       <c r="D59" s="16"/>
-      <c r="I59" s="21"/>
-      <c r="L59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="L59" s="23"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="17"/>
       <c r="D60" s="16"/>
-      <c r="I60" s="21"/>
-      <c r="L60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="L60" s="23"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="17"/>
       <c r="D61" s="16"/>
-      <c r="I61" s="21"/>
+      <c r="I61" s="22"/>
       <c r="L61" s="6"/>
     </row>
     <row r="62" spans="1:12">
@@ -3867,31 +3934,31 @@
       <c r="B62" s="16"/>
       <c r="C62" s="17"/>
       <c r="D62" s="16"/>
-      <c r="I62" s="21"/>
-      <c r="L62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="L62" s="23"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="17"/>
       <c r="D63" s="16"/>
-      <c r="I63" s="21"/>
-      <c r="L63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="L63" s="23"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="17"/>
       <c r="D64" s="16"/>
-      <c r="I64" s="21"/>
-      <c r="L64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="L64" s="23"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="17"/>
       <c r="D65" s="16"/>
-      <c r="I65" s="21"/>
+      <c r="I65" s="22"/>
       <c r="L65" s="6"/>
     </row>
     <row r="66" spans="1:12">
@@ -3899,15 +3966,15 @@
       <c r="B66" s="16"/>
       <c r="C66" s="17"/>
       <c r="D66" s="16"/>
-      <c r="I66" s="21"/>
-      <c r="L66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="L66" s="23"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="17"/>
       <c r="D67" s="16"/>
-      <c r="I67" s="21"/>
+      <c r="I67" s="22"/>
       <c r="L67" s="6"/>
     </row>
     <row r="68" spans="1:12">
@@ -3915,31 +3982,31 @@
       <c r="B68" s="16"/>
       <c r="C68" s="17"/>
       <c r="D68" s="16"/>
-      <c r="I68" s="21"/>
-      <c r="L68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="L68" s="23"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="17"/>
       <c r="D69" s="16"/>
-      <c r="I69" s="21"/>
-      <c r="L69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="L69" s="23"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="17"/>
       <c r="D70" s="16"/>
-      <c r="I70" s="21"/>
-      <c r="L70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="L70" s="23"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="17"/>
       <c r="D71" s="16"/>
-      <c r="I71" s="21"/>
+      <c r="I71" s="22"/>
       <c r="L71" s="6"/>
     </row>
     <row r="72" spans="1:12">
@@ -3947,8 +4014,8 @@
       <c r="B72" s="16"/>
       <c r="C72" s="17"/>
       <c r="D72" s="16"/>
-      <c r="I72" s="21"/>
-      <c r="L72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="L72" s="23"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="16"/>
@@ -3962,8 +4029,8 @@
       <c r="B74" s="16"/>
       <c r="C74" s="17"/>
       <c r="D74" s="16"/>
-      <c r="I74" s="21"/>
-      <c r="L74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="L74" s="23"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="16"/>
@@ -3977,124 +4044,124 @@
       <c r="B76" s="16"/>
       <c r="C76" s="17"/>
       <c r="D76" s="16"/>
-      <c r="L76" s="22"/>
+      <c r="L76" s="23"/>
     </row>
     <row r="77" s="4" customFormat="1" spans="1:15">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="17"/>
       <c r="D77" s="16"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
       <c r="K77" s="6"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="24"/>
-      <c r="O77" s="24"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="25"/>
     </row>
     <row r="78" s="4" customFormat="1" spans="1:15">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="17"/>
       <c r="D78" s="16"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
       <c r="K78" s="6"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
     </row>
     <row r="79" s="4" customFormat="1" spans="1:15">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="17"/>
       <c r="D79" s="16"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
       <c r="K79" s="6"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="25"/>
     </row>
     <row r="80" s="4" customFormat="1" spans="1:15">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="17"/>
       <c r="D80" s="16"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
       <c r="K80" s="6"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="17"/>
       <c r="D81" s="16"/>
-      <c r="L81" s="22"/>
+      <c r="L81" s="23"/>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="17"/>
       <c r="D82" s="16"/>
-      <c r="L82" s="22"/>
+      <c r="L82" s="23"/>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="17"/>
       <c r="D83" s="16"/>
-      <c r="L83" s="22"/>
+      <c r="L83" s="23"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="17"/>
       <c r="D84" s="16"/>
-      <c r="L84" s="22"/>
+      <c r="L84" s="23"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="17"/>
       <c r="D85" s="16"/>
-      <c r="L85" s="22"/>
+      <c r="L85" s="23"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="17"/>
       <c r="D86" s="16"/>
-      <c r="L86" s="22"/>
+      <c r="L86" s="23"/>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="17"/>
       <c r="D87" s="16"/>
-      <c r="I87" s="21"/>
+      <c r="I87" s="22"/>
       <c r="L87" s="6"/>
     </row>
     <row r="88" spans="1:12">
@@ -4102,14 +4169,14 @@
       <c r="B88" s="16"/>
       <c r="C88" s="17"/>
       <c r="D88" s="16"/>
-      <c r="L88" s="22"/>
+      <c r="L88" s="23"/>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="17"/>
       <c r="D89" s="16"/>
-      <c r="L89" s="22"/>
+      <c r="L89" s="23"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="16"/>
@@ -4123,30 +4190,30 @@
       <c r="B91" s="16"/>
       <c r="C91" s="17"/>
       <c r="D91" s="16"/>
-      <c r="L91" s="22"/>
+      <c r="L91" s="23"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="17"/>
       <c r="D92" s="16"/>
-      <c r="I92" s="21"/>
-      <c r="L92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="L92" s="23"/>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="17"/>
       <c r="D93" s="16"/>
-      <c r="I93" s="21"/>
-      <c r="L93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="L93" s="23"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="17"/>
       <c r="D94" s="16"/>
-      <c r="I94" s="21"/>
+      <c r="I94" s="22"/>
       <c r="L94" s="6"/>
     </row>
     <row r="95" spans="1:12">
@@ -4154,15 +4221,15 @@
       <c r="B95" s="16"/>
       <c r="C95" s="17"/>
       <c r="D95" s="16"/>
-      <c r="I95" s="21"/>
-      <c r="L95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="L95" s="23"/>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="17"/>
       <c r="D96" s="16"/>
-      <c r="I96" s="21"/>
+      <c r="I96" s="22"/>
       <c r="L96" s="6"/>
     </row>
     <row r="97" spans="1:12">
@@ -4170,31 +4237,31 @@
       <c r="B97" s="16"/>
       <c r="C97" s="17"/>
       <c r="D97" s="16"/>
-      <c r="I97" s="21"/>
-      <c r="L97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="L97" s="23"/>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="17"/>
       <c r="D98" s="16"/>
-      <c r="I98" s="21"/>
-      <c r="L98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="L98" s="23"/>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="17"/>
       <c r="D99" s="16"/>
-      <c r="I99" s="21"/>
-      <c r="L99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="L99" s="23"/>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="17"/>
       <c r="D100" s="16"/>
-      <c r="I100" s="21"/>
+      <c r="I100" s="22"/>
       <c r="L100" s="6"/>
     </row>
     <row r="101" spans="1:12">
@@ -4202,15 +4269,15 @@
       <c r="B101" s="16"/>
       <c r="C101" s="17"/>
       <c r="D101" s="16"/>
-      <c r="I101" s="21"/>
-      <c r="L101" s="22"/>
+      <c r="I101" s="22"/>
+      <c r="L101" s="23"/>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
       <c r="C102" s="17"/>
       <c r="D102" s="16"/>
-      <c r="I102" s="21"/>
+      <c r="I102" s="22"/>
       <c r="L102" s="6"/>
     </row>
     <row r="103" spans="1:12">
@@ -4218,31 +4285,31 @@
       <c r="B103" s="16"/>
       <c r="C103" s="17"/>
       <c r="D103" s="16"/>
-      <c r="I103" s="21"/>
-      <c r="L103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="L103" s="23"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="17"/>
       <c r="D104" s="16"/>
-      <c r="I104" s="21"/>
-      <c r="L104" s="22"/>
+      <c r="I104" s="22"/>
+      <c r="L104" s="23"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
       <c r="C105" s="17"/>
       <c r="D105" s="16"/>
-      <c r="I105" s="21"/>
-      <c r="L105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="L105" s="23"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="17"/>
       <c r="D106" s="16"/>
-      <c r="I106" s="21"/>
+      <c r="I106" s="22"/>
       <c r="L106" s="6"/>
     </row>
     <row r="107" spans="1:12">
@@ -4250,22 +4317,22 @@
       <c r="B107" s="16"/>
       <c r="C107" s="17"/>
       <c r="D107" s="16"/>
-      <c r="L107" s="22"/>
+      <c r="L107" s="23"/>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
       <c r="C108" s="17"/>
       <c r="D108" s="16"/>
-      <c r="I108" s="21"/>
-      <c r="L108" s="22"/>
+      <c r="I108" s="22"/>
+      <c r="L108" s="23"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
       <c r="C109" s="17"/>
       <c r="D109" s="16"/>
-      <c r="I109" s="21"/>
+      <c r="I109" s="22"/>
       <c r="L109" s="6"/>
     </row>
     <row r="110" spans="1:12">
@@ -4273,7 +4340,7 @@
       <c r="B110" s="16"/>
       <c r="C110" s="17"/>
       <c r="D110" s="16"/>
-      <c r="I110" s="21"/>
+      <c r="I110" s="22"/>
       <c r="L110" s="6"/>
     </row>
     <row r="111" spans="1:12">
@@ -4281,15 +4348,15 @@
       <c r="B111" s="16"/>
       <c r="C111" s="17"/>
       <c r="D111" s="16"/>
-      <c r="I111" s="21"/>
-      <c r="L111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="L111" s="23"/>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
       <c r="C112" s="17"/>
       <c r="D112" s="16"/>
-      <c r="I112" s="21"/>
+      <c r="I112" s="22"/>
       <c r="L112" s="6"/>
     </row>
     <row r="113" spans="1:12">
@@ -4297,23 +4364,23 @@
       <c r="B113" s="16"/>
       <c r="C113" s="17"/>
       <c r="D113" s="16"/>
-      <c r="I113" s="21"/>
-      <c r="L113" s="22"/>
+      <c r="I113" s="22"/>
+      <c r="L113" s="23"/>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="17"/>
       <c r="D114" s="16"/>
-      <c r="J114" s="21"/>
-      <c r="L114" s="22"/>
+      <c r="J114" s="22"/>
+      <c r="L114" s="23"/>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
       <c r="C115" s="17"/>
       <c r="D115" s="16"/>
-      <c r="I115" s="21"/>
+      <c r="I115" s="22"/>
       <c r="L115" s="6"/>
     </row>
     <row r="116" spans="1:12">
@@ -4321,42 +4388,42 @@
       <c r="B116" s="16"/>
       <c r="C116" s="17"/>
       <c r="D116" s="16"/>
-      <c r="I116" s="21"/>
-      <c r="L116" s="22"/>
+      <c r="I116" s="22"/>
+      <c r="L116" s="23"/>
     </row>
     <row r="117" s="4" customFormat="1" spans="1:15">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
       <c r="C117" s="17"/>
       <c r="D117" s="16"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="25"/>
       <c r="K117" s="6"/>
-      <c r="L117" s="23"/>
-      <c r="M117" s="24"/>
-      <c r="N117" s="24"/>
-      <c r="O117" s="24"/>
+      <c r="L117" s="24"/>
+      <c r="M117" s="25"/>
+      <c r="N117" s="25"/>
+      <c r="O117" s="25"/>
     </row>
     <row r="118" s="4" customFormat="1" spans="1:15">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
       <c r="C118" s="17"/>
       <c r="D118" s="16"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="25"/>
       <c r="K118" s="6"/>
-      <c r="L118" s="23"/>
-      <c r="M118" s="24"/>
-      <c r="N118" s="24"/>
-      <c r="O118" s="24"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="25"/>
+      <c r="N118" s="25"/>
+      <c r="O118" s="25"/>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="16"/>
@@ -4685,14 +4752,14 @@
       <c r="B165" s="16"/>
       <c r="C165" s="17"/>
       <c r="D165" s="16"/>
-      <c r="L165" s="22"/>
+      <c r="L165" s="23"/>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="16"/>
       <c r="B166" s="16"/>
       <c r="C166" s="17"/>
       <c r="D166" s="16"/>
-      <c r="L166" s="22"/>
+      <c r="L166" s="23"/>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="16"/>
@@ -4706,7 +4773,7 @@
       <c r="B168" s="16"/>
       <c r="C168" s="17"/>
       <c r="D168" s="16"/>
-      <c r="L168" s="22"/>
+      <c r="L168" s="23"/>
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="16"/>
@@ -4720,14 +4787,14 @@
       <c r="B170" s="16"/>
       <c r="C170" s="17"/>
       <c r="D170" s="16"/>
-      <c r="L170" s="22"/>
+      <c r="L170" s="23"/>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="16"/>
       <c r="B171" s="16"/>
       <c r="C171" s="17"/>
       <c r="D171" s="16"/>
-      <c r="L171" s="22"/>
+      <c r="L171" s="23"/>
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="16"/>
@@ -4741,14 +4808,14 @@
       <c r="B173" s="16"/>
       <c r="C173" s="17"/>
       <c r="D173" s="16"/>
-      <c r="L173" s="22"/>
+      <c r="L173" s="23"/>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="16"/>
       <c r="B174" s="16"/>
       <c r="C174" s="17"/>
       <c r="D174" s="16"/>
-      <c r="L174" s="22"/>
+      <c r="L174" s="23"/>
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="16"/>
@@ -4762,7 +4829,7 @@
       <c r="B176" s="16"/>
       <c r="C176" s="17"/>
       <c r="D176" s="16"/>
-      <c r="L176" s="22"/>
+      <c r="L176" s="23"/>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="16"/>
@@ -4776,14 +4843,14 @@
       <c r="B178" s="16"/>
       <c r="C178" s="17"/>
       <c r="D178" s="16"/>
-      <c r="L178" s="22"/>
+      <c r="L178" s="23"/>
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="16"/>
       <c r="B179" s="16"/>
       <c r="C179" s="17"/>
       <c r="D179" s="16"/>
-      <c r="L179" s="22"/>
+      <c r="L179" s="23"/>
     </row>
     <row r="180" spans="12:12">
       <c r="L180" s="6"/>

--- a/src/doubleLine/双热线.xlsx
+++ b/src/doubleLine/双热线.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="3" r:id="rId1"/>
     <sheet name="双热线" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">双热线!$A$1:$O$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">双热线!$A$1:$O$49</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="157">
   <si>
     <t>序号</t>
   </si>
@@ -497,6 +497,30 @@
   </si>
   <si>
     <t>李节</t>
+  </si>
+  <si>
+    <t>00509012</t>
+  </si>
+  <si>
+    <t>0050901201</t>
+  </si>
+  <si>
+    <t>TradeData.PAY_FEE_AMT</t>
+  </si>
+  <si>
+    <t>杨帅</t>
+  </si>
+  <si>
+    <t>00101055</t>
+  </si>
+  <si>
+    <t>0010105501</t>
+  </si>
+  <si>
+    <t>TradeData.TX_AMT</t>
+  </si>
+  <si>
+    <t>res_019E.CUST_TYP_CD</t>
   </si>
 </sst>
 </file>
@@ -505,8 +529,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -546,6 +570,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -561,17 +630,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,54 +653,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,30 +698,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,7 +752,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +842,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,163 +932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,6 +957,32 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,26 +1020,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,42 +1058,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1052,137 +1076,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1201,6 +1225,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1566,135 +1594,135 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11.3833333333333" style="28" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.3833333333333" style="32" customWidth="1"/>
     <col min="3" max="3" width="9.75" customWidth="1"/>
     <col min="4" max="4" width="50.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+    <row r="1" s="31" customFormat="1" spans="1:4">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="31">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="36">
         <v>43707</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1705,12 +1733,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O217"/>
+  <dimension ref="A1:O215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="$A23:$XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1808,7 +1836,7 @@
       <c r="J2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="39" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="12" t="s">
@@ -1894,7 +1922,7 @@
       <c r="J4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="39" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="12" t="s">
@@ -1937,7 +1965,7 @@
       <c r="J5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="39" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="12" t="s">
@@ -1980,7 +2008,7 @@
       <c r="J6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="39" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="12" t="s">
@@ -2493,7 +2521,7 @@
       <c r="I18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="22" t="s">
         <v>30</v>
       </c>
       <c r="K18" s="10" t="s">
@@ -2579,7 +2607,7 @@
       <c r="I20" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="22" t="s">
         <v>84</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -2754,7 +2782,7 @@
       <c r="J24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="35" t="s">
+      <c r="K24" s="39" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="12" t="s">
@@ -2797,7 +2825,7 @@
       <c r="J25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="35" t="s">
+      <c r="K25" s="39" t="s">
         <v>78</v>
       </c>
       <c r="L25" s="12" t="s">
@@ -2840,7 +2868,7 @@
       <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="35" t="s">
+      <c r="K26" s="39" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="12" t="s">
@@ -2883,7 +2911,7 @@
       <c r="J27" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="K27" s="35" t="s">
+      <c r="K27" s="39" t="s">
         <v>78</v>
       </c>
       <c r="L27" s="12" t="s">
@@ -2926,7 +2954,7 @@
       <c r="J28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="35" t="s">
+      <c r="K28" s="39" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="12" t="s">
@@ -2969,7 +2997,7 @@
       <c r="J29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="35" t="s">
+      <c r="K29" s="39" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="12" t="s">
@@ -3012,7 +3040,7 @@
       <c r="J30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="35" t="s">
+      <c r="K30" s="39" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="12" t="s">
@@ -3055,7 +3083,7 @@
       <c r="J31" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K31" s="35" t="s">
+      <c r="K31" s="39" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="12" t="s">
@@ -3098,7 +3126,7 @@
       <c r="J32" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K32" s="35" t="s">
+      <c r="K32" s="39" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="12" t="s">
@@ -3123,10 +3151,10 @@
       <c r="D33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="39" t="s">
         <v>118</v>
       </c>
       <c r="G33" s="12" t="s">
@@ -3174,7 +3202,7 @@
       <c r="J34" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="35" t="s">
+      <c r="K34" s="39" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="12" t="s">
@@ -3199,10 +3227,10 @@
       <c r="D35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="35" t="s">
+      <c r="F35" s="39" t="s">
         <v>123</v>
       </c>
       <c r="G35" s="13" t="s">
@@ -3217,7 +3245,7 @@
       <c r="J35" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="35" t="s">
+      <c r="K35" s="39" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="12" t="s">
@@ -3242,10 +3270,10 @@
       <c r="D36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="35" t="s">
+      <c r="F36" s="39" t="s">
         <v>124</v>
       </c>
       <c r="G36" s="12" t="s">
@@ -3260,7 +3288,7 @@
       <c r="J36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K36" s="35" t="s">
+      <c r="K36" s="39" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="12" t="s">
@@ -3693,7 +3721,7 @@
       <c r="K46" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L46" s="19">
+      <c r="L46" s="23">
         <v>500000</v>
       </c>
       <c r="M46" s="13"/>
@@ -3746,72 +3774,176 @@
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:15">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
+      <c r="A48" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" s="23">
+        <v>500000</v>
+      </c>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:15">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
+      <c r="A49" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:15">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
+      <c r="A50" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" s="23">
+        <v>500000</v>
+      </c>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="13" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:15">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
+      <c r="A51" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
+      <c r="O51" s="13" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:15">
       <c r="A52" s="13"/>
@@ -3830,1027 +3962,999 @@
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
     </row>
-    <row r="53" s="1" customFormat="1" spans="1:15">
-      <c r="A53" s="13"/>
+    <row r="53" s="3" customFormat="1" spans="1:15">
+      <c r="A53" s="18"/>
       <c r="B53" s="13"/>
       <c r="C53" s="12"/>
       <c r="D53" s="13"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:15">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-    </row>
-    <row r="55" s="3" customFormat="1" spans="1:15">
-      <c r="A55" s="14"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="20"/>
+      <c r="I54" s="26"/>
+      <c r="L54" s="27"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="20"/>
+      <c r="I55" s="26"/>
+      <c r="L55" s="27"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="16"/>
-      <c r="I56" s="22"/>
-      <c r="L56" s="23"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="20"/>
+      <c r="I56" s="26"/>
+      <c r="L56" s="6"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="16"/>
-      <c r="I57" s="22"/>
-      <c r="L57" s="23"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="20"/>
+      <c r="I57" s="26"/>
+      <c r="L57" s="27"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="16"/>
-      <c r="I58" s="22"/>
-      <c r="L58" s="6"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="20"/>
+      <c r="I58" s="26"/>
+      <c r="L58" s="27"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="16"/>
-      <c r="I59" s="22"/>
-      <c r="L59" s="23"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="20"/>
+      <c r="I59" s="26"/>
+      <c r="L59" s="6"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="16"/>
-      <c r="I60" s="22"/>
-      <c r="L60" s="23"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="20"/>
+      <c r="I60" s="26"/>
+      <c r="L60" s="27"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="16"/>
-      <c r="I61" s="22"/>
-      <c r="L61" s="6"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="20"/>
+      <c r="I61" s="26"/>
+      <c r="L61" s="27"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="16"/>
-      <c r="I62" s="22"/>
-      <c r="L62" s="23"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="20"/>
+      <c r="I62" s="26"/>
+      <c r="L62" s="27"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="16"/>
-      <c r="I63" s="22"/>
-      <c r="L63" s="23"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="20"/>
+      <c r="I63" s="26"/>
+      <c r="L63" s="6"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="16"/>
-      <c r="I64" s="22"/>
-      <c r="L64" s="23"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="20"/>
+      <c r="I64" s="26"/>
+      <c r="L64" s="27"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="16"/>
-      <c r="I65" s="22"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="20"/>
+      <c r="I65" s="26"/>
       <c r="L65" s="6"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="16"/>
-      <c r="I66" s="22"/>
-      <c r="L66" s="23"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="20"/>
+      <c r="I66" s="26"/>
+      <c r="L66" s="27"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="16"/>
-      <c r="I67" s="22"/>
-      <c r="L67" s="6"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="20"/>
+      <c r="I67" s="26"/>
+      <c r="L67" s="27"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="16"/>
-      <c r="I68" s="22"/>
-      <c r="L68" s="23"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="20"/>
+      <c r="I68" s="26"/>
+      <c r="L68" s="27"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="16"/>
-      <c r="I69" s="22"/>
-      <c r="L69" s="23"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="20"/>
+      <c r="I69" s="26"/>
+      <c r="L69" s="6"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="16"/>
-      <c r="I70" s="22"/>
-      <c r="L70" s="23"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="20"/>
+      <c r="I70" s="26"/>
+      <c r="L70" s="27"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="16"/>
-      <c r="I71" s="22"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="20"/>
       <c r="L71" s="6"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="16"/>
-      <c r="I72" s="22"/>
-      <c r="L72" s="23"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="20"/>
+      <c r="I72" s="26"/>
+      <c r="L72" s="27"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="16"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="20"/>
       <c r="L73" s="6"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="16"/>
-      <c r="I74" s="22"/>
-      <c r="L74" s="23"/>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="16"/>
-      <c r="L75" s="6"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="16"/>
-      <c r="L76" s="23"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="20"/>
+      <c r="L74" s="27"/>
+    </row>
+    <row r="75" s="4" customFormat="1" spans="1:15">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+    </row>
+    <row r="76" s="4" customFormat="1" spans="1:15">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
     </row>
     <row r="77" s="4" customFormat="1" spans="1:15">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
       <c r="K77" s="6"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="25"/>
-      <c r="O77" s="25"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
     </row>
     <row r="78" s="4" customFormat="1" spans="1:15">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
       <c r="K78" s="6"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="25"/>
-      <c r="O78" s="25"/>
-    </row>
-    <row r="79" s="4" customFormat="1" spans="1:15">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="25"/>
-    </row>
-    <row r="80" s="4" customFormat="1" spans="1:15">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="25"/>
-      <c r="O80" s="25"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="20"/>
+      <c r="L79" s="27"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="20"/>
+      <c r="L80" s="27"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="16"/>
-      <c r="L81" s="23"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="20"/>
+      <c r="L81" s="27"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="16"/>
-      <c r="L82" s="23"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="20"/>
+      <c r="L82" s="27"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="16"/>
-      <c r="L83" s="23"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="20"/>
+      <c r="L83" s="27"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="16"/>
-      <c r="L84" s="23"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="20"/>
+      <c r="L84" s="27"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="16"/>
-      <c r="L85" s="23"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="20"/>
+      <c r="I85" s="26"/>
+      <c r="L85" s="6"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="16"/>
-      <c r="L86" s="23"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="20"/>
+      <c r="L86" s="27"/>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="16"/>
-      <c r="I87" s="22"/>
-      <c r="L87" s="6"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="20"/>
+      <c r="L87" s="27"/>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="16"/>
-      <c r="L88" s="23"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="20"/>
+      <c r="L88" s="6"/>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="16"/>
-      <c r="L89" s="23"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="20"/>
+      <c r="L89" s="27"/>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="16"/>
-      <c r="L90" s="6"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="20"/>
+      <c r="I90" s="26"/>
+      <c r="L90" s="27"/>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="16"/>
-      <c r="L91" s="23"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="20"/>
+      <c r="I91" s="26"/>
+      <c r="L91" s="27"/>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="16"/>
-      <c r="I92" s="22"/>
-      <c r="L92" s="23"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="20"/>
+      <c r="I92" s="26"/>
+      <c r="L92" s="6"/>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="16"/>
-      <c r="I93" s="22"/>
-      <c r="L93" s="23"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="20"/>
+      <c r="I93" s="26"/>
+      <c r="L93" s="27"/>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="16"/>
-      <c r="I94" s="22"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="20"/>
+      <c r="I94" s="26"/>
       <c r="L94" s="6"/>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="16"/>
-      <c r="I95" s="22"/>
-      <c r="L95" s="23"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="20"/>
+      <c r="I95" s="26"/>
+      <c r="L95" s="27"/>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="16"/>
-      <c r="I96" s="22"/>
-      <c r="L96" s="6"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="20"/>
+      <c r="I96" s="26"/>
+      <c r="L96" s="27"/>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="16"/>
-      <c r="I97" s="22"/>
-      <c r="L97" s="23"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="20"/>
+      <c r="I97" s="26"/>
+      <c r="L97" s="27"/>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="16"/>
-      <c r="I98" s="22"/>
-      <c r="L98" s="23"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="20"/>
+      <c r="I98" s="26"/>
+      <c r="L98" s="6"/>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="16"/>
-      <c r="I99" s="22"/>
-      <c r="L99" s="23"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="20"/>
+      <c r="I99" s="26"/>
+      <c r="L99" s="27"/>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="16"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="16"/>
-      <c r="I100" s="22"/>
+      <c r="A100" s="20"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="20"/>
+      <c r="I100" s="26"/>
       <c r="L100" s="6"/>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="16"/>
-      <c r="I101" s="22"/>
-      <c r="L101" s="23"/>
+      <c r="A101" s="20"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="20"/>
+      <c r="I101" s="26"/>
+      <c r="L101" s="27"/>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="16"/>
-      <c r="I102" s="22"/>
-      <c r="L102" s="6"/>
+      <c r="A102" s="20"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="20"/>
+      <c r="I102" s="26"/>
+      <c r="L102" s="27"/>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="16"/>
-      <c r="I103" s="22"/>
-      <c r="L103" s="23"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="20"/>
+      <c r="I103" s="26"/>
+      <c r="L103" s="27"/>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="16"/>
-      <c r="I104" s="22"/>
-      <c r="L104" s="23"/>
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="20"/>
+      <c r="I104" s="26"/>
+      <c r="L104" s="6"/>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="16"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="16"/>
-      <c r="I105" s="22"/>
-      <c r="L105" s="23"/>
+      <c r="A105" s="20"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="20"/>
+      <c r="L105" s="27"/>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="16"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="16"/>
-      <c r="I106" s="22"/>
-      <c r="L106" s="6"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="20"/>
+      <c r="I106" s="26"/>
+      <c r="L106" s="27"/>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="16"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="16"/>
-      <c r="L107" s="23"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="20"/>
+      <c r="I107" s="26"/>
+      <c r="L107" s="6"/>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="16"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="16"/>
-      <c r="I108" s="22"/>
-      <c r="L108" s="23"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="20"/>
+      <c r="I108" s="26"/>
+      <c r="L108" s="6"/>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="16"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="16"/>
-      <c r="I109" s="22"/>
-      <c r="L109" s="6"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="20"/>
+      <c r="I109" s="26"/>
+      <c r="L109" s="27"/>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="16"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="16"/>
-      <c r="I110" s="22"/>
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="20"/>
+      <c r="I110" s="26"/>
       <c r="L110" s="6"/>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="16"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="16"/>
-      <c r="I111" s="22"/>
-      <c r="L111" s="23"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="20"/>
+      <c r="I111" s="26"/>
+      <c r="L111" s="27"/>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="16"/>
-      <c r="I112" s="22"/>
-      <c r="L112" s="6"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="20"/>
+      <c r="J112" s="26"/>
+      <c r="L112" s="27"/>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="16"/>
-      <c r="I113" s="22"/>
-      <c r="L113" s="23"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="20"/>
+      <c r="I113" s="26"/>
+      <c r="L113" s="6"/>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="16"/>
-      <c r="B114" s="16"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="16"/>
-      <c r="J114" s="22"/>
-      <c r="L114" s="23"/>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115" s="16"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="16"/>
-      <c r="I115" s="22"/>
-      <c r="L115" s="6"/>
-    </row>
-    <row r="116" spans="1:12">
-      <c r="A116" s="16"/>
-      <c r="B116" s="16"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="16"/>
-      <c r="I116" s="22"/>
-      <c r="L116" s="23"/>
-    </row>
-    <row r="117" s="4" customFormat="1" spans="1:15">
-      <c r="A117" s="16"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="25"/>
-      <c r="I117" s="25"/>
-      <c r="J117" s="25"/>
-      <c r="K117" s="6"/>
-      <c r="L117" s="24"/>
-      <c r="M117" s="25"/>
-      <c r="N117" s="25"/>
-      <c r="O117" s="25"/>
-    </row>
-    <row r="118" s="4" customFormat="1" spans="1:15">
-      <c r="A118" s="16"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
-      <c r="J118" s="25"/>
-      <c r="K118" s="6"/>
-      <c r="L118" s="24"/>
-      <c r="M118" s="25"/>
-      <c r="N118" s="25"/>
-      <c r="O118" s="25"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="20"/>
+      <c r="I114" s="26"/>
+      <c r="L114" s="27"/>
+    </row>
+    <row r="115" s="4" customFormat="1" spans="1:15">
+      <c r="A115" s="20"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="29"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="28"/>
+      <c r="M115" s="29"/>
+      <c r="N115" s="29"/>
+      <c r="O115" s="29"/>
+    </row>
+    <row r="116" s="4" customFormat="1" spans="1:15">
+      <c r="A116" s="20"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="28"/>
+      <c r="M116" s="29"/>
+      <c r="N116" s="29"/>
+      <c r="O116" s="29"/>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="20"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="20"/>
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="20"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="20"/>
+      <c r="L118" s="6"/>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="16"/>
-      <c r="B119" s="16"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="16"/>
+      <c r="A119" s="20"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="20"/>
       <c r="L119" s="6"/>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="16"/>
-      <c r="B120" s="16"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="16"/>
+      <c r="A120" s="20"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="20"/>
       <c r="L120" s="6"/>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="16"/>
-      <c r="B121" s="16"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="16"/>
+      <c r="A121" s="20"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="20"/>
       <c r="L121" s="6"/>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="16"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="16"/>
+      <c r="A122" s="20"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="20"/>
       <c r="L122" s="6"/>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="16"/>
-      <c r="B123" s="16"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="16"/>
+      <c r="A123" s="20"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="20"/>
       <c r="L123" s="6"/>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="16"/>
-      <c r="B124" s="16"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="16"/>
+      <c r="A124" s="20"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="20"/>
       <c r="L124" s="6"/>
     </row>
     <row r="125" spans="1:12">
-      <c r="A125" s="16"/>
-      <c r="B125" s="16"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="16"/>
+      <c r="A125" s="20"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="20"/>
       <c r="L125" s="6"/>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="16"/>
-      <c r="B126" s="16"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="16"/>
+      <c r="A126" s="20"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="20"/>
       <c r="L126" s="6"/>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="16"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="16"/>
+      <c r="A127" s="20"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="20"/>
       <c r="L127" s="6"/>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="16"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="16"/>
+      <c r="A128" s="20"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="20"/>
       <c r="L128" s="6"/>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="16"/>
-      <c r="B129" s="16"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="16"/>
+      <c r="A129" s="20"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="20"/>
       <c r="L129" s="6"/>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="16"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="16"/>
+      <c r="A130" s="20"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="20"/>
       <c r="L130" s="6"/>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="16"/>
-      <c r="B131" s="16"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="16"/>
+      <c r="A131" s="20"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="20"/>
       <c r="L131" s="6"/>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="16"/>
-      <c r="B132" s="16"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="16"/>
+      <c r="A132" s="20"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="20"/>
       <c r="L132" s="6"/>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="16"/>
-      <c r="B133" s="16"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="16"/>
+      <c r="A133" s="20"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="20"/>
       <c r="L133" s="6"/>
     </row>
     <row r="134" spans="1:12">
-      <c r="A134" s="16"/>
-      <c r="B134" s="16"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="16"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="20"/>
       <c r="L134" s="6"/>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="16"/>
-      <c r="B135" s="16"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="16"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="20"/>
       <c r="L135" s="6"/>
     </row>
     <row r="136" spans="1:12">
-      <c r="A136" s="16"/>
-      <c r="B136" s="16"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="16"/>
+      <c r="A136" s="20"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="20"/>
       <c r="L136" s="6"/>
     </row>
     <row r="137" spans="1:12">
-      <c r="A137" s="16"/>
-      <c r="B137" s="16"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="16"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="20"/>
       <c r="L137" s="6"/>
     </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="16"/>
-      <c r="B138" s="16"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="16"/>
+      <c r="A138" s="20"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="20"/>
       <c r="L138" s="6"/>
     </row>
     <row r="139" spans="1:12">
-      <c r="A139" s="16"/>
-      <c r="B139" s="16"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="16"/>
+      <c r="A139" s="20"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="20"/>
       <c r="L139" s="6"/>
     </row>
     <row r="140" spans="1:12">
-      <c r="A140" s="16"/>
-      <c r="B140" s="16"/>
-      <c r="C140" s="17"/>
-      <c r="D140" s="16"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="20"/>
       <c r="L140" s="6"/>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="16"/>
-      <c r="B141" s="16"/>
-      <c r="C141" s="17"/>
-      <c r="D141" s="16"/>
+      <c r="A141" s="20"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="20"/>
       <c r="L141" s="6"/>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="16"/>
-      <c r="B142" s="16"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="16"/>
+      <c r="A142" s="20"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="20"/>
       <c r="L142" s="6"/>
     </row>
     <row r="143" spans="1:12">
-      <c r="A143" s="16"/>
-      <c r="B143" s="16"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="16"/>
+      <c r="A143" s="20"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="20"/>
       <c r="L143" s="6"/>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="16"/>
-      <c r="B144" s="16"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="16"/>
+      <c r="A144" s="20"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="20"/>
       <c r="L144" s="6"/>
     </row>
     <row r="145" spans="1:12">
-      <c r="A145" s="16"/>
-      <c r="B145" s="16"/>
-      <c r="C145" s="17"/>
-      <c r="D145" s="16"/>
+      <c r="A145" s="20"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="20"/>
       <c r="L145" s="6"/>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="16"/>
-      <c r="B146" s="16"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="16"/>
+      <c r="A146" s="20"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="20"/>
       <c r="L146" s="6"/>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="16"/>
-      <c r="B147" s="16"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="16"/>
+      <c r="A147" s="20"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="20"/>
       <c r="L147" s="6"/>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="16"/>
-      <c r="B148" s="16"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="16"/>
+      <c r="A148" s="20"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="20"/>
       <c r="L148" s="6"/>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="16"/>
-      <c r="B149" s="16"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="16"/>
+      <c r="A149" s="20"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="20"/>
       <c r="L149" s="6"/>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="16"/>
-      <c r="B150" s="16"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="16"/>
+      <c r="A150" s="20"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="20"/>
       <c r="L150" s="6"/>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="16"/>
-      <c r="B151" s="16"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="16"/>
+      <c r="A151" s="20"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="20"/>
       <c r="L151" s="6"/>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="16"/>
-      <c r="B152" s="16"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="16"/>
+      <c r="A152" s="20"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="20"/>
       <c r="L152" s="6"/>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="16"/>
-      <c r="B153" s="16"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="16"/>
+      <c r="A153" s="20"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="20"/>
       <c r="L153" s="6"/>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="16"/>
-      <c r="B154" s="16"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="16"/>
+      <c r="A154" s="20"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="20"/>
       <c r="L154" s="6"/>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="16"/>
-      <c r="B155" s="16"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="16"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="20"/>
       <c r="L155" s="6"/>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="16"/>
-      <c r="B156" s="16"/>
-      <c r="C156" s="17"/>
-      <c r="D156" s="16"/>
+      <c r="A156" s="20"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="20"/>
       <c r="L156" s="6"/>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="16"/>
-      <c r="B157" s="16"/>
-      <c r="C157" s="17"/>
-      <c r="D157" s="16"/>
+      <c r="A157" s="20"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="20"/>
       <c r="L157" s="6"/>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="16"/>
-      <c r="B158" s="16"/>
-      <c r="C158" s="17"/>
-      <c r="D158" s="16"/>
+      <c r="A158" s="20"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="20"/>
       <c r="L158" s="6"/>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="16"/>
-      <c r="B159" s="16"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="16"/>
+      <c r="A159" s="20"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="20"/>
       <c r="L159" s="6"/>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="16"/>
-      <c r="B160" s="16"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="16"/>
+      <c r="A160" s="20"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="20"/>
       <c r="L160" s="6"/>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="16"/>
-      <c r="B161" s="16"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="16"/>
+      <c r="A161" s="20"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="20"/>
       <c r="L161" s="6"/>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="16"/>
-      <c r="B162" s="16"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="16"/>
+      <c r="A162" s="20"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="21"/>
+      <c r="D162" s="20"/>
       <c r="L162" s="6"/>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="16"/>
-      <c r="B163" s="16"/>
-      <c r="C163" s="17"/>
-      <c r="D163" s="16"/>
-      <c r="L163" s="6"/>
+      <c r="A163" s="20"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="20"/>
+      <c r="L163" s="27"/>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="16"/>
-      <c r="B164" s="16"/>
-      <c r="C164" s="17"/>
-      <c r="D164" s="16"/>
-      <c r="L164" s="6"/>
+      <c r="A164" s="20"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="20"/>
+      <c r="L164" s="27"/>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="16"/>
-      <c r="B165" s="16"/>
-      <c r="C165" s="17"/>
-      <c r="D165" s="16"/>
-      <c r="L165" s="23"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="20"/>
+      <c r="L165" s="6"/>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="16"/>
-      <c r="B166" s="16"/>
-      <c r="C166" s="17"/>
-      <c r="D166" s="16"/>
-      <c r="L166" s="23"/>
+      <c r="A166" s="20"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="21"/>
+      <c r="D166" s="20"/>
+      <c r="L166" s="27"/>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="16"/>
-      <c r="B167" s="16"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="16"/>
+      <c r="A167" s="20"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="20"/>
       <c r="L167" s="6"/>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="16"/>
-      <c r="B168" s="16"/>
-      <c r="C168" s="17"/>
-      <c r="D168" s="16"/>
-      <c r="L168" s="23"/>
+      <c r="A168" s="20"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="21"/>
+      <c r="D168" s="20"/>
+      <c r="L168" s="27"/>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="16"/>
-      <c r="B169" s="16"/>
-      <c r="C169" s="17"/>
-      <c r="D169" s="16"/>
-      <c r="L169" s="6"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="20"/>
+      <c r="L169" s="27"/>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="16"/>
-      <c r="B170" s="16"/>
-      <c r="C170" s="17"/>
-      <c r="D170" s="16"/>
-      <c r="L170" s="23"/>
+      <c r="A170" s="20"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="20"/>
+      <c r="L170" s="6"/>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="16"/>
-      <c r="B171" s="16"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="16"/>
-      <c r="L171" s="23"/>
+      <c r="A171" s="20"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="20"/>
+      <c r="L171" s="27"/>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="16"/>
-      <c r="B172" s="16"/>
-      <c r="C172" s="17"/>
-      <c r="D172" s="16"/>
-      <c r="L172" s="6"/>
+      <c r="A172" s="20"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="21"/>
+      <c r="D172" s="20"/>
+      <c r="L172" s="27"/>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="16"/>
-      <c r="B173" s="16"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="16"/>
-      <c r="L173" s="23"/>
+      <c r="A173" s="20"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="20"/>
+      <c r="L173" s="6"/>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="16"/>
-      <c r="B174" s="16"/>
-      <c r="C174" s="17"/>
-      <c r="D174" s="16"/>
-      <c r="L174" s="23"/>
+      <c r="A174" s="20"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="21"/>
+      <c r="D174" s="20"/>
+      <c r="L174" s="27"/>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="16"/>
-      <c r="B175" s="16"/>
-      <c r="C175" s="17"/>
-      <c r="D175" s="16"/>
+      <c r="A175" s="20"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="20"/>
       <c r="L175" s="6"/>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="16"/>
-      <c r="B176" s="16"/>
-      <c r="C176" s="17"/>
-      <c r="D176" s="16"/>
-      <c r="L176" s="23"/>
+      <c r="A176" s="20"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="20"/>
+      <c r="L176" s="27"/>
     </row>
     <row r="177" spans="1:12">
-      <c r="A177" s="16"/>
-      <c r="B177" s="16"/>
-      <c r="C177" s="17"/>
-      <c r="D177" s="16"/>
-      <c r="L177" s="6"/>
-    </row>
-    <row r="178" spans="1:12">
-      <c r="A178" s="16"/>
-      <c r="B178" s="16"/>
-      <c r="C178" s="17"/>
-      <c r="D178" s="16"/>
-      <c r="L178" s="23"/>
-    </row>
-    <row r="179" spans="1:12">
-      <c r="A179" s="16"/>
-      <c r="B179" s="16"/>
-      <c r="C179" s="17"/>
-      <c r="D179" s="16"/>
-      <c r="L179" s="23"/>
+      <c r="A177" s="20"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="20"/>
+      <c r="L177" s="27"/>
+    </row>
+    <row r="178" spans="12:12">
+      <c r="L178" s="6"/>
+    </row>
+    <row r="179" spans="12:12">
+      <c r="L179" s="6"/>
     </row>
     <row r="180" spans="12:12">
       <c r="L180" s="6"/>
@@ -4960,14 +5064,8 @@
     <row r="215" spans="12:12">
       <c r="L215" s="6"/>
     </row>
-    <row r="216" spans="12:12">
-      <c r="L216" s="6"/>
-    </row>
-    <row r="217" spans="12:12">
-      <c r="L217" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O55">
+  <autoFilter ref="A1:O49">
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
